--- a/output/Total_time_range_data/河南省/漯河市_学习考察.xlsx
+++ b/output/Total_time_range_data/河南省/漯河市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,5342 +436,5845 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>155</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>舞阳县组织外出考察学习人居环境整治工作</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2020-09-15</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article91be6ab4323f6660beb41ccc2053feb4.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['9月2日，县委副书记、副县长朱暑光带领各乡镇党委书记、县直有关单位负责人和部分村支部书记，先后到召陵区万金镇、一体化示范区姬石村、开发区靳庄村、郾城区龙城镇、游庄村和西城区下魏村考察学习人居环境整治工作。县政府副县长师艳芳参加活动。 通过实地参观学习、听取经验介绍和互动交流后，大家纷纷表示看到了差距，开拓了思路，受益匪浅。回去后要把此次参观学习的好经验、好做法同村实际相结合，发动群众参与，强化文化传承，发挥自身优势，因地制宜扎实推进人居环境整治工作，为全面实施乡村振兴、建设美丽乡村奠定坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>155</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>市文化市场综合执法支队赴平顶山考察学习</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2015-11-24</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/bmdt/article0ffc8e3aa0011dfa76ec952d6a27a224.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['为进一步拓宽服务型执法工作思路，全面提升全市服务型执法工作水平。在副局长、支队长胡明刚的带领下，市文化市场综合执法支队全体执法人员，赴平顶山市考察学习。 平顶山支队通过播放服务型执法宣传视频和讲解课件等方式对开展服务型执法建设工作先进经验进行详细讲解，两市执法人员对服务型执法建设、案卷制作、案件办理等工作进行座谈交流。随后对平顶山市网吧市场、娱乐市场进行了现场观摩。 此次考察学习活动，既交流了工作经验、开拓了视野又加深了友情。随后，支队召开了全体执法人员座谈会，大家畅所欲言，纷纷表示要学习平顶山支队的工作亮点、创新点及先进经验，提高认识，创新思路，促进我市文化市场综合执法工作再上新台阶。 （市文化市场综合执法支队）']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>155</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>衡阳县政协主席杨秋良到临颍县考察学习</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2017-06-21</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article57d750336ead92d0fdb7b8612a768de2.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['6月20日，衡阳县政协主席、党组书记杨秋良一行到临颍县考察学习，县领导王临生、孙淑芳、任向群及县委宣传部、政法委相关领导陪同。 杨秋良一行先后到台陈镇综治中心、杜曲镇龙堂村家训文化馆优秀传统文化展示基地、固厢乡小师村同心优秀传统文化培训基地、县文化活动中心优秀传统文化教育基地进行实地参观学习，并听取相关负责人的情况汇报。杨秋良对我县创新社会治理工作给予肯定，并表示要深入了解和学习我县好的经验、做法，带回去总结和推广，同时加强与我县的沟通联系，促进两地合作交流。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>155</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>舞阳县赴郾城区考察学习棚户区改造工作</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2018-02-26</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articlec93a277dde89b9452bc2d500831ffda5.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['2月24日，县委副书记、县长张书民等领导带领县发改工信委、国土资源局、住建委、财政局、城投中心、征收办、县政府法制办、金融办、房投公司、农投公司负责人及舞泉镇、辛安镇、孟寨镇、北舞渡镇、侯集镇党委书记和镇长到郾城区参观考察，学习棚户区改造工作先进经验。郾城区委书记周新民、区长李新伟等领导陪同。', '张书民一行先后到小李庄社居委棚户区改造项目现场、小高庄社居委棚户区改造项目现场、五里庙社居委棚户区改造项目现场进行了实地察看，听取了相关情况介绍，并与郾城区领导及相关乡镇部门负责人就棚户区改造方面经验做法进行了深入的交流与探讨。', '去年9月以来，郾城区围绕破解城市改造难题、推动棚改工作健康运行，认真考察学习借鉴先进地区经验做法，瞄准打造生态宜居示范区目标，积极作为、抢抓机遇，把棚户区改造作为突破口，研究确定以“政府主导、市场运作、净地出让、律师参与”为主要内容的棚改运作新机制，并通过边谋划边运作的方式，有效推进了棚户区改造工作。', '考察结束后，我县考察团成员一致认为，郾城区棚户区改造工作成绩明显，经验值得推广。在下步工作中，要把此次学习考察的成果，迅速转变成工作热情，解放思想、增强动力，创新举措，积极落实，为我县棚户区改造顺利开展打好基础。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>155</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>开发区纪工委考察学习阳光漯河体系建设工作</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2017-06-06</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article576dc609307031755402ec405b5e416b.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['6月5日，经济技术开发区党工委委员、纪工委书记雷伟民，产业集聚区副主任、纪工委副书记、监察室主任梁雁北带队，组织开发区“阳光经开”建设9个牵头部门到郾城区考察学习“阳光漯河”体系建设工作。', '考察组一行首先参观考察了“阳光郾城”网络平台建设、运行管理情况。随后，又深入到龙城镇政府及十五里店村对“阳光三权”建设情况进行考察，学习郾城区以提高村民自治管理水平为核心，在乡镇村居推行的“阳光三权”体系建设，规范农村基层小微权力运行取得的明显成效及典型经验。', '考察结束后，随即召开“阳光经开”建设推进会，总结梳理考察学习成果。会上，梁雁北就下步“阳光经开”的建设工作，对各牵头单位承担的任务进一步细化、分解，要求各单位结合实际按照时间节点抓好落实。', '雷伟民要求各责任部门：一要高度重视，夯实责任。各牵头单位“一把手”对这项工作负主体责任，要真正把这项工作放在心上、抓在手上。二要把握节点，强化责任。“阳光三权”工作6月底前全区村（居）建设要全部完成；“互联网+政务服务”方面，要根据省市要求，全面、按时完成工作任务。三要精心组织，加大宣传力度。通过标语、横幅、版面等多种形式，广泛宣传“阳光经开”，扩大活动知晓度，调动群众参与的积极性。四要加强监督，严肃问责。纪工委要充分利用各种行之有效的手段，及时、准确掌握工作动态，对重视不够、行动迟缓、工作滞后的严肃问责，对弄虚作假、欺上瞒下的坚决查处。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>155</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>洛阳市林业局来沙河国家湿地公园考察学习</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/bmdt/article173da980981b4cb89d716c7a445bd64f.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['2月23日，洛阳市林业局党组成员、二级调研员徐永建带领相关同志一行5人到河南漯河市沙河国家湿地公园考察学习湿地保护管理相关工作。市自然资源和规划局党组成员杜建辉、湿地公园保护中心主任宋明亮及相关同志陪同。', '考察组一行先后到湿地公园宣教中心、合理利用区和管理服务区等地进行实地考察，了解科普宣教体系建设情况及沙河湿地保护、恢复等方面情况。随后，在会议室翻阅查看了相关建设资料并对湿地保护管理等工作进行讨论交流。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>155</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>南阳市老促会考察组到源汇区考察学习</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-10-23</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articleaae1bc2bfbfd4c4885da45f384567f39.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['10月21日，南阳市老促会会长郭庆之带领南阳市老促会考察组到中州抗战纪念馆、神州鸟园考察学习红色资源保护、开发利用等工作。市老促会会长黄国英，常务副会长余丰立，副会长刘桂梅、赵规划等陪同，区领导许绍伟，以及区委办、老促会、干河陈街道负责同志参加。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>155</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>陕西省宝鸡市代表团莅漯考察学习</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-03-22</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/jrlh/articlebc59b3e41d0540e4abd0d1ee7c91b355.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['3月21日，陕西省宝鸡市人大常委会主任、食品工业产业集群群长景耀平带领宝鸡市代表团莅临我市考察学习。市人大常委会主任李思杰、副市长周剑、市人大常委会秘书长张静毅陪同考察。', '在漯期间，代表团先后到临颍县国家现代农业产业园、中大恒源生物科技股份有限公司、联泰食品有限公司、临颍县南街村集团、“食尚年华”田园综合体、双汇第一工业园、漯河旺旺食品有限公司、卫龙美味第二产业园等处实地考察，详细了解我市现代农业、食品产业集群发展等工作。', '代表团成员行一路、学一路、思一路。每到一处，他们认真听取企业发展情况介绍，详细了解我市食品产业“三链同构、农食融合”的经验和做法。在双汇第一工业园、漯河旺旺食品有限公司、卫龙美味第二产业园，代表团成员深入车间，详细了解企业食品安全、产品研发、产业布局等情况。代表团成员对我市经济社会高质量发展给予充分肯定，一致认为我市作为首家中国食品名城，紧紧抓住“粮头食尾、农头工尾”，充分发挥本地资源优势和产业优势，围绕以食品为主导的“1+8+N”现代化产业体系，大力实施“六个打通”，积极培育壮大食品龙头企业，不断延伸食品加工产业链，切实推动食品产业向纵深发展，食品产业生态实现系统性重塑、内涵式提升。代表团成员纷纷表示，此次漯河之行受益匪浅，“三链同构、农食融合”典型经验值得宝鸡市认真学习借鉴，同时希望通过本次学习考察建立起两市友好互通、合作共赢的桥梁。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>155</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>漯河市有关部门赴郑州市洛阳市考察学习扬尘治理工作</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2024-05-15</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/bmdt/articlea02d6fff3e3847b2b4b493fb69609359.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['5月10、11日，漯河市住建局党组成员、副局长史宏星带队前往郑州市、洛阳市扬尘污染防控办公室进行考察学习，学习扬尘治理方面的成功经验和先进做法。漯河市生态环境局三级调研员白红喜，市污染防治攻坚办分管领导，市扬尘污染治理指挥部办公室及各县区扬尘污染治理指挥部办公室负责人一同参加考察学习。', '考察学习主要就控尘管理部门定位与职责、日常监管、监控平台、智慧化工地建设、差异化评价标准等进行座谈交流。随后实地考察了4个建设工地，察看扬尘防治措施的实施情况，现场就智慧化工地平台建设、智慧城市、数字住建等情况进行交流讨论。', '漯河市扬尘污染治理指挥部办公室将结合本地实际情况，因地制宜借鉴和推广外地经验，将学到的经验转化为本地行动，建立与兄弟城市的合作机制，持续交流扬尘治理的最新进展，不断提高漯河市扬尘治理水平，加大环境保护力度，推动绿色发展，持续改善城市空气质量，创造更加优美的生活和居住环境，有效提升人民群众的幸福感和获得感。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>155</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>临颍县畜牧局组织人员赴舞阳县尉氏县考察学习</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2017-03-03</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article92c747818af87920139ab6e827bb808f.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['3月2日，临颍县畜牧局领导带领保险公司、病死畜禽无害化处理厂、局属有关股室负责人赴赴舞阳县、尉氏县考察学习病死畜禽无害化处理工作。 考察人员实地参观了病死动物无害化处理中心和乡镇病死动物收集点的设施建设和运行情况，详细了解了在财政投入、病死动物收集和无害化处理模式等方面的情况介绍，并就有关问题进行了深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>155</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>南阳投资集团莅漯考察学习代建工作</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-11-11</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/bmdt/articleb141fae1484b4915b3fb496b622d4de5.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['11月9日下午，南阳投资集团有限公司副总经理党委委员、崔天杰，南阳市司法局法制审核科科长赵丰彦一行到漯河市投资建设项目代建中心考察学习漯河市代建制运转情况。市住建局党组成员、副局长孟海银，市投资建设项目代建中心负责人刘亚军陪同交流。', '座谈会上，刘亚军全面介绍了漯河市代建工作的背景和现状，详细解读了新修订的《漯河市市级政府投资建设项目代建管理办法》内容，并对漯河市代建项目的基本运作模式、部门责任分工等内容进行了说明。', '孟海银指出，漯河市代建工作起步较早，一路走来成果颇丰，本次代建办法的修订更是为下一步代建工作的全面铺开夯实了制度基础，希望能与南阳市代建部门共同探索代建制的运行机制，进一步优化政府投资效益，推动城市发展。', '崔天杰一行对漯河市住建局和代建部门的大力支持表示感谢。漯河市的代建管理办法和运行模式有许多经验和做法值得学习借鉴，此次考察学习对推动南阳市政府投资项目“代建制”管理工作提供了经验、新的思路和详实内容。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>155</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>周口市工商联主席王琳一行到源汇区考察学习</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2020-11-11</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article613b983028fde44b91e6e1b4e16631bf.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['11月10日，周口市工商联主席王琳一行到源汇区考察学习“五好工商联”建设工作，通过听取介绍、交流座谈等方式，详细了解先进经验做法。市工商联副主席王进方陪同，区工商联负责同志参加。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>155</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>漯河市畜牧局组织人员赴郑考察学习</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2019-08-06</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/bmdt/article411dab6d65c6384bde2b58db466f4912.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['为加强对外埠入漯畜产品进入市场销售前的质量安全监管，保障人民群众健康和生命安全，进一步提升我市外埠入漯畜产品查验中心业务工作及办事流程。8月2日，由市畜牧局党组成员副局长姜京予带队，赴郑州市动物卫生监督所外埠入郑畜产品查验点进行考察学习，一行的有市畜牧局党员成员、市', '为加强对外埠入漯畜产品进入市场销售前的质量安全监管，保障人民群众健康和生命安全，进一步提升我市外埠入漯畜产品查验中心业务工作及办事流程。', '蒋队长的陪同下，先实地参观了报验点检疫大厅、服务大厅、化验室等设施设备。座谈中，彭所长针对报验点的办事流程、化验项目及执法过程中成熟的经验和做法进行了交流、探讨，最后对我市外埠入漯畜产品查验工作将面临的困难和问题给予了合理化建议。', '考察结束后，考察组认为郑州市的畜产品质量安全监管很有特色、把关严格，我们一定要认真学习和借鉴他们的好经验、好做法，确保我市外埠入漯畜产品质量安全。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>155</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>市领导带队赴四川省宜宾市考察学习</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-10-23</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/zwyw/articlea7aead7ec3b44c789d6dce5aad634afa.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['10月19日、20日，副市长周剑带队赴四川省宜宾市考察，学习其城市会客厅、数字化产融协作平台建设等方面的经验和做法。宜宾市副市长华淑蕊及宜宾发展控股集团有限公司、宜宾三江汇海科技集团有限公司负责同志参加活动。', '周剑一行先后参观了宜宾市公共区域品牌“宜人宜礼”展示店、京东西南产融协作平台，认真听取了有关情况介绍，详细了解了平台建设过程及运营模式，对宜宾市基于产融平台打造的全品类“宜宾产”“宜宾造”展销平台表示赞赏。在座谈会上，周剑简要介绍了漯河市经济社会发展情况以及此次学习考察的目的。双方围绕产融协作、平台建设、资源整合、赋能产业等问题展开了友好深入的交流。周剑一行还考察了宜宾三江新区、五粮液集团等，对宜宾市推动绿色转型发展、抢抓新能源产业风口、培育壮大本土品牌的做法表示钦佩，表示将对标先进，加快推动各项工作迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>155</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>舞阳县赴泌阳考察学习脱贫攻坚工作</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2017-03-23</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article694a0d52a1406e384eef6370825797ce.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['月15日，县委副书记王静，县委常委、副县长王凤林，县委常委、县委办公室主任朱俊峰带领县人社局、农林局、扶贫办等单位负责人和县脱贫攻坚领导小组办公室产业扶贫、资金整合及项目建设等方面人员到泌阳县参观考察，学习脱贫攻坚工作先进经验。', '王静一行在泌阳县委常委、县委办公室主任梁忠等领导陪同下，先后到马谷田万亩梨园、裕民种植专业合作社、大地菌业有限公司、孟岗村光伏发电项目基地等地进行实地参观，并认真听取了产业扶贫项目的建设运营情况。在随后召开的座谈会上，双方就涉农资金整合、金融扶贫、农业产业化发展等方面的经验做法进行了深入的交流与探讨。', '泌阳县位于河南省西南部，是革命老区县、省定贫困县。泌阳是传统农业大县，拥有泌阳花菇、金铜山烟叶等金字招牌，形成了“牧、林、菌、烟、油、菜、茶”七大特色产业。在工作中，泌阳县紧紧围绕优势产业，综合运用好“政策驱动、龙头带动、金融助推、租赁经营、培训就业、集体经济、合作经营”等七大产业脱贫模式，充分发挥政府力量、社会力量、脱贫主体联动作用，着力破解资金、技术两大难题，推动产业脱贫向纵深开展。形成了“一乡多业、一村数品、一户多策”的产业脱贫格局，确保村村有产业、户户有项目、人人有致富门路。泌阳县委、县政府结合全县七大特色产业，出资4500万元，扶持35个产业扶贫示范基地，带动发展385个产业帮扶基地，优先流转贫困户土地12000亩，吸纳2300名贫困劳动力到就业基地就业，实现天天有活干，月月有钱赚，推动了经济社会持续健康发展。', '考察结束后，我县考察团成员一致认为，泌阳县脱贫攻坚工作成绩明显，经验值得推广。在下步工作中，要把此次学习考察的成果，迅速转变成工作热情，解放思想、增强动力，创新举措，积极落实到脱贫攻坚每项工作中，确保我县今年如期完成脱贫攻坚目标任务。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>155</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>市科技局组织食品企业赴江南大学考察学习</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2016-11-28</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/bmdt/article7a1eeb914b391364c1fe7a7b71c13caa.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['11月21日至24日，市科技局组团率领部分县区科技局及联泰食品、平平食品、三剑客奶业等10家食品企业赴江南大学进行考察学习、技术对接和合作洽谈。这是市科技局积极贯彻省十次党代会和市七次党代会精神，落实中央巡视组反馈的整改意见，切实服务我市企业创新的又一具体举措。此前，市科技局广泛调研摸底，共收集了17家企业的27个技术需求，通过与江南大学反复沟通，最终由10家食品企业的技术需求成功对接。 在江南大学召开的座谈会上，由学校负责人介绍食品行业新技术及食品产业发展前景，并发布了学校近三年来的最新科研成果。座谈会结束后，企业负责人与各自领域的专家进行了深入具体的对接交流，最终达成初步合作意向15项。联泰食品、平平食品通过对接，明确了企业下一步的发展方向；三剑客、创联油脂当前发展中迫切需要解决的问题也找到了技术合作的路子。与会的企业家和技术人员纷纷表示此行收获颇大，解决了长期困扰企业发展的技术问题，对企业未来的发展增强了信心。之后，与会企业又参观了江南大学食品科学与技术国家重点实验室、粮食发酵工艺与技术国家工程实验室和功能食品国家工程技术研究中心等国家级科研平台。通过参观，企业家们对学校的创新条件和创新能力有了更加深入的了解，激发了企业创新发展的热情，增强合作信心，明确了合作方向。 市科技局负责人也与江南大学食品学院负责人就未来的合作进行了沟通交流，确定了合作意向，并对合作方式的一些具体细节进行了深入探讨。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>155</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>舞阳县扶贫办赴兰考等地考察学习扶贫开发工作经验</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2016-03-03</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article77ae5e9dac981b7648667d47d9ae90a1.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['为了借鉴学习扶贫开发工作先进经验，近日，由县扶贫办主任陈希宏带队，组织部、财政局、扶贫开发脱贫攻坚办公室等相关负责同志一行', '考察组就兰考县的贫困户脱贫退出机制办法、对乡镇扶贫开发考核机制、驻村工作队考核管理办法等进行了学习，并深入到兰考县爪营乡栗西村和东坝头乡张庄村，详细了解重点贫困村的贫困人口精准识别、动态管理、精准扶贫政策落实情况。在滑县扶贫办，听取了该县财政扶贫资金使用和管理、产业扶贫方面的经验，特别是借助龙头企业、专业合作社带动贫困户脱贫的办法，为舞阳县下一步精准扶贫提供了经验。', '考察组表示，既要学习兰考精神，也要学习兰考、滑县精准扶贫方法。在扶贫氛围营造、机制创新、规范管理等方面，结合舞阳实际，创新工作，坚决打赢舞阳脱贫攻坚战。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>155</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>临颍县领导带队到汝州市考察学习电子商务进农村工作</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2015-08-03</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article1929e71f480495c87aa488894b411967.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['7月31日，荣之光、朱俊峰带队到汝州市考察学习电子商务进农村工作，并与阿里巴巴农村淘宝事业部负责人就加强合作事宜进行了沟通洽谈。县政府办、产业集聚区管委会、商务局负责人参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>155</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>市委副书记贾宏宇带队考察学习开封市扶贫工作</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2019-11-25</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/zwyw/article83f42105f3634d1eabd42515f393fcf6.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['11月21日至22日，市委副书记贾宏宇带队到开封市，就开封市扶贫工作进行学习考察。他强调，学习焦裕禄精神，学习开封市先进经验，转变工作作风，坚决打赢我市精准脱贫攻坚战。', '开封市委副书记秦保强，开封市委常委、兰考县委书记蔡松涛，开封市政协副主席张晖等陪同考察。市农业农村局、市扶贫办、各县（区）委副书记、各功能区党工委副书记等参加考察。', '在尉氏县岗李乡，贾宏宇一行考察了开封市耕耘农业科技有限公司。该公司依托食用菌种植合作社龙头优势，大力实施“党建引领+强社带弱社+N”产业扶贫工程，取得了显著成效。', '在兰考县，贾宏宇一行进园区、入企业、下农村、听汇报、看展示，先后深入惠安街道爱心美德公益超市、恒大产业园、兰考县脱贫攻坚交流中心、坝头镇张庄村、堌阳镇徐场乐器村等地。对照先进找差距，考察团成员边看边问、边走边议、边记边思，详细询问开封市及兰考县在脱贫攻坚工作中聚合力、破难题的先进做法和在产业扶贫、党建促脱贫、电商扶贫、金融扶贫等方面的成功经验。', '11月21日晚，考察团连夜召开座谈会，交流学习心得。贾宏宇强调，要学习焦裕禄精神，检视脱贫攻坚工作中存在的问题。要认真学习焦裕禄精神，弘扬焦裕禄同志的“三股劲”，在深学细照中检视问题，坚定理想信念。要学习先进经验，健全工作机制。开封市的先进做法和成功经验，为我市脱贫攻坚工作提供了可借鉴、可复制、可推广的路径，要结合我市实际认真消化吸收。要学习工作作风，促使我市脱贫攻坚工作再提升。开封市及兰考县各级党员干部，在脱贫攻坚工作中怀着对百姓深厚的感情带头干、敢于干的工作作风是我市学习的榜样，在今后的工作中，一定要按照习近平总书记的要求，不忘初心、牢记使命，坚决打赢精准脱贫攻坚战。', '贾宏宇一行还深入开封祥符区西姜寨乡和朱仙镇，考察学习开封市在实施乡村振兴战略中的先进经验和做法。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>155</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>漯河市科技局赴长沙市考察学习</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-04-24</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/bmdt/article68a52f56b37045fcacb527a14d2611f5.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['为了进一步学习借鉴长沙市在优化科技营商环境、实验室建设、推动科技成果转化等方面的先进经验做法，2023年4月21日，漯河市科技局党组书记、局长效国强带队赴长沙市考察学习，漯河市经济开发区科技管理部门相关同志随同参加。', '4月21日上午，在长沙市科技局的精心安排下，漯河市科技局一行先后到北京大学长沙计算与数字经济研究院、湖南大学国家大学科技园进行了考察学习，详细了解研究院、大学科技园的建设情况、运营模式、人才引进、成果转化、孵化企业、发展效益方面，以及长沙市科技部门对平台建设的支持措施等。此外，考察学习组还到长沙市典阅科技有限公司、中飞时代有限公司等优秀在孵企业进行了参观学习。', '下午，长沙市科技局会同漯河市科技局共同进行了考察调研交流座谈会，双方主要领导和相关工作负责人参加座谈。两地负责人互相介绍了近年来科技创新总体情况，围绕校地合作、省级实验室建设、促进科技成果转化、营商环境评价等工作进行深入交流。针对漯河市方面提出的问题和疑问，长沙市科技局进行了积极解答，并提出了相应建议。在交流过程中，效国强对长沙市科技创新工作给予高度评价，并表示长沙市许多经验值得漯河市借鉴学习，希望在今后的工作中，能够加强交流、互通有无，共同促进院地合作，合力推进科技创新各项工作。', '通过本次考察学习，市科技局一行对创新平台建设提升、激励机制不断优化、促进产学研深度融合等方面有了更深层次的理解，下一步将迅速把学习的成果落实到工作中，学习借鉴长沙模式，研究出台相关政策，采取有力举措，以高质量科技创新赋能我市经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>155</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>召陵区考察团到临颍县考察学习</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2016-03-28</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articleb14e7db0fc830da70824409c1be7ee43.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['3月24日，召陵区区长曹江涛带领考察团到临颍县考察学习土地银行和PPP项目融资工作，详细了解土地银行的运营机制、发展定位、服务功能、业务流程等情况，并到杜曲十万亩方高标准良田、土地银行农业综合服务中心、黄龙湿地公园实地参观考察，对临颍县近年来在农业现代化建设、工业发展、城市建设等方面取得的成绩给予高度评价。 县领导王继周、李俊伟、刘学勤陪同。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>155</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>抚绥县考察学习小组到临颍县考察学习</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2017-09-01</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article51bd96ec93bdff3372c3a9cbb40f4dcf.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['8月30日，抚绥县考察学习小组到临颍县考察学习，先后到南街村文化园、南街村拉面厂、盼盼食品、联泰食品、豪峰食品、中大生物、华冠养元等地实地参观，听取企业负责人具体情况介绍。县委常委、县政府常务副县长李俊伟陪同。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>155</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>临颍县领导带队到山东考察学习</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2015-07-10</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articleda65aa33c57ffb37ff6e5dcea8471e13.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['7月9日，吴祥杰、朱俊峰带队到山东省德州市热力公司考察城市集中供热冷运作模式和先进经验，陈庄乡、盛宏热力公司负责人参加考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>155</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>衢州市柯城区考察组到临颍县考察学习</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2015-12-31</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article6b581d87b717a202bc29eaeaf07d352f.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['12月30日，衢州市柯城区考察组到临颍县考察学习征地拆迁先进工作经验，先后到樱桃郭村、邢庄村、鼓楼改造区等地实地参观，并就征地拆迁工作进行座谈交流。李德臣及有关单位负责人陪同。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>155</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>山东省泗水县考察团到临颍县考察学习</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2015-01-12</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articlec737a301af478a0085fb039b8aa49bdf.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['1月9日，山东省泗水县政府党组副书记杜润丞率考察团先后到临颍县南街村集团、盼盼食品公司、亲亲食品公司、产业集聚区西综合服务中心等地，考察学习临颍县食品产业发展和产业集聚区建设工作经验，就相关问题进行了深入探讨和交流。县领导吴祥杰、韩俊民及县政府办、产业集聚区管委会、金融办、招商局、中小企业服务局负责人陪同。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>155</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>舞阳县到临颍县考察学习三违治理工作</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2014-12-19</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articled9724b005223e69e1a296117b11aebba.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['12月16日，舞阳县人民政府副县长蒋峥带队到临颍县考察学习，召开座谈会，就“违法建设、违法用地、违法租售国有资产”治理工作有关问题进行了深入探讨与交流，随后到临颍县“三违”治理工作指挥部进行了实地考察。副县长梁冠甫及有关单位负责人陪同。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>155</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>洛阳市栾川县考察团到临颍县考察学习</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2017-06-07</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articlec83859f01413456c1058d34dd4772254.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['6月6日，洛阳市栾川县考察团到临颍县考察学习，实地参观了质检研发中心，详细了解临颍县在县级检验检测机构整合工作方面的先进经验和做法。县政府副县长王权及相关单位负责人陪同。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>155</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>郾城区舞阳考察团来我区考察学习棚户区改造工作</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2018-03-02</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article70f3faedd12be29d00c6ac83273b92a0.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['月24日，舞阳县委副书记、县长张书民带领考察团来我区考察学习棚户区改造工作。区委书记周新民，区长李新伟及董晓凤、卢丽琴、王建中、朱浩伟等领导陪同。', '考察团一行先后到沙北街道小李庄、小高庄，孟庙镇五里庙等棚改项目现场，听取相关部门负责人的情况介绍，详细了解了我区棚户区改造计划、推进进度、拆迁安置方案制定、补偿标准、资金投入等各方面的情况。', '在随后召开的座谈会上，李新伟、董晓凤、卢丽琴、朱浩伟等区领导及相关部门负责人与考察团成员进行了亲切交流，介绍了我区棚改工作推进中的相关做法，希望双方兄弟县区之间加强交流，相互学习，共同推动棚改工作迈上新台阶。', '考察团表示，郾城区在棚户区改造工作中，各级领导高度重视，问题破解稳妥有力，总结出了一系列好的工作方法和经验，回去后将结合舞阳实际，积极运用于工作中，推动棚户区改造工作稳步和谐进展。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>155</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>保定市考察团莅漯考察学习</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2023-06-19</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/jrlh/article01e0b9200b2c4f46a20392563c0d0771.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['6月16日，河北省保定市委副书记王伟率考察团莅漯考察我市食品深加工、中原食品实验室建设等先进经验和做法。市委副书记贾宏宇陪同考察。副市长王继周陪同考察并主持召开座谈会。', '在漯期间，考察团先后到双汇运营调度中心、双汇第一工业园、卫龙美味三期产业园、河南省食品加工中试基地、中原食品实验室等地察看，参观了解企业生产运营、产品研发、技术创新，以及我市食品产业集群发展、实验室平台建设、科技成果转化等情况。', '贾宏宇对保定市考察团莅漯考察表示热烈欢迎，并简要介绍了漯河市情及食品产业发展特色。他表示，漯河是首家中国食品名城，食品产业是主导产业，总规模占河南省的1/5、全国的1/50。近年来，漯河市大力实施“六个打通”“六路并进”，形成了从源头到终端，从生产到研发、检测、包装、物流、电商、会展的全食品产业链条。保定市考察团莅漯考察是对漯河市食品产业的肯定，也是一次很好的合作交流机会。希望双方充分发挥各自优势，在更大范围、更宽领域、更深层次开展交流与合作，共同开创两地高质量发展新局面。', '王伟对我市食品产业蓬勃发展给予高度评价，表示将认真学习、借鉴我市的先进经验和做法，并融入实际工作，进一步拓展工作思路，加快发展，真诚希望通过此次考察交流，架起两地交流互动、取长补短、携手并进的桥梁，共同推动两地经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>155</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>李亦博带队赴成都考察学习乡村振兴工作</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2019-10-29</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article7078b0b124239f3352e4cad8d56920ff.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['为深入贯彻落实中央关于实施乡村振兴战略的部署安排，学习先进经验，更好地推动乡村振兴工作科学有效开展，10月24日，市委常委、舞阳县委书记李亦博带领县农业农村局、发改委、财政局、自然资源局、商务局、金融办等有关部门负责人到成都市郫都区、新津县，实地考察学习乡村振兴工作。县委常委、办公室主任周俊伟，县政府副县长师艳芳一同考察。', '为深入贯彻落实中央关于实施乡村振兴战略的部署安排，学习先进经验，更好地推动乡村振兴工作科学有效开展，', '上午，李亦博一行先后到郫都区唐昌街道战旗村和白云村多利农庄考察学习。在战旗村，听取了该村党组织负责人有关情况介绍，详细了解在推进乡村振兴工作中有关土地、资金、人才等制约瓶颈的有效破解办法，对该村特色农产品服务大厅、农村集体产权制度改革展台、农村产权交易服务平台等进行了实地参观考察。在考察白云村多利农庄后，李亦博一行与郫都区有关负责人就规划编制、要素瓶颈破解等方面进行座谈交流。李亦博指出，近年来，我县通过规划先行、试点带动，积极推进乡村振兴，取得了明显阶段性成效，但与先进地区相比，还存在一定差距。县自然资源局要抢抓农村集体经营性建设用地使用权入市改革契机，盘活农村土地资源，研究破解土地制约因素；县财政局、县金融办要结合舞阳实际，不断探索金融支持乡村振兴发展的政策措施，积极发挥县乡村振兴投资公司作用，为农村基础设施建设和产业发展等提供资金支撑；组织部门要围绕乡村规划、产业发展、社会治理等方面持续加大人才培养和引进力度；县农业农村局要运用好考察成果，进一步加强全县乡村振兴谋划研究，为各乡镇开展工作提供指导服务。', '下午，李亦博一行到新津县天府农业博览园、张河果园子共享农庄，通过实地参观、听取介绍等方式，考察学习当地美丽乡村建设、全域旅游和乡村特色产业发展等方面的先进经验。考察过程中，李亦博一行边走边看边交流，并就乡村振兴问题进行深入交流探讨。他指出，成都市通过创新举措、破解乡村振兴工作难题取得的显著成效，值得我们学习借鉴。相关部门要进一步提高思想认识，学习好成都乡村振兴经验，结合舞阳发展实际，精心组织谋划工作，推动我县乡村振兴工作取得实实在在的成效。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>155</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>淇县人民政府到临颍县考察学习公共检测平台资源整合工作</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2017-07-21</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article900676b82d8565096f334a71d34e2a95.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['7月20日，淇县人民政府副县长付龙飞一行六人到临颍县考察学习公共检测平台资源整合工作。付龙飞一行到达临颍县公共检测中心后，首先观看了公共检测中心宣传视频资料；接着实地察看了公共检测中心资料室、样品室、元素精测室、气象色谱室等检测室；随后在会议室听取了情况汇报、经验介绍，并进行了交流讨论。县政府副县长王权和质检中心相关人员陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>155</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>市委常委宣传部部长高喜东带领考察团赴许昌考察学习</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2016-03-18</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/zwyw/articlef7eb019203464cdd9cf5c4d905a73935.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['考察团先后参观了许昌市的便民疏导点、社区、城管局女子大队便民服务岗和数字化城市管理中心等，随后进行了座谈。', '许昌市历届市委、市政府非常重视城市管理工作，探索建立了一整套创建工作长效机制，值得学习借鉴。', '此次考察时间虽短，但内容丰富，收获颇丰。考察团成员一致认为，许昌市给人的整体感觉是整洁、有序、大气。在今后的工作中，我市一定要认真借鉴许昌市精细化、常态化管理的经验，下苦功夫，把工作做扎实，把城市管到位。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>155</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>漯河市森防技术人员赴北京考察学习生物防治技术</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2016-04-01</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/bmdt/articlee828f6ab2b34a8887bdcfe7328117768.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['3月21至24日，漯河市森防站、漯河市豫中南林业有害生物天敌繁育研究中心组织森防技术人员赴北京考察学习生物防治技术、解疑释难。', '考察组一行拜访了中国林科院首席科学家、国务院参事杨忠岐教授，就天敌野外采集、天敌室内保存、天敌飞行能力实验、黑棒啮小蜂批量繁育寄生率提升、黑棒啮小蜂室内繁育出蜂与室外应用时机、柞蚕蛹室内存放降低腐烂率等近二十个生产繁育及应用中的技术问题向杨忠岐教授请教、探讨，杨教授给予详尽解答。', '在北京农林科学院天敌繁育中心，考察学习了天敌储存实验室、温室大棚等。双方就天敌繁育、天敌应用达成共识，希望相互加强合作交流、发挥各自优势、共同推动天敌繁育发展。', '在北京中捷四方生物科技公司，考察了解诱虫板、梨小食心虫性诱剂、桃小食心虫性诱剂、美国白蛾性诱剂、国槐小卷蛾性诱剂等产品。', '通过考察学习，增长了知识、提高了认识、拓展了视野，大家感觉到漯河的生物防治、天敌繁育工作在前沿科技的应用上还有很大差距，需要加强学习，将新技术、新成果引进来，努力开拓生物防治新局面。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>155</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>沈丘县考察团到临颍县考察学习违法用地违法建设治理工作</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2014-12-29</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article9357929eff83afed2d7f75d5800d84dd.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['12月25日，沈丘县县委书记皇甫立新、县长刘国庆率考察团到临颍县考察学习违法用地、违法建设治理工作，先后实地查看了 “三违”指挥部、现代物流园区及樱桃郭村、耿庄村拆迁现场，听取了临颍县“三违”治理工作开展情况介绍，并召开座谈会，详细了解了临颍县违法用地、违法建设治理工作的工作方法及工作成效，就违法建设、违法用地治理工作有关问题进行了深入探讨与交流。县领导陈红阳、王继周、吴心德、王临生、王红丽、马志民、杨平甫、梁冠甫、谢彦申、李德臣陪同。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>155</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>鹤壁市司法局来郾城区考察学习法治文化阵地建设情况</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2017-10-10</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article4d9ac955d5f69fd3a521f5d95e1c3d69.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['月29日上午，鹤壁市司法局副局长宋存兴等一行5人赴漯河市郾城区考察学习法治文化阵地建设工作。漯河市司法局副局长孙振黎，郾城区司法局局长张伟等陪同。', '考察组一行先后实地查看了郾城区沙北街道办事处海河社区居委会、海河社区法治文化广场、区小学生法治教育体验基地以及区龙城镇法治文化广场等特色法治文化阵地。考察组对郾城区的法治文化阵地建设的成果给予了高度评价，认为郾城区法治文化阵地建设特色明显、体裁新颖，品质高，接地气，主要体现在：一是法治主题鲜明，郾城区法治文化阵地建设领导高度重视，统筹规划、整体布局，集观赏性与实用性为一体，起到了既各具特色又相互呼应的效果；二是青少年法治教育基地的建设亮点突出，别具一格，充分整合各方面优势资源，围绕青少年法治宣传教育的工作重点，运用动漫、图画、互动问答等青少年喜闻乐见的形式，图文并茂、生动形象的宣传法律知识，制造了浓厚的宣传氛围，教育基地很实用、很有教育意义。三是法治内涵丰富，法治元素充分贴近群众、贴近生活，让广大群众在移步换景间感受法治文化的熏陶。', '在实地察看后，双方又进行了交流座谈，就推进法治文化阵地的举措、阵地建设设计的理念、建设过程中的具体操作的细节以及民主法治建设创建工作进行交流和分享。考察组表示，此次考察受益匪浅，有许多成效值得借鉴学习，今后要进一步加强两地间的交流互动，共同探讨提升法治宣传教育的新理念、新举措，推动法治宣传教育工作步上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>155</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>宋耀生等领导考察学习连云港食用菌产业培育工作</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2015-09-16</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articleb59da629b6f913f870aca478c500ede7.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['近日，县委副书记、县长宋耀生，县领导宋朝选带领县扶贫办、审计局、文峰乡、章化乡、侯集镇负责人及部分食用菌种植大户到江苏省连云港市灌南县现代农业园区考察学习食用菌产业培育工作。', '江苏裕灌现代农业科技有限公司位于灌南县现代科技农业园区，公司主要经营食用菌母种的研发和培育；以及双孢蘑菇现代化菌丝堆料、发酵、种植；生鲜、冷藏、速冻；罐头加工和代理各类商品及技术的进出口业务，以及空罐制造等配套产品。公司投产后的生鲜产品将销往国内各大城市；罐头产品则外销至美国、日本、加拿大、欧盟、东南亚、俄罗斯等国家和地区。公司是目前我国最大、最先进的双孢菇驯化栽培的现代农场。', '在江苏裕灌现代农业科技有限公司，宋耀生一行通过进园区、下车间、听解说、看材料，详细了解食用菌产业的发展目标、现代化、工厂化生产流程、食用菌种植、加工、营销方式等。', '考察中，宋耀生指出，舞阳县具备发展食用菌的基础和优势，食用菌产业具有广阔的发展空间，发展食用菌产业是增加农民收入的有效途径。近年来，舞阳县食用菌产业规模不断壮大，技术水平得到提高，基础设施进一步完善。通过此次考察学习，我们要借鉴食用菌生产和管理方面的技术与经验，为舞阳县发展食用菌产业打下坚实基础。大家要以这次考察学习为动力，坚定信心，把握机遇，明确思路，真抓实干，加大宣传，推动舞阳县食用菌产业上规模、上档次。', '通过参观考察，大家对江苏裕灌现代农业科技有限公司在发展食用菌产业最现代化的生产方式的发展，大思路建设、新理念管理、高端化发展，深感震撼', '找到了差距。纷纷表示，此次考察时间虽短，受益匪浅，备受鼓舞，要把此次考察中看到的、了解到的深刻领会，为食用菌发展科学定位，找准切入点，扎实工作，不断提升食用菌的质量和规模，为舞阳食用菌产业提档升级做出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>155</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>舞阳县组团赴许昌新乡考察学习产业集聚区和项目建设经验</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2010-07-07</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article0d2951907687df3e9a53181f72b53029.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['7月4日至5日，舞阳县委书记秦建忠、代县长杨庆玖率部分四大班子领导、各乡镇党委书记和县直相关部门负责人赴许昌市襄城县，新乡市延津县、长垣县考察学习产业集聚区和项目建设经验，进一步统一思想，树立信心，鼓足干劲，推进舞阳产业集聚区和项目建设。 考察学习期间，秦建忠、杨庆玖一行先后深入襄城县、延津县、长垣县五个产业集聚区20多家企业，实地察看园区与项目建设成果，学习三县在产业集聚区建设及项目建设中的经验。 通过考察学习，所有人员被襄城、延津、长垣正在掀起新一轮的发展浪潮所感染，被他们解放思想、抢抓机遇、加快发展的精神所鼓舞。一致认为，此次学习考察时间紧凑、针对性强，很受教育、深受启发。特别是三个地区产业集聚区建设，在规划、基础设施建设、投融资平台建设、管理机制、招商引资措施等方面，理念超前；产业集聚区内，在建项目数量多、规模大、层次高、推进快，对舞阳县具有很好的借鉴意义。下步工作中，舞阳县将把此次学习考察的成果，迅速转变成干事创业的激情，落实到科学发展、跨越发展的具体实践上，进一步解放思想、增强动力，查找不足、创新举措，加快产业结构优化升级，推动全县经济社会特别是产业集聚区和项目建设不断实现新跨越。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>155</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>舞阳县畜牧局莅临我县考察学习畜禽粪污资源化利用工作</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2019-03-15</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article0191f7959701f686e87e73fdbf388fdd.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['双方互相交流学习了畜禽粪污资源化利用工作开展情况，先后到台陈镇发林养殖场、根木养殖场和固厢乡悦美禾农牧发展有限公司进行实地考察，观摩了高标准建设的收集棚、收集池、发酵车间等养殖设施，详细了解了畜禽养殖粪污收集模式、有机肥生产工艺流程。参观人员纷纷表示，临颍县畜禽粪污资源化利用工作标准高、环保要求严，值得推广借鉴。要将临颍县畜禽粪污资源化利用工作经验带回去，参照临颍县畜禽粪污资源化利用模式，推动舞阳县畜禽粪污资源化利用工作。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>155</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>市委副书记贾宏宇带队考察学习驻马店市脱贫攻坚等工作</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2019-12-04</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/zwyw/article06ad9720fa06426587c1b200298472f2.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['12月3日，市委副书记贾宏宇带队到驻马店市，考察学习脱贫攻坚、城市建设、文明创建等工作。驻马店市委副书记李宝清陪同考察。', '在汝南县老君庙镇小方村，贾宏宇一行察看了田园综合体项目及移民村人居环境整治情况。田园综合体项目主要利用温棚种植蓝莓、火龙果等水果和西红柿、甘蓝等有机蔬菜，打造从田间到餐桌一体化的生态农业。项目采取转移就业带贫、流转土地经营带贫、增加村集体经济收入带贫、“公司+农户”带贫四种模式，帮助贫困群众增收。', '宿鸭湖水库是一座以防洪为主，集灌溉、发电、养殖、旅游等项目于一体的大型水利枢纽工程。目前，宿鸭湖清淤扩容工程正在实施。贾宏宇来到宿鸭湖清淤工程实验段，详细了解工程施工进度、实验效果，并就水资源利用、旅游开发等与驻马店市相关人员深入交流。', '贾宏宇一行还先后深入汝南县人民医院、汝南县重度残疾人托养中心、三门闸街道重度残疾人托养中心、经济开发区重度残疾人集中托养中心实地察看，现场听取关于重度残疾人托养情况的介绍，详细了解托养中心的运营方式和医护人员、入住病人目前的生活状况，称赞驻马店在县区、乡广泛开展的重残托养工作为精准扶贫探索了路子，值得我市学习借鉴。', '当晚返漯后，贾宏宇就地召开交流会，与考察团成员分享学习心得。贾宏宇强调，各县区要提高认识，对照先进找差距，取回的真经要认真传达、学深学透，上下合力拧成一股绳，结合自身实际抓好落实。', '当日，贾宏宇一行还深入老君庙镇电商扶贫馆、宿鸭湖街道农机扶贫产业园、汝南县扶贫办、汝南县番顺西红柿产业园、驻马店火车站、会展中心、皇家驿站等地实地调研。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>155</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>临颍县中小企业局到郏县武陟长葛等地产业集聚区考察学习</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2014-10-09</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articlecb97f3669c55fbb73f9e7af5d578485e.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['近日，临颍县中小企业局负责人带队前往郏县、长葛、武陟、巩义、济源等地产业集聚区考察学习。 该局先后考察了当地产业集聚区装备制造产业园、产业集聚区企业服务中心等地，学习当地装备制造园区建设管理经验及企业服务工作先进理念。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>155</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>临颍县四大班子主要领导带队到襄城县汝州市考察学习投融资工作</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2017-03-16</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articlea69465818ee8f0152721b606f965c467.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['3月15日，临颍县四大班子主要领导带队到襄城县、汝州市考察学习投融资工作，先后到襄城县明清古街修复项目、文博苑棚户区改造项目、汝州市汝瓷电子商务产业园、汝绣农民返乡创业园、“互联网+”电子商务产业园等投融资项目现场实地察看，并分别召开座谈会，就如何深化投融资体制改革、完善投融资平台建设、拓宽投融资载体渠道、强化融资项目管理、规范推进PPP项目等工作，进行深入沟通交流。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>155</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>开发区党工委副书记裴海生带队赴郑州经开区考察学习非公党建工作</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2017-04-26</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article87452102fdd30e7f3bc09c2171d8a6fc.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['4月25日上午，经济技术开发区党工委副书记裴海生带队赴郑州经济技术开发区考察学习非公企业党建工作，开发区组织人劳局、经发局、创业中心、轻工食品工业园负责同志及党务工作者参加了此次考察活动。', '在郑州经开区人社局负责同志的陪同下，开发区考察团一行先后参观了大信橱柜公司、宇通公司、郑州经开区规划展览馆、保税中心，通过听取企业党组织书记讲解、现场参观体验、观看园区党建专题片和经开区展览馆党建专题展示，考察团对郑州经开区非公党建工作有了全面和更深的认识，并结合实际进行了互动探讨。大家纷纷表示，此次考察学习收获颇丰，裴海生强调，下一步我们要结合开发区实际，学先进、找差距、定方案、强措施，在园区党员活动中心建设、“一企一品”党建品牌打造、示范点改造提升上充分借鉴郑州经开区先进经验，通过重点打造、以点带面，实现开发区非公党建工作的全面提升。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>155</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>舞阳县畜牧局到国家级贫困县考察学习畜牧业精准扶贫工作</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2017-03-23</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articleeca5cb5cc4b66b12ef7b8bde6506f6f4.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['月14-15日，舞阳县畜牧局一行6人到信阳市新县、商城县两个国家级贫困县考察学习畜牧业精准扶贫工作。', '在新县畜牧局，考察组听取了新县畜牧产业扶贫工作情况介绍，并在新县畜牧局相关人员的陪同下，考察了河南兴锐农牧科技有限公司淮南黑猪养殖精准扶贫基地，并与公司负责人进行了座谈，详细了解了“公司+基地+贫困户”的产业扶贫模式。', '在商城县畜牧局，考察组听取了商城县畜牧产业扶贫工作情况介绍，并现场学习了商城县畜牧产业扶贫项目从推荐、评审、考核、确定，到最后实施的整套资料，详细了解了精准扶贫项目管理、运作、实施情况。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>155</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>临颍县领导带队到浙江象山县考察学习农村一户多宅治理工作</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2015-04-14</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article5ed86db41f93de448dee8dbf93f7cf27.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['4月13日，县委副书记吴心德带队到浙江象山县考察学习农村“一户多宅”治理工作。实地考察了象山县农村“一户多宅”、违法建设整治及拆后综合利用情况，并主持召开座谈会，听取各乡镇前期农村“三违”排查摸底、治理工作方案及工作推进情况汇报，征求了县直有关部门的意见建议，对下一步工作进行了具体的安排部署。县领导李凯旗、李德臣参加座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>155</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>郾城区委副书记赵丹带队赴上蔡县考察学习扶贫助残托养模式</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2017-05-15</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article2e65d1732aa4bbe33c4e10cf34933da9.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['5月11日，区委副书记赵丹带领区委农办、残联、民政局、人社局、财政局、卫计委等部门负责人到上蔡县考察学习扶贫助残托养模式。', '考察组一行实地参观了上蔡县大路李乡栗庄村和邵店镇的扶贫助残托养院，听取了上蔡县残疾人员集中托养模式经验介绍，并与上蔡县相关部门工作人员就残疾人托养服务工作有关问题进行了探讨和交流。', '2016年初，为有效解决贫困家庭中有重症残疾的脱贫问题，上蔡县依托乡镇卫生院和村卫生室,探索建立了“政府主导、乡村实施、部门保障、社会参与”的重症残疾人员集中托养模式。', '通过此次考察学习，考察组对残疾人托养服务工作的运作模式、机构建设、服务管理有了新的认识，下一步，郾城区将结合实际，借鉴运用上蔡县的先进经验，科学规划我区残疾人托养机构建设，科学确定托养对象和设置托养服务项目等内容，探索贫困家庭残疾人集中托养工作新路子，为早日完成脱贫攻坚任务进行有益的探索和尝试。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>155</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>临颍县工商联考察团到源汇区考察学习非公经济发展和非公企业商会管理工作</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2018-03-29</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articleab57135f6de97de4b404d819ed87c2c9.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['临颍县工商联考察团到源汇区考察学习非公经济发展和非公企业商会管理工作_漯河市人民政府', '3月28日，临颍县工商联考察团一行13人，到美年大健康、欧宝利石材、三剑客奶业等企业，考察学习非公经济发展和非公企业商会管理工作。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>155</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>源汇区委常委宣传部长张静到杭州考察学习特色文化小镇建设工作</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2018-04-20</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article3497fba1d4ac31768949378b070a0de3.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['4月19日，区委常委、宣传部长张静到杭州考察学习特色文化小镇建设工作，并与杭州设计院相关负责人进行对接，邀请到我区特色文化街区进行实地观摩指导，提出意见建议，为我区特色文化街区建设注入新理念，新活力。老街办事处、顺河街办事处、马路街办事处、干河陈乡负责同志陪同。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>155</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>临颍县领导带领市派驻村第一书记赴安徽凤阳小岗村考察学习</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2015-04-03</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articleeceb175572b64acf525ca078219a92c6.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['4月1日—2日，县委常委、组织部长荣之光带领市派驻村第一书记20余人到安徽凤阳县小岗村考察学习，听取了沈浩事迹报告会，考察了现代农业示范园金小岗、人居环境整治示范村大溪河乡石塘村，深刻学习了小岗村村民敢为天下先的争创精神。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>155</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>汤阴县到临颍县考察学习电子商务建设工作</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2015-01-21</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articleafe5fe06e1ac8082c0d75e63c1d1d063.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['1月20日，汤阴县县委常委、统战部长罗振方带队到临颍县实地考察学习电子商务建设工作，就“食尚临颍”建设、运行管理及有关电子商务扶持政策和企业运行相关问题进行了深入探讨与交流，县委常委、统战部长马志民及相关单位负责人陪同。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>155</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>漯河市林业局考察学习驻马店市国土绿化建设工作</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2018-12-20</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/zfxxgkpt/fdzdgknr/qtzdgknr/csjs/articlee225bd50369bbc10c395cb22f01c1f49.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['2018年12月13日下午，市政府副秘书长朱俊峰，市林业局党组书记、局长胡坤锋，市林业局党组成员、调研员李军学以及局相关科室、市财政局、国土局相关科室负责同志等一行8人到驻马店市学习考察国土绿化建设工作。驻马店市政府副秘书长赵站以及驻马店市林业局有关领导参加考察座谈交流活动。', '考察组就当前林业生态建设、国储林建设工作开展过程中遇到的问题与难题等方面的经验做法进行了深入交流，并听取了森林驻马店市生态建设五年行动工作开展情况介绍以及国土绿化造林用地土地流转、政府财政扶持以及国土绿化造林督导和奖惩措施等整体情况。同时详细了解驻马店国家储备林项目建设运营模式、建设方案报批手续等有关情况。', '考察组充分肯定了驻马店市在实施林业生态建设工程、国储林项目建设等方面的经验做法，回去后要学习借鉴好驻马店林业局前瞻进的绿化思路、科学的规划与建设工作经验成效，结合我市实际，统筹推进国土绿化，不断加快漯河市国土绿化建设水平。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>155</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>源汇区委常委办公室主任赵宏宇到信阳市平桥区考察学习乡村振兴工作</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2018-08-14</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article6edfe62139c1fa7097145bc26d7eaeaa.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['8月13日，源汇区委常委、办公室主任赵宏宇到信阳市平桥区明港镇新集村、何岗村等地，考察学习美丽乡村建设、农村垃圾分类、生态污水处理、村集体经发展等乡村振兴工作，并与当地干部座谈交流，详细了解工作经验做法。区领导史洪涛，以及相关乡镇办、建设环保局负责同志和各示范村党支部书记参加。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>155</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>郾城区组团赴省内先进产业集聚区考察学习</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2016-12-28</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articled80d9a1b16376b3c94ac720c6ac880c6.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['，区长徐光华率考察团赴郑州荥阳市、焦作孟州市，学习考察先进地区的产业集聚区建设经验。区委常委、常务副区长王国建，副区长陈国军，淞江产业集聚区党工委书记李同葆及有关职能部门、镇（办）主要负责同志参加了此次考察活动。', '当日上午，在郑州荥阳市长王新亭等领导的陪同下，徐光华一行来到荥阳市产业集聚区，先后参观了郑州明泰交通新材料有限公司、中车中原经济区轨道交通客运装备造修产业基地、五洲国际、中原智谷创新创业综合体。并召开座谈会，听取当地产业集聚区发展情况介绍，双方就集聚区管理体制机制、投融资平台建设、基础设施建设、集群培育等方面进行了沟通交流。', '下午，考察团来到焦作孟州市产业集聚区，参观考察了焦作隆丰皮草企业有限公司、中原内配集团、河南德众保税园区。对该产业集聚区围绕装备制造、生物化工两大主导产业，大力发展龙头企业，不断拉长产业链条、壮大产业集群，提升产业水平的成效表示赞赏。考察中，区长徐光华要求，要认真学习这些先进地区培育壮大产业集群的新经验、承接产业转移的新举措、服务企业发展的新政策，全面提高我区产业集聚区管理服务水平，力争早日迈入全省先进行列。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>155</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>舞阳县司法局赴南阳考察学习服务型行政执法工作</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2017-09-06</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article1ca3bf1a8d7fa34b21cce5b221a52eac.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['近日，县司法局服务型行政执法考察组一行六人在漯河市司法局副局长孙振黎的带领下到南阳市唐河县、邓州市等地考察服务型行政执法创建工作。南阳市司法局副局长谢清波、法制科长李建森及唐河、邓州两地司法局主要负责同志陪同。', '考察组一行先后来到唐河县滨河法治文化公园、县公证处办证服务大厅、法律服务中心、邓州市社区矫正中心等地查看，并现场观看了唐河、邓州两地司法局拍摄的服务型行政执法宣传片，查阅了有关档案资料。', '考察组一行认为南阳同行在服务型行政执法方面领导重视、重点突出、成效显著。行政指导工作全面推进、不留死角、扎实有效；普法宣传形式新颖，贴近群众；社区矫正执法规范、措施到位；利用互联网新媒体快捷、高效的特性，让数据多跑腿，让群众少跑路，理念新颖，很受启发，为漯河、舞阳提供了有益借鉴和参考，希望今后加强两地之间的交流互动，全面推进服务型行政执法创建，为建设服务型、法治型政府做贡献。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>155</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>源汇区政府常务副区长王奇山到汝州考察学习投资平台建设与运营管理城市两改工作先进经验</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2017-12-21</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article242b2bbd3055ccc4e831cbada71fff7c.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['源汇区政府常务副区长王奇山到汝州考察学习投资平台建设与运营管理、城市“两改”工作先进经验_漯河市人民政府', '源汇区政府常务副区长王奇山到汝州考察学习投资平台建设与运营管理、城市“两改”工作先进经验', '12月20日上午，源汇区政府常务副区长王奇山到汝州市考察学习投资平台建设与运营管理、城市“两改”工作先进经验，听取了汝州市相关部门负责同志工作开展情况介绍，并就相关工作经验进行了探讨交流。郭平宇、王振华、李广年以及财政、发改、建设、交通、教育、水利、特色商业区及区投融资平台等部门负责同志参加。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>155</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>源汇区委书记王继周带领四大班子到五市县区考察学习</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2017-12-04</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articleab0bcf164f19b04ee25e7a4241e377e6.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['11月30日—12月1日，源汇区委书记王继周带领四大班子及经济主管部门主要负责同志60余人，到汝州市、禹州市、长葛市、许昌建安区、临颍县，考察投融资、城市建设、工业经济发展、集聚区建设等工作，先后参观了汝州城乡规划展示馆、智慧城市创新中心、地税局社区公厕游园服务综合体、洗耳河黑臭水体治理、中大街历史文化街区改造、北汝河片区棚户区改造及南关棚户区安置社区、汝河国家湿地公园；禹州规划展览馆、城市森林植物园改造；长葛市森源集团、众品冷链物流园、黄河工业园；许昌市建安区三达污水处理承载力提升、人工湿地工程、北海公园；临颍县颍河林水生态长廊、老城体育公园综合改造、文庙文化广场修复提升等重点项目。王继周表示，全区各级党员干部要以此次学习考察活动为契机，认真学习总结兄弟县市区在建设发展中的好经验、好做法，结合区情实际，取长补短，全面落实六项重大攻坚，持续实施五大战略，进一步促进全区经济社会快速发展。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>155</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>临颍县领导带队到兰考县考察学习基层四项基础制度建设工作</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2015-05-20</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article636d7ff517df91da0acdc571f86f1005.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['5月19日，县委常委、纪委书记王红丽带领纪检、组织、政法等部门相关人员及部分乡镇班子成员先后到兰考县仪封乡、葡萄架乡、城关乡等地考察学习了基层四项基础制度建设工作。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>155</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>源汇区委常委办公室主任赵宏宇到禹州市考察学习厕所革命先进经验</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2018-12-07</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article351fbed5bb753d8ea9a6563192067a23.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['源汇区委常委、办公室主任赵宏宇到禹州市考察学习“厕所革命”先进经验_漯河市人民政府', '12月6日，源汇区领导赵宏宇、史洪涛带领农林局、环卫处、各乡镇负责同志和部分示范村党支部书记，到禹州市郭连镇课张村、古城镇钟楼村、无梁镇曹楼村，入户走访考察无害化厕所和村公共厕所使用管理情况，学习“厕所革命”先进经验做法，并与禹州市相关负责同志座谈交流，听取情况介绍，双方围绕厕所建设、管理、保障等方面进行深入探讨。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>155</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>郾城区外出学习考察互联网政务服务建设</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2018-06-28</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article6d0cc083f34d3588388c69cae9b5cb1f.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['为加快我区“互联网+政务服务”建设，近日，区委常委、区政府常务副区长卢丽琴，区政协副主席、区人社局长张志强带领区行政服务中心、区编办负责同志与部分区直单位副职一行13人，前往徐州市铜山区政务服务中心考察学习“互联网+政务服务”建设工作。', '山区政务服务中心打造的“小项目不见面、大项目代办制”服务模式和“企业创业有尊严、百姓办事不求人”的服务理念使考察学习人员眼界大开，受益匪浅。', '考察结束后，卢区长要求各相关单位要把先进经验学活学透，紧贴郾城实际，打造郾城政务品牌，全面推行“网上办、集中批、联合审、', '考察结束后，卢区长要求各相关单位要把先进经验学活学透，紧贴郾城实际，打造郾城政务品牌，全面推行', '加快推进完善区、镇、村三级政务服务体系建设，持续开展“纠转提争”专项行动，切实转变政府职能和作风，为打造优良营商环境提供强有力的保证。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>155</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>临颍县领导带队考察电子商务进农村及农村党建工作</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2015-07-31</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article39a36c2f6c6754ad0aa7513f88afe7d7.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['7月30日，荣之光、朱俊峰带队先后到博爱县、新安县考察学习电子商务进农村及农村党建工作。县政府办、产业集聚区管委会、商务局相关负责人参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>155</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>叶县考察团到临颍县考察县中医院建设管理工作</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2016-04-25</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article8b561e65917176311e11ce497ee074df.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['4月20日，叶县考察团到临颍县考察学习县中医院建设管理工作，详细了解了医院管理、学科建设、业务发展等情况。梁冠甫及县卫生局、住建局等相关单位负责人陪同。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>155</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>临颍县领导到济源市考察新建学校建设和管理情况</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2015-03-12</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articleba3f65a34e4b6886aa180bed9eac6e1c.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['3月11日，临颍副县长黄耀春到济源市考察学习济源市新建学校教师招聘、学生招生以及前期管理等方面的情况，县教科体局、人社局、编办、财政局相关负责人陪同。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>155</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>临颍县领导到济源市考察新建学校建设和管理情况</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2015-03-13</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article854e54427d7b7acc09ad448f972137ae.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['3月11日，临颍县副县长黄耀春到济源市考察学习济源市新建学校教师招聘、学生招生以及前期管理等方面的情况，县教科体局、人社局、编办、财政局相关负责人陪同。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>155</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>濮阳市范县民政局到临颍县民政局交流工作</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2017-08-23</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articlec38287cc4ac0e514e82ab8273e1e12af.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['8月21日，濮阳示范县民政局副局长、纪检书记、地名股股长、档案局业务股长一行到临颍县民政局考察学习在第二次全国地名普查档案建设管理工作中的先进做法和宝贵经验。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>155</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>源汇区委常委办公室主任一行到临颍县考察</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2015-05-15</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articlec7aa24f74f7d6d3b314c4f4068fdad77.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['5月14日，源汇区委常委、办公室主任马相武带队到临颍县考察学习土地综合整治、破解用地难方面的经验做法，听取有关情况介绍并深入河董社区进行了实地查看。县委常委、统战部长马志民及县委办、产业集聚区管委会、国土局负责人陪同。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>155</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>临颍县金融办中小企业服务局组织外出学习</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2017-07-19</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article34635b36c9a4f3362df006c36733d497.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['7月14日，，县金融办、县中小企业服务局组织天成鸿路、众邦伟业等10多家企业到武汉、黄冈等地考察学习，与当地企业座谈交流，详细了解外地企业如何借助资本市场快速发展壮大，为我县企业上市融资提供经验参考。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>155</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>临颍县领导带队到山东江苏考察</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2014-11-28</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articlec474e322b0f8e2a6865c9bfed6fb5b98.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['11月26-27日，临颍县委常委、组织部长荣之光带领临颍县本土机械、木业加工企业到山东省曹县、金乡县和江苏省丰县考察学习，县领导暴中祥、董保彤和县政府办、中小企业服务局、产业集聚区管委会、杜曲现代家居园区负责人陪同。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>155</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>平顶山市考察团莅漯考察</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/zwyw/articlefadbd1606f354fbd98b4eb94042333dd.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['9月6日，平顶山市副市长许红兵带领考察团莅漯，考察学习我市中原食品实验室建设、生态环境保护方面的先进经验和做法。市委常委、常务副市长乔彦强，副市长李建仓陪同。', '考察团先后到漯河城市展示馆、小南湖湿地公园、中原食品实验室、河南食品科创园等处考察，详细了解实验室平台建设、科技成果转化以及生态环境保护等情况。', '乔彦强对平顶山市考察团表示欢迎，并简要介绍了漯河经济社会发展情况和市委八届四次全会明确的现代化食品名城、创新之城、幸福之城建设蓝图。他说，中原食品实验室是省委、省政府重塑实验室体系谋划布局的十大省实验室之一。在中原食品实验室创新“发动机”的赋能加持下，漯河的食品特色主导产业蓬勃发展、全面起势。他希望通过这次考察学习，双方加强合作、增进友谊、共谋发展，开创两地高质量发展新局面。', '许红兵对我市坚持创新引领发展以及近年来在生态环境保护等方面取得的成绩给予高度评价，表示将认真学习、借鉴我市先进经验和做法，进一步拓展工作思路，加快发展。他希望通过此次考察架起两地交流互动、携手并进的桥梁，实现共赢发展。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>155</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>临颍县领导带队到鄢陵参加第十四届中国中原花木交易博览会</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2014-09-29</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article229806354fb464ed10880923ca1040e1.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['9月27日，县政协副主席胡遂波带领各乡镇乡镇长及县林业局班子成员一行20余人，到鄢陵参加第十四届中国（中原）花木交易博览会，深入鄢陵花木园区进行考察学习，与园区入驻企业开展洽谈，希望有意向的企业来临发展。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>155</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>临颍县领导带队在江苏开展招商活动</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2015-04-16</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article80b2011baf6746e25e257e6e996b756a.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['4月15日，县委常委、统战部长马志民，县人大常委会副主任暴中祥带领漯河市木业协会21家会员企业和杜曲镇部分行政村干部到“中国淘宝第一村”——江苏睢宁县东风村进行考察学习，参观了家具电商一条街、电子商务创业园、电商综合服务中心、物流中心等企业，并同企业、睢宁电子商务协会负责人进行深入沟通，就临颍如何壮大电子商务进行了探讨。杜曲镇、林业局、现代家居产业园管委会负责人参加。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>155</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>新疆额敏县党政考察团到临颍县考察</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2016-02-29</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article6b5fa219a9bdfa5e76edac830170aca5.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['2月25日， 新疆额敏县党政考察团一行到临颍县考察学习，先后到颍川学校、邢庄村改造现场、黄龙湿地公园、中大恒源、华冠养元二期、联泰食品、南街村、小商桥景区、绿汇现代农业产业园等地进行实地查看，详细了解了我县支柱产业发展、精准扶贫、农牧业现代化、新型城镇化、新型工业化、生态环保、旅游等方面情况。徐春峰及相关单位负责人陪同。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>155</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>源汇区委常委政法委书记朱文超主持召开区委政法委书记办公扩大会</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2017-12-05</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articled9118cd3be6b9337ed899b0aca641cc5.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['源汇区委常委、政法委书记朱文超主持召开区委政法委书记办公（扩大）会_漯河市人民政府', '12月4日上午，源汇区委常委、政法委书记朱文超主持召开区委政法委书记办公（扩大）会议，学习贯彻外出考察学习座谈会议精神和王继周重要讲话精神，并对信访稳定、综治中心建设、扶贫和环保攻坚等工作进行再安排再部署。区委政法委、信访局主要负责同志参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>155</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>鹤壁市工信局到临颍县考察食品产业发展情况</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2019-08-20</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article0409aea2df58e7a290d00b65dec223d5.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['，鹤壁市工信局一行到我县考察学习食品产业发展情况，先后到县产业集聚区党群服务中心和联泰食品、豪峰食品、御江食品、宏全包装、中大恒源、盼盼食品等企业走访察看，对我县食品产业发展情况给予高度评价。市、县工信局负责人陪同。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>155</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>修武县考察团到临颍县考察廉政文化宣传教育工作</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2016-04-11</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articlebde9e4a9688c724e316d2b620b870017.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['4月8日，修武县县委常委、县纪委书记靳爱玲带队到临颍县考察廉政文化宣传教育工作，先后到网络新媒体管理中心、县廉政教育基地进行考察学习，详细了解临颍县“3+1”学廉考廉平台、县廉政教育基地建设及运行情况，对临颍县廉政文化宣传教育工作的做法和取得的成绩给予高度评价。王红丽、陈彦春陪同。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>155</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>源汇区委常委办公室主任赵宏宇到安徽省合肥市考察学习燕域田园综合体和产业联盟工作</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2018-03-29</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article32f25bc069084c9fa1667eacd93a7954.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['源汇区委常委、办公室主任赵宏宇到安徽省合肥市考察学习燕域田园综合体和产业联盟工作_漯河市人民政府', '3月28日，源汇区委常委、办公室主任赵宏宇到安徽省合肥市包河区大圩镇，考察学习燕域田园综合体、产业联盟、产业联合体党组织等工作，与当地相关负责同志座谈交流，详细了解推进机制、主要措施等工作内容。区领导史洪涛、李晓丽，以及各乡镇，乡村振兴发展指挥部成员单位负责同志陪同。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>155</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>开发区党工委委员纪工委书记雷伟民带队到福建考察学习亲清政商关系</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2016-09-01</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articleab5e665415cd86d41f4bc1280a02623d.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['开发区党工委委员、纪工委书记雷伟民带队到福建考察学习“亲”、“清”政商关系_漯河市人民政府', '8月16—19日，区党工委委员、纪工委书记雷伟民带队到国家福州经济技术开发区和国家石狮高新技术产业开发区考察学习“亲”、“清”政商关系，区产业集聚区管委会副主任、纪工委副书记、监察室主任梁雁北，监察室、招商局等相关负责人陪同进行了考察。', '在福州经济技术开发区，考察组一行就如何“在新型政商关系中把握好度，让权力得到有效监督和制约，清除官商勾结、权钱交易的生成土壤，营造政治生态的绿水青山”等问题与福州经济技术开发区纪委、工商联、效能督查室、行政服务中心、商务局等单位进行了深入的交流和探讨。考察组对福州开发区的“特事特办、马上就办”理念和审批方面的“容缺机制”、效能监督方面的“红灯呈报制”进行了深入考察。考察组一行还实地参观了在香港上市的科技企业——飞毛腿集团。', '在石狮高新技术产业开发区，考察组一行首先介绍了漯河经济技术开发区的区情和考察目的与任务，对石狮高新区党工委提出新型政商关系的先“亲”后“清”，最后达到既“亲”又“清”的做法进行了深入的交流，并到泓一食品总部进行了参观考察。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>155</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>源汇区委常委办公室主任赵宏宇到信阳市安徽省六安市考察学习美丽乡村建设扶贫工作</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2018-03-28</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articlecdd52eba3187ad3df4367bd1c2c923be.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['源汇区委常委、办公室主任赵宏宇到信阳市安徽省六安市考察学习美丽乡村建设扶贫工作_漯河市人民政府', '3月27日，源汇区委常委、办公室主任赵宏宇到信阳市平桥区郝堂村、安徽省六安市金寨县，考察学习美丽乡村建设、光伏发电扶贫等工作，听取了当地有关负责同志情况介绍，详细了解工作推进中的好经验、好做法。区领导史洪涛、李晓丽，以及各乡镇，乡村振兴发展指挥部成员单位负责同志陪同。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>155</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>市委常委舞阳县委书记李亦博等领导赴鄢陵尉氏西平考察学习生态水系建设情况</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2016-03-22</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articlee02d3f80729667d9b8f1777e7c517318.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['市委常委、舞阳县委书记李亦博等领导赴鄢陵、尉氏、西平考察学习生态水系建设情况 _漯河市人民政府', '近日，市委常委、舞阳县委书记李亦博，县委副书记、县长宋耀生，县委副书记张书民，县人大常委会主任王玉亭，县政协主席陈青枝等四大班子领导，带领有关部门负责同志赴鄢陵、尉氏、西平考察学习生态水系建设。', '李亦博一行先后实地察看了鄢陵县花木水系连通、鹤鸣湖，尉氏县蓬池、人工河景观带，西平县', '生态修复工程、万亩林业生态园建设、华港公园等，认真听取了鄢陵、尉氏、西平负责人有关生态水系规划、土地报批、资金筹措、开发建设等情况介绍。', '考察中，李亦博指出，鄢陵、尉氏、西平在生态水系建设方面的成功经验，充分体现了生态水系是树立城市形象、提升群众幸福指数、创造发展新优势的关键举措，让我们真正感受到了他们在生态水系规划建设方面的大思路、大手笔、大气魄、大力度、大动作。下一步，我们要抱着对', '万人民负责、对舞阳明天负责的态度，抓住龙泉水源工程建设的契机，进一步解放思想，千方百计破解资金、土地等难题，高标准谋划好、规划好舞阳生态水系，致力为舞阳县人民营造良好的生态环境。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>155</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>平顶山市畜牧局到舞阳县考察学习生态循环畜牧业建设情况</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2016-04-25</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article79d791a0d84c2e4dfc4d6a117e622cf6.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['近日，平顶山市畜牧局来舞阳县参观考察生态循环畜牧业建设情况。漯河市畜牧局副局长李杨、县畜牧局局长王东红陪同考察。考察团在听取舞阳县生态畜牧业建设情况介绍后，赴保和乡二郎村舞阳丰盛农牧生态园、吴城镇枣树杨村舞阳新兴牧业发展有限公司进行了实地参观考察。', '综合治理为依托，以种养结合为基础，以规模适度、循环利用为核心，倾力培育生态养殖示范场，致力扩大生态养殖总规模，探索出一条', '下一步，舞阳县将进一步加大推进力度，全力以赴扶持，高起点培育，高标准建设，倾力打造', '的畜牧业发展大格局，着力增强畜牧业综合生产能力、畜产品安全保障能力和可持续发展能力，为加快全市畜牧产业转型升级，做出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>155</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>舞阳县民政局赴周口淮阳考察学习千年古县申报工作</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2016-03-30</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article7adb879edd5152c78260f45dfc3dddc9.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['座谈会上，淮阳县民政局局长孙成斌及有关人员介绍了主要做法及工作经验，臧建峰局长对淮阳县成功申报表示祝贺，并就申报', '有关做法和要求进行了虚心请教，同时要求去学习的同志要把淮阳的工作经验学习好、学习透带回去，为下步启动申报工作奠定基础。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>155</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>李亦博宋耀生等领导赴偃师长葛考察学习产业集聚区特色商业区建设</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2016-06-06</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article688026e93cba948527e45ebc7f9f3e61.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['李亦博、宋耀生等领导赴偃师、长葛考察学习产业集聚区、特色商业区建设_漯河市人民政府', '近日，市委常委、舞阳县委书记李亦博，县委副书记、县长宋耀生，县委常委、常务副县长王耀生，县委常委、县委办公室主任赵力伟，县委常委、县政府副县长王凤林，县产业集聚区管委会主任左景浩，带领有关部门和乡镇负责同志赴偃师市、长葛市考察学习产业集聚区、特色商业区建设。', '李亦博、宋耀生一行先后实地察看了偃师市北方大河（集团）有限公司、三轮摩托车质检中心、大运三轮摩托车有限公司、特色商业区，长葛市黄河工业园、森源电气股份有限公司等地，认真学习听取偃师市、长葛市在产业集聚区、特色商业区的规划、建设和产业培育中积累的成功做法和先进经验，并就双方共同关心的招商引资、区镇套合、体制机制等问题进行深入探讨。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>155</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>舞阳县阳光舞阳体系建设领导小组办公室组织人员赴郾城区考察学习阳光三权体系建设工作</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2017-05-18</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articled0041a3f10d4b93a48b35edc77347047.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['舞阳县“阳光舞阳”体系建设领导小组办公室组织人员赴郾城区考察学习阳光三权”体系建设工作_漯河市人民政府', '舞阳县“阳光舞阳”体系建设领导小组办公室组织人员赴郾城区考察学习阳光三权”体系建设工作', '为进一步打造“阳光舞阳”体系建设工作，5月16日，县“阳光舞阳”体系建设领导小组办公室组织人员赴郾城区考察学习“阳光三权”体系建设工作。', '在郾城区“阳光三权”体系建设办公室，详细了解“阳光郾城网”运行情况。随后，又来到李集镇“阳光三权”体系建设办公室、李集村，参观村（居）组织权力清单、流程图、公示栏等,实地了解“阳光三权”工作开展情况。', '通过考察学习，大家深切感受到郾城区“阳光三权”体系建设探索出了一条基层党风政风监督新模式，感受很深、收获很大。下步工作中，将认真学习借鉴郾城区的成功经验，进一步营造氛围，完善制度，创新形式，以建设“互联网+政务服务”体系为依托，实现县直部门党务、政务公开，为舞阳经济社会提速发展转型升级、“三个基地”“两个名城”建设、全面建成小康社会提供有力保证。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>155</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>潢川县畜牧局到舞阳县考察学习生态循环畜牧业发展情况</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2016-05-31</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articlec02cd72250b60f40226f71a07e2a3b30.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['近日，潢川县畜牧局局长王培峰、副局长鞠明海带领局股室负责人、部分企业代表，来舞阳县参观考察生态循环畜牧业发展情况。县畜牧局局长王东红陪同考察。考察团在听取舞阳县生态畜牧业建设情况介绍后，赴保和乡二郎村舞阳丰盛农牧生态园、吴城镇枣树杨村舞阳新兴牧业发展有限公司进行了实地参观考察。', '近年来，舞阳县高度重视生态循环畜牧业建设，把畜禽养殖污染综合治理作为推动生态畜牧业建设的重中之重，不断创新思路、创新载体、创新机制，以种养结合为基础，以规模适度、循环利用为核心，倾力培育生态养殖示范场，致力扩大生态养殖总规模，探索出一条', '的畜牧业发展大格局，着力增强畜牧业综合生产能力、畜产品安全保障能力和可持续发展能力，为加快全市畜牧产业转型升级，做出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>155</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>许昌市畜牧局来舞阳县考察学习生态循环畜牧业发展情况</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2016-03-30</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articleb622660321e39422b490ee7ba10e7e7b.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['近日，许昌市畜牧局局长赵少群带领局科室负责人、县区畜牧局局长及部分企业代表，来舞阳县参观考察生态循环畜牧业发展情况。漯河市畜牧局局长张威、副局长李阳、县畜牧局局长王东红陪同考察。考察团在听取舞阳县生态畜牧业建设情况介绍后，赴保和乡二郎村舞阳丰盛农牧生态园、吴城镇枣树杨村舞阳新兴牧业发展有限公司进行了实地参观考察。考察团一行，对舞阳县生态循环畜牧业发展给予高度评价。', '近年来，舞阳县高度重视生态循环畜牧业建设，把畜禽养殖污染综合治理作为推动生态畜牧业建设的重中之重，不断创新思路、创新载体、创新机制，以种养结合为基础，以规模适度、循环利用为核心，倾力培育生态养殖示范场，致力扩大生态养殖总规模，探索出一条', '的畜牧业发展大格局，着力增强畜牧业综合生产能力、畜产品安全保障能力和可持续发展能力，为加快舞阳县畜牧产业转型升级，做出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>155</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>临颍县召开新批规模以上企业座谈会</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2015-10-12</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article12b0b941ab2814b61ab2694f1a07b782.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['10月10日，临颍县召开新批规模以上企业座谈会，贯彻落实县委常委会议关于扶持本土企业加快发展的精神，就本土企业培育、品牌打造、质量升级、企业转型、入驻产业集聚区等进行指导，并对组织本土企业外出考察学习、申报规上企业等事宜进行安排部署。荣之光、董保彤、吴祥杰、朱俊峰及县工商局、质监局、科技局、食药监局、中小企业服务局、人行和本年度新增规上企业负责人参加座谈。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>155</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>开阔视野走出去拆迁良策拿出来</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2007-02-01</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/bmdt/article04dc2f91a02d8e231c6e354b3ff7b9d1.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['日前拆迁办主要领导带领单位中层以上干部到天津、合肥等地参观、考察，学习他们先进的拆迁管理经验和补偿安置办法，为制定我市沿河治理工作中拆迁补偿安置办法提供参考。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>155</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>临颍县领导带队在江苏开展招商活动</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2015-04-15</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article007a8ed1d3d183c1b1000393e0953f42.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['4月14日，县委常委、统战部长马志民，县人大常委会副主任暴中祥带领漯河市木业协会21家会员企业和杜曲镇部分行政村干部在江苏张家港拜访了张家港木材行业协会会长范世民（江苏宏欣木业董事长）、秘书长王玉涛和福人木业董事长陈庆明，就到临投资板材加工烘干中心相关事宜进行了沟通，并到张家港原木进口港、福人板材加工烘干中心、金港物流中心、海宏板材加工中心等企业进行了考察学习。杜曲镇、林业局、现代家居产业园管委会负责人参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>155</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>临颍县畜牧局组织部分规模养殖场外出学习新技术</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2016-07-13</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article52d4eae7b76803c8949a612b2ceb8f94.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['7月9日，临颍县畜牧局组织部分规模养殖场负责人到北京绿源惠农生物科技有限责任公司进行考察学习。对利用“UTM”专利处理畜禽粪污生物新技术进行详细了解，并深入到修武县伊赛养牛基地粪污处理车间进行参观考察，对堆肥技术、堆肥产业化和UTM菌剂利用技术处理畜禽粪便制作高效活性生物有机肥的全过程进行了系统学习。养殖场负责人均对粪污处理新技术表现了极大兴趣。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>155</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>临颍县人民办事中心组织人员外出考察</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2015-07-13</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article6fd9b2749d6d84f97f6df1cd0f071c0b.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['7月9日，临颍县人民办事中心组织人员到中牟行政服务中心考察学习“国家级行政服务标准化示范单位”创建工作。 据了解，中牟县行政服务中心于2012年被国家标准委授予“国家级行政审批服务标准化试点单位”,是全国第6家、全省首家县级“全国试点”。我县人民办事中心于2014年被省质监局授予“河南省服务标准化示范单位”，近阶段，该中心将结合自身实际，在认真借鉴中牟经验的基础上，进一步做好行政审批服务标准化建设工作，积极申报“国家级行政审批服务标准化试点单位”，快速推进我县行政审批服务标准化建设步伐。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>155</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>我市举办科技型中小企业创新驱动发展专题研修班</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2017-11-29</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/jrlh/article73955034256a262873128656b4f9d59e.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['近日，漯河市科技型中小企业创新驱动发展专题研修班在北京清华科技园举行。此次研修班为期7天，全市科级系统业务骨干及我市中小型企业负责人共48人参加培训。', '清华大学、中国农业大学著名教授和在相关领域具有较高知名度的特约讲师们，就大数据与企业转型升级、企业投融资与资本运营、互联网时代的制造业变革、企业家阳光心态与压力管理等进行了专题辅导，为参训学员解疑释惑、对企业发展提出合理化建议。参训学员还到互联网金融博物馆、中关村创业大街、汉能控股集团有限公司进行了考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>155</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>佳木斯人大考察团来开发区参观考察</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2019-08-09</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articleb2dbce0096fe33ee106d7b4751ca9ba1.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['８月８日下午，佳木斯人大常委会副主任王君清带领考察团来开发区参观考察。开发区人大政协联络办公室副主任张勇陪同考察。', '考察团一行先后来到平平食品、统一公司、恒瑞化工等进行实地参观考察，详细了解了企业经营销售等情况。', '通过实地参观，考察团一行对开发区的良好发展环境、浓厚的发展氛围给予肯定。一致认为我区发展定位准确，入驻企业起点高、规模大，招商项目科技含量高，产业优势明显，发展潜力大。考察团希望通过此次考察学习，进一步扩大交流合作，相互借鉴，优势互补，促进双方共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>155</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>郾城区增强县区间企业服务工作交流学习</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2018-09-12</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article789db8d5cc582182f33a65f008ccda08.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['9月5日上午，临颍县中小企业服务局学习组一行到郾城区工信委就企业服务工作开展情况进行交流学习，郾城区工信委部分班子成员与源汇区工信委同仁进行面对面工作交流研讨。', '座谈会上，郾城区工信委就我区企业服务工作在企业用工、融资、市场开拓和周边环境等方面的具体做法及成效作了详细介绍，双方就企业项目申报和企业服务方面进行了深入交流学习。这次考察学习活动加强了县区工信部门之间的沟通交流，促进了相互学习和经验借鉴，提高了企业服务工作水平。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>155</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>源汇区工信委到郾城区开展企业服务工作交流学习</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2017-08-21</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article328b441128d5f50c8a14da4b7f370628.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['，源汇区工信委主任张彦宾携班子成员一行四人来到郾城区工信委就企业服务团工作开展情况进行交流学习，郾城区工信委主任杜刚及部分班子成员与源汇区工信委同仁进行面对面工作交流研讨。', '座谈会上，杜刚主任就我区企业服务团在企业用工、融资、市场开拓和周边环境等方面的具体做法及成效作了详细介绍，双方并就企业培育和内部管理方面进行了深入交流学习。这次考察学习活动加强了县区工信部门之间的沟通交流，促进了相互学习和经验借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>155</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>源汇区委书记王继周主持召开区委常委会会议</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2017-12-07</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article4a99f7ba4f09382a1069296bd6e993b3.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['全区党员干部外出考察学习后，12月6日下午，源汇区委书记王继周主持召开区委常委会会议，专题听取各单位对全区经济社会发展提出的意见建议总体情况汇报，安排部署工作。会上，各位常委结合工作实际和意见建议，研究探讨加快全区发展的工作推进机制，破解发展难题。王继周指出，源汇要加快发展，需要全区上下团结一心，合力攻坚，通过完善各项工作机制，搭建工作平台，激发全区干部干事创业的热情，共同推进全区经济社会发展步伐。区领导王凯杰、刘少宏、齐春枝等区委常委参加会议，刘学锋、李书旺、韩俊民、黄建伟等列席会议。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>155</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>舞阳县及源汇区领导莅临我区参观考察绿满郾城工作</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2019-01-31</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article18d454e06bf48c2cf215a930fb94452c.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['为贯彻落实全市森林漯河建设现场观摩讲评会精神，学习交流工作经验，进一步统一思想，掀起植树造林高潮', '1月28日、29日，舞阳县委副书记、县长张书民，源汇区委常委、办公室主任赵宏宇等先后到我区考察学习“绿满郾城”建设工作经验']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>155</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>舞阳县工商联赴南通绍兴两地开展以商招商活动</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2016-05-06</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article4a395e28b02992efeac355a6c6dd980c.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['家会员企业负责人赴江苏南通、浙江绍兴考察学习有关企业先进的发展理念和管理经验，扎实开', '展以商招商活动。他们实地考察了绍兴景鸿针织品有限公司、南通蓝丝羽家居有限公司、绍兴锦江绣品有限公司，参观了生产车间、仓库和商贸基地，并拜见了南通', '蓝丝羽家居有限公司董事长余建辉、绍兴锦江绣品有限公司董事长陈建兴。宋春华向两家企业董事长详细介绍了舞阳招商引资政策和盐化工产业优势，并邀请他们来']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>155</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>新疆生产建设兵团第十三师考察团到开发区参观考察</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2017-08-31</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articlee83d2cc0a8b4bd27cc8cbd552a210145.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['8月25日上午，新疆生产建设兵团第十三师党委常委、副师长师波带领考察团到开发区参观考察。市政府副市长、开发区党工委书记余伟，区党工委委员、管委会常务副主任赵焕林陪同考察。', '考察团一行先后深入双汇工业园、旺旺工业园进行了实地参观考察，详细了解了开发区的经济社会发展情况。', '通过实地参观，考察团一行对开发区经济社会发展所取得的成绩给予高度评价。一致认为开发区发展思路清晰，发展定位准确，入驻企业起点高、规模大，招商项目科技含量高，产业优势明显，特色产业突出，发展潜力大，各项事业成效显著。考察团希望通过此次考察学习，进一步扩大交流交往，加强务实合作，相互借鉴，优势互补，促进双方共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>155</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>临颍县规范物业管理实现辖区物业管理全覆盖</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2014-07-25</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article4e85a9276d23c6b8ca4b37f96f460b75.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['一是加大《物业管理条例》等法律法规的宣传力度。通过宣传车、发放宣传页、广场宣传栏等方式，向广大业主宣传物业管理相关知识，提高业主对物业管理与业主大会、业主委员会之间权利义务的认知。二是加强对物业公司的培训。聘请有关专家进行集中培训指导和外出考察学习，进一步提高物业公司的管理水平。三是实行物业公司年度晋级退出机制。每季度对各物业公司进行考核评比，连续3次评比后三名的，责令其退出该县物业管理市场，健全物业公司考核评比制度。四是扩大物业管理覆盖面。引导具备条件的行政、企事业单位住宅区，积极从后勤管理模式向市场化、专业化的物业管理模式过渡，杜绝新的“三无”小区，逐步实现物业管理全覆盖。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>155</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>临颍县大郭镇发挥党建优势助推特色经济发展</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2018-01-23</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articlef34f42d927fd60effb4f4baf3da1e645.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['临颍县大郭镇将抓发展促增收作为全镇基层党组织的一项硬任务，采取党建引领专业合作社、党建引领特色产业村、党建引领巾帼创业计划、党建引领电商发展计划等多种举措，千方百计发展集体经济、增加农民收入，实现富民强村。建成了辛庄550亩茶叶菊基地、大郭200亩猕猴桃基地、闫庄500亩玫瑰园基地、陈策春烟千亩方、谷庄村千亩彩叶苗木等6个特色种植基地，曹城村、大郭村先后建立农村电商经营点4处;各岗村启动巾帼创业计划，组织100余名妇女赴外地考察学习服饰小手工加工项目，探索出了农民增收致富新门路。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>155</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>副市长吕娜带领我市代表团参加第十五届国际农产品交易会</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2017-09-26</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/zwyw/article35cb634498a9408092f4d132889ecb97.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['9月21日至24日，第十五届中国国际农产品交易会在北京全国农业展览馆开幕。副市长吕娜带领我市代表团参会。本届农交会，我市参展的双汇集团、联泰食品两家企业共签约意向订单11个、金额1.58亿元。', '21日上午开幕式结束后，吕娜带领市直相关单位负责人和部分县区分管同志先后到现代农业发展成就展区、国家现代农业示范区展区、扶贫成就展区、国际展区等参观，对我市现代农业发展提出了具体要求。下午，吕娜一行又来到通州区第五季龙水凤港生态农场、通州国际种业园、金福艺农番茄联合国考察学习，开展以商招商。22日，吕娜带领市农业局、市农机局、市供销社负责同志赴中农控股集团洽谈现代农业招商项目。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>155</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>漯河市司法局组织人员学习外地服务型行政执法创建工作</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2017-11-22</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/zfxxgkpt/fdzdgknr/zfgz/yfxz/articlede7d6ebeff57f872dbc10cde40a8ede8.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['近日，漯河市司法局组织我省第三批服务型行政执法创建培育单位--舞阳县司法局一行六人到南阳市唐河县、邓州市司法局考察学习服务型行政执法建设工作经验。', '考察组一行听取了唐河县司法局、邓州市司法局在创建服务型行政执法示范点的工作汇报，参加了座谈会、查阅了有关档案资料、观看了唐河县司法局、邓州市司法局拍摄的服务型行政执法创建工作宣传片，实地查看了唐河县滨河法治文化公园、唐河县公证处办证服务大厅、县法律服务中心、滨河街道司法所、邓州市社区矫正中心。', '通过学习考察，使同志们很受启发，开阔了视野，打开了工作思路，为漯河、舞阳提供了有益借鉴和参考，同志们表示要解放思想，创新举措、强化行政指导，全面推进服务型行政执法创建，确保舞阳县司法局成功创建全省第三批服务型行政执法示范点。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>155</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>召陵区领导赴濮阳开封考察调研</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2017-12-04</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article0e9b5a5c016d58e93d821c259d5ca38a.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['11月29至30日，区长曹江涛、区委副书记赵广成、副区长王仕梁带领各镇及区农村人居环境整治办公室、区城乡建设局、区环卫处等有关单位主要负责同志，深入濮阳市南乐县、开封市祥符区，考察调研农村人居环境整治及特色小城镇建设工作。29日，区长曹江涛一行20余人，冒着寒风，一路向北，首先来到濮阳市南乐县韩张镇特色小镇、城乡环卫一体化指挥中心、中平邑村、岳村集村、睢庄村考察。30日，又匆匆赶往开封市祥符区，先后考察了朱仙镇启封故园、姜寨文化广场、武拐广场、白庄村党群综合服务体。', '在考察学习过程中，参加考察的人员与当地有关负责人员面对面座谈、交流，详细了解他们的措施、经验。大家很受启发，表示将结合自身实际，灵活运用到我区农村人居环境整治及特色小城镇建设工作中来。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>155</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>新乡市纪委考察团学习李集镇阳光三权工作</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2017-04-27</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article74e370a153b3749f85cb642f610261e8.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['4月27日上午，新乡市纪委学习考察团来到李集镇，学习考察该镇“阳光三权”体系建设工作。区委常委、区纪委书记董晓凤陪同考察。', '学习考察团对李集镇实施“阳光三权”后带来的工作成效给予高度评价，纷纷表示李集镇“阳光三权”工作可圈可点，大有作为，回去后将借鉴李集经验，取长补短，把村级组织各项工作规范化、阳光化。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>155</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>郾城区积极推进环卫体制改革</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2018-03-22</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article0bc40a97bf5b1d5a8dfd8133bd4bfc37.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['一是高度重视，精心组织。成立由区长任组长的高规格领导小组，主要领导多次带队到模范地市考察学习，深入研究制定工作方案、建立工作台账。二是试点先行，分步实施。将城区内北到龙江路、南至沙北路、西至107国道、东至沙湾路的片区作为试点进行市场化打包，招标前委托第三方公司开展范围界定、面积测量、经费测算等工作，经财政严格审核招标经费，确定招标控制价。三是全面推进，公开竞标。于2月14日在招标网发布了《招标公告》，并在招标前由主要领导带领环卫、财政等部门同志，对6家计划投标公司进行仔细考察，确保招标工作一次成功。3月15日，在郑州进行公开招投标工作，择优确定合作公司。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>155</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>舞阳县孟寨镇学习先进经验坚持党建引领助力乡村振兴</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2019-04-26</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article574ce0c2cba99513782a02d6c90e26d3.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['实施乡村振兴战略，是党的十九大作出的重大决策部署，是决胜全面建成小康社会、全面建设社会主义现代化国家的重大历史任务。为深入学习先进理念，学习共建共享的乡村发展新模式，加快推进农业农村现代化，扎实推进乡村振兴工作，近日，孟寨镇组织部分党政班子成员、中层干部和17名村党支部书记，由镇党委书记孙涛带队，考察学习马村乡、侯集镇和太尉镇等8个乡镇乡村振兴示范项目，详细了解乡村振兴布局发展，突出党建引领、产业带动、群众支持等融合发展，强力推进乡村振兴，确保群众长期稳定增收、安居乐业。', '实施乡村振兴战略，是党的十九大作出的重大决策部署，是决胜全面建成小康社会、全面建设社会主义现代化国家的重大历史任务。为深入学习先进理念，学习共建共享的乡村发展新模式，加快推进农业农村现代化，扎实推进乡村振兴工作，近日，孟寨镇组织部分党政班子成员、中层干部和', '每到一处，大家都认真听、仔细看、用心学，全面了解实施乡村振兴战略的思路举措，通过看成果、问经验、学方法，进一步打开眼界、开拓思路，纷纷表示，将借鉴学习成功经验，结合本地发展实际，积极谋划项目，主动对接吸引产业项目下乡，带动村民增收致富，全面推动乡村振兴。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>155</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>鹤壁市淇滨区人民政府考察组一行到开发区参观考察</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2017-06-15</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article0eeef7048a22b3110c395f9e70592ef1.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['6月12日下午，鹤壁市淇滨区人民政府考察组一行到经济技术开发区学习考察政府融资工作及投融资平台建设情况。开发区党工委委员、管委会常务副主任赵焕林，财政局、金融办等部门负责同志陪同考察并参加交流座谈会。', '座谈会上，赵焕林对鹤壁市淇滨区人民政府考察组一行的来访表示欢迎，并对开发区的基本概况、财政收支情况、融资框架和现行行政管理体制等情况作了简要介绍。', '在听取了情况介绍后，鹤壁市淇滨区人民政府副区长孙书章对开发区建区20多年来所取得的发展成果表示钦佩，特别是金融改革创新工作走在全省前列，此次考察学习给予更多的信心与方向指引，今后要向开发区学习，加强金融创新，系统谋划金融服务体系构建，切实将此次考察成果运用好，希望能够与开发区建立常态化的沟通交流机制，加强学习合作。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>155</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>濮阳市考察团到郾城区考察土地流转情况</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2017-10-10</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article2deebbd7727932366d61add0338566b3.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['月21日，濮阳市城乡一体化示范区党工委书记马宜品带领示范区相关部门负责人来我区考察土地整村流转及集约化经营发展情况。区领导周新民、徐光华、何志莹、楚建杰以及相关部门负责人陪同。', '考察团一行实地考察了我区孟庙镇拦河刘村、美锦农业、花桂庄园土地流转及集约化经营建设情况，听取了各考察点情况介绍，询问了土地流转适度规模经营情况，对我区推进土地规模流转的模式和取得的成就给予了高度评价，并表示郾城土地流转思路清晰、政策得力、体系健全，流转规范，成效显著，通过这次考察学习增进了交流、开阔了眼界、拓展了思路，回去后将学习借鉴我区土地流转和集体经济发展的成功模式，研究探索符合当地实际的特色路子。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>155</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>舞阳县公安局组织外出考察助推扶贫工作</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2016-09-21</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articleab5ce14de3177aee2750bb0d8415c26e.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['近日，受县政府党组成员、县公安局局长屈大浩的委托，舞阳县公安局副政委董晋生带领牛赵村第一书记李国亭、牛赵村支部书记赵文念及村蔬菜大棚种植户、碧之海养殖户一行', '山东鑫海集团考察学习种植、养殖新技术，所到之处，认真考察，让新的理念，新的知识充实头脑，开阔视野，为他们掌握新技术，进一步扩大规模，带动贫困户加入他们的合作社，参加劳动，增加收入奠定了基础。', '同时，以县公安局招商的光伏太阳能发电项目在姜店乡狄青湖实施并网发电的契机，董晋生一行到江苏无锡振发控股集团商谈光伏发电扶贫工作。通过商谈，董事长陆蓉表示，有狄青湖成功并网发电的经验，一定依托河南省光伏发电扶贫工作方案，率先在舞阳县开展光伏发电扶贫工作，助推舞阳县贫困户脱贫致富。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>155</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>周口市林业局局长金玉贞带队来漯河市考察</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2014-08-18</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/bmdt/article284d911231925f486a966379ee2025c0.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['8月14日，周口市林业局党组书记、局长金玉贞一行5人，到漯河市考察学习全国绿化模范城市创建工作。漯河市林业和园林局党组书记、局长宋孟欣，局党组成员、调研员李军学，局党组成员、副局长赵自申陪同，局相关科室负责同志参加交流座谈会。', '金玉贞一行先后参观了漯河市金山路迎宾大道、淞江路新建街头游园等重要景观道路、节点建设情况，详细听取了该市全国绿化模范城市创建有关经验介绍，对该市城乡绿化建设和生态宜居环境给予了高度评价。', '在随后的座谈会上，考察团就漯河市绿地系统规划、绿线划定以及园林绿化建设、投资机制等问题同市林业和园林局进行深入了解和探讨交流。认为，漯河市近年来持续推进城乡绿化建设，努力营造人与自然和谐的发展环境，取得了显著成效。大家纷纷表示此次考察获益匪浅，希望两地今后进一步加强交流合作，相互促进，共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>155</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>郾城区赴许昌魏都区学习考察食品安全示范区创建工作</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2019-12-16</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article22c642fe8fae576f6be3473969e28490.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['12月14日，区政府常务副区长卢丽琴、副区长刘永红带领区食安办、市场监管分局、区农业农村局和龙塔街道办、沙北街道办负责同志一行到许昌魏都区考察学习食品安全示范区创建工作。', '考察组一行通过现场参观、听取介绍、查阅资料和讨论交流的方式，实地查看了胖东来时代广场、曹魏古城示范街、万象社区等地点。详细了解了魏都区在食品监管、创建食品安全示范区的先进经验及做法。在魏都区政府，双方还就“三网融合”、基层监管机构建设、人员管理、食品安全日常监管、监督抽检、案件办理等方面进行了交流座谈。', '考察组一行通过现场参观、听取介绍、查阅资料和讨论交流的方式，实地查看了胖东来时代广场、曹魏古城示范街、万象社区等地点。详细了解了魏都区在食品监管、创建食品安全示范区的先进经验及做法。在魏都区政府，双方还就', '常务副区长卢丽琴指出：在创建食品安全示范区方面，魏都区积累了宝贵的经验，我区通过此次考察看到、学到的模式，结合本区实际，积极推进食品安全示范区创建工作深入开展。考察单位切实增强工作责任感，严格按照创建省级食品安全示范区责任分工，进一步完善工作推进机制，摸清底数，把握时间节点，对照创建目标要求强力推进，确保创建工作任务圆满完成。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>155</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>源汇区委副书记区政府区长史一鸣调研马路市场改造选址和三所一中心建设</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2023-06-06</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article7fa8d55faefe425d88320837a1471f15.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['源汇区委副书记、区政府区长史一鸣调研马路市场改造选址和“三所一中心”建设_漯河市人民政府', '6月5日，源汇区委副书记、区政府区长史一鸣到漯海望泽生活购物广场、世纪润发汇民广场、交通路一建公司和“三所一中心”建设工地调研马路市场改造选址、“三所一中心”建设情况，听取工作汇报，要求各责任单位切实增强做好马路市场改造选址工作的责任感和紧迫感，积极与市直部门沟通对接，充分考虑群众购物需求和市场商户诉求，深入论证马路市场搬迁改造选址事宜，尽快确定改造选址方案；要组织人员到外地考察学习，借鉴先进经验，为群众营造良好购物环境，高质量完成马路市场改造选址工作；要做好“三所一中心”建设服务保障，营造良好施工环境，着力解决建设难题，确保项目顺利实施、群众生产生活不受影响。区领导孟晋军，以及区政府办、创文办、商务局、市自然资源和规划局源汇分局、干河陈街道、马路街街道、源汇新区主要负责同志和相关企业负责人参加。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>155</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>郾城区赴许昌魏都区学习考察食品安全示范区创建工作</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2019-12-24</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articlec93dc1377966fa59efb05f99ff4447af.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['月14日，区政府常务副区长卢丽琴、副区长刘永红带领区食安办、市场监管分局、区农业农村局和龙塔街道办、沙北街道办负责同志一行到许昌魏都区考察学习食品安全示范区创建工作。', '考察组一行通过现场参观、听取介绍、查阅资料和讨论交流的方式，实地查看了胖东来时代广场、曹魏古城示范街、万象社区等地点。详细了解了魏都区在食品监管、创建食品安全示范区的先进经验及做法。在魏都区政府，双方还就“三网融合”、基层监管机构建设、人员管理、食品安全日常监管、监督抽检、案件办理等方面进行了交流座谈。', '常务副区长卢丽琴指出：在创建食品安全示范区方面，魏都区积累了宝贵的经验，我区通过此次考察看到、学到的模式，结合本区实际，积极推进食品安全示范区创建工作深入开展。考察单位切实增强工作责任感，严格按照创建省级食品安全示范区责任分工，进一步完善工作推进机制，摸清底数，把握时间节点，对照创建目标要求强力推进，确保创建工作任务圆满完成。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>155</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>漯河市旅游景区创升级取得显著成效</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2014-07-08</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/jrlh/article7e1d52e03ea81205fe0609887e3cec1c.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['市紧紧围绕“景区创A升级”这条主线，严格按照国家《旅游景区质量等级的划分与评定》标准，以及《旅游景区质量等级管理办法》和《河南省旅游景区从业人员服务规范》，积极开展景区创A升级工作。在创建活动中，市领导多次深入到景区调研并现场办公指导创建工作，协调解决各个景区在创建活动中遇到的困难和问题。市旅游局多次组织景区到外地考察学习，同时邀请省旅游景区评定委员会专家多次来漯指导，并跟踪服务。今年上半年，漯河市许慎文化园景区、小商桥景区、金凤凰鸟文化乐园景区被全国旅游景区质量等级评定委员会评定为国家4A级旅游景区,占年度全省新评国家4A级景区总数的五分之一,圆满完成年初市委、市政府下达的“确保成功创建3个国家4A级景区”的目标任务。截止目前，漯河市4A级国家旅游景区已达到5家。通过创建活动，漯河各景区服务功能及基础设施不断完善，景区文化内涵明显提升，漯河旅游形象出现新的改观。', '这条主线，严格按照国家《旅游景区质量等级的划分与评定》标准，以及《旅游景区质量等级管理办法》和《河南省旅游景区从业人员服务规范》，积极开展景区创', '升级工作。在创建活动中，市领导多次深入到景区调研并现场办公指导创建工作，协调解决各个景区在创建活动中遇到的困难和问题。市旅游局多次组织景区到外地考察学习，同时邀请省旅游景区评定委员会专家多次来漯指导，并跟踪服务。今年上半年，漯河市许慎文化园景区、小商桥景区、金凤凰鸟文化乐园景区被全国旅游景区质量等级评定委员会评定为国家', '家。通过创建活动，漯河各景区服务功能及基础设施不断完善，景区文化内涵明显提升，漯河旅游形象出现新的改观。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>155</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>校长张祎捷带队到南阳医学高等专科学校考察交流</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2023-12-06</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/bmdt/articleb0a61918c9284842ac0d056b163545a4.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['12月6日，校长张祎捷，副校长张福华、副校长马永超带领校行政办公室、学生处、教务处等处室负责人就“申本”、教学管理、学生管理等工作赴南阳医学高等专科学校进行考察学习。南阳医学高等专科学校校长范真、副校长刘荣志、副校长秦玖刚等出席交流座谈会。', '会上，南阳医学高等专科学校校长范真首先代表南阳医专对考察团一行的到来表示热烈欢迎，并介绍了学校基本情况。河南国医学院筹建办李明哲、南阳医专学生处副处长吴东波、教务处副处长周玉金分别就河南国医学院筹建、专业设置、人才培养、教学科研、实习实训、学生管理等方面取得的成果进行了介绍。', '张祎捷介绍了漯河医学高等专科学校的基本情况。她表示，南阳医专的教学理念先进、办学特色显著、校园文化氛围浓厚、发展成果丰硕，值得我校学习和借鉴。随后，考察团在刘荣志的陪同下，实地考察了传统医药非物质文化遗产传承创新中心和仲景学苑“一站式”学生社区。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>155</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>张书民主持召开舞阳县乡村振兴外出考察成果座谈会</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2018-04-19</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article71cb49487aab1b04a06f6ffb3aaa0b31.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['4月13日，县委副书记、县长张书民主持召开乡村振兴外出考察成果座谈会，听取考察组成员心得体会和下步推动我县工作的意见建议，认真总结考察学习成果。县政府副县长师艳芳，县总工会主席陈永军出席会议。', '针对乡村振兴工作，张书民要求，要提升政治站位，党的十九大作出实施乡村振兴战略的重大部署，顺应了亿万农民的新期盼和农业农村发展新需求，意义重大、影响深远。各级各部门要深刻认识做好乡村振兴工作的重要性和任务的艰巨性，结合舞阳乡村振兴战略规划和发展实际，因地制宜做好自下而上和自上而下的结合工作，把中央和省市战略规划部署和地方实际相结合，不断推动乡村振兴战略有计划、有步骤实施。要全面宣传动员，提升群众参与积极性。研究出台相关文件，完善领导机构，理顺工作机制。要持续深化学习，认真学习先进地区成熟经验，根据乡村实际就产业确立、农村改厕，文化建设、污水处理，垃圾分类等专项行动加快推进。要抓紧启动试点村，按照规划先行，典型带路，找准突破点，加快推进试点村建设工作。要强化组织领导，制定考核办法，强化竞争机制，各乡镇要抢抓机遇，以时不我待的干劲，扎实推进工作落实，为全县乡村振兴创造经验。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>155</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>开发区党工委副书记管委会主任赵焕林带队参加豫粤经开区对接交流活动</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2019-12-09</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article7e0b0ebac675f3ab54ad5026388617bf.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['开发区党工委副书记、管委会主任赵焕林带队参加豫粤经开区对接交流活动_漯河市人民政府', '为学习借鉴广东省国家级经开区发展经验，推动豫粤经开区合作交流，１２月２日至６日，河南省商务厅牵头组织省内１２家经开区走进广东。开发区党工委副书记、管委会主任赵焕林，开发区党工委委员、管委会副主任徐天申及区招商局负责人参加。', '河南省商务厅党组成员、省自贸办副主任陈凯杰，省商务厅副巡视员王峰带队先后赴珠海、惠州大亚湾、增城、南沙经开区，中新广州知识城、深圳综研院考察学习创新提升、国际合作园和科创园建设发展等方面经验，探讨互利合作方向。在大亚湾经开区、增城经开区，赵焕林做了区情推介，详细介绍了我区产业发展和要素优势。', '通过一周的考察活动，学习了广东经开区在体制机制、发展理念、政策创新、园区管理、项目建设等方面的先进经验，为下一步深化双方合作，促进经开区跨越发展奠定了坚实的基础。', '考察期间，赵焕林一行先后拜访了和峻（广州）胶管有限公司、冠邦食品机械公司、中南精工橡胶有限公司、连达橡塑有限公司、东莞永益食品有限公司、拓斯达科技股份有限公司。详细了解企业发展，并与各企业负责人进行了沟通洽谈。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>155</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>临颍县王孟镇举办学习贯彻党的十九大精神专题研讨暨新一届村干部培训班</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2018-06-05</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article22791418ddf1fc55349667f294c8eab9.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['临颍县王孟镇举办学习贯彻党的十九大精神专题研讨暨新一届村干部培训班_漯河市人民政府', '为进一步提升新任村干部政治意识、纪律规矩意识，服务发展、服务群众能力，全面提升理论水平。5月17日至18日，河南省临颍县王孟镇党委，组织全体机关干部、新当选村“三委”干部和年轻干部共180人，在固厢乡小师社区大礼堂，进行了为期两天的新一届村干部任职集中培训班。 本期培训班镇党委先后邀请了临颍县纪委王宇、县委组织部赵军伟、国土资源局薛俊锋、王富刚等多位专家，围绕基层重点工作，针对农村当前发展实际，从如何做合格村干部、实施乡村振兴战略、建设“阳光村务”工程、廉洁从政等几个方面进行详细解读，力求全面提升新任村干部综合素质与履职能力。另外，培训班还安排了外出实地参观考察学习，先后到王岗镇薛庄村、新城办五里头村、皇帝庙乡吴集村、杜曲镇大于庄村参观学习了党建文化建设工作、增强村级集体经济发展、人居环境整治；观看纪录片《厉害了我的国》。最后，马庄村新当选的村主任马志刚、石拐村党支部书记邢自安在结业典礼上进行了表态发言，确保了本次任期培训取得实实在在的效果。 通过两天的室内学习和室外考察，各行政村新“三委”班子迅速根据所学内容结合实际进行开会研讨，切实做好下一步规划，为整个王孟工作打下坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>155</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>李亦博带队赴南阳卧龙区考察全域电商产业发展</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2017-09-22</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article2cc4eddb88dc4a5cd3ffc0f77a1e8b66.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['月20日，市委常委、舞阳县委书记李亦博带队赴南阳市卧龙区考察全域电商产业发展情况。县委常委、县纪委书记朱暑光，县政府副县长师艳芳一同考察，县委办、农林局、电商办、马村乡等单位负责人陪同考察。', '李亦博一行在卧龙区委、区政府主要负责同志陪同下，先后到卧龙区电商产业园、想念食品有限公司、众创空间等实地参观考察，详细听取经验介绍，观看相关业务流程演示，多方了解该区电子商务平台建设、运作、交易及发展情况，同当地负责人一起就如何推进全域电商产业发展进行深入交流探讨。', '近年来，卧龙区以建设网络经济强区为目标，大力实施“互联网+”战略，培育优质示范主体，推进电商模式创新，构建产业支撑体系，规划建设了占地230亩，总建筑面积30万平方米的中国（南阳）卧龙跨境电子商务产业园，电商企业呈现爆发式增长，全区从事电子商务相关产业链上的企业、商户、个人达万余家（人），2016年交易额突破30亿元，今年元至8月份交易额已达24亿元。', '浓厚的创业氛围，优惠的扶持政策，良好的发展环境，让电商产业园成为创业创新者实现梦想的乐园。李亦博一行边听边看、边问边思，并就综合保税区建设、新兴信息技术平台建设、电子商务全产业链打造等问题进行了互动交流。', '考察中，大家一致认为，互联网和电子商务发展空间无限，是当前和未来的发展趋势。通过考察，进一步开拓了眼界、明晰了思路、看到了差距。大家纷纷表示，要以此次考察学习为契机，积极学习借鉴先进地区电商产业发展的成功经验做法，结合舞阳实际，进一步理清思路、强化措施，推动舞阳电商产业健康快速发展。', '李亦博要求，各相关部门要认真学习卧龙区发展全域电商产业的工作理念和先进经验，打破传统的思维观念和营销方式，树立“互联网+”思维，运用“互联网+”模式推动全域电商产业发展，带动一二三次产业结构调整优化，促进转型发展攻坚和脱贫攻坚实现新突破。县电商办要结合考察学习成果，深入研究我县电子商务发展现状和方向，着力破解理念、技术、物流、信息等瓶颈问题，科学制定符合舞阳实际的电商产业发展规划及实施方案。要坚持把发展电子商务作为推动舞阳转型发展、加快脱贫攻坚步伐的重要抓手，进一步加大与阿里巴巴、京东等知名电商企业对接合作力度，拓宽发展思路，发挥舞阳特色产业、特色产品资源优势，培育一批有较强带动力、较高知名度的本地电商企业，推动舞阳电子商务做活做精、做大做强。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>155</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>郾城区文化旅游局狠抓食博会期间文化市场监管工作</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2015-05-07</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article131c410e0b545844c40fac6c3dc59dd3.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['一是领导重视。召开专题会分析郾城区文化市场发展的新形势，制定文化市场管理工作计划、方案、台账。', '二是狠抓安全。与辖区文化经营户签订安全工作目标责任书，强化其安全经营意识，对全区文化娱乐场所进行拉网式排查，发现安全隐患及时有效予以处理，对不能及时处理的问题将制定工作台帐，明确部门、责任人、期限，确保整改到位。', '三是重视引导。通过签订诚信经营责任书、集中培训、表彰先进、外出考察学习等途径，不断增强文化经营户的守法经营意识。先后组织文化经营单位开展各类培训活动3次，80余名经营户参加了学习。', '四是突出重点。严厉查处无证非法经营、网吧违法接纳未成年人、游戏厅设置违规机型机种，歌舞厅违规点播歌曲、制售盗版影像制品等行为。', '五是健全机制。实行划片管理、责任到人的管理机制，形成人人肩上有压力的局面。完善日巡查、月集中检查和错时检查的执法机制，加大监管力度。', '六是整合力量。充分发挥行业协会、文化市场义务监督员、群众举报等社会监督力量的作用，形成文化市场监管合力。近两个月来，共接处各类群众举报7件，开展各类检查活动8次，对违规娱乐场所和网吧作出了限期整改，保证了食博会期间文化市场稳定安、繁荣。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>155</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>漯河市应急管理局赴平顶山市考察学习非煤矿山智能化建设工作</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/zfxxgkpt/fdzdgknr/yjgl/articledb3e9e5e5695468a9421ce59551b7f23.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['为学习借鉴平顶山市非煤矿山（卤水开采）智能化建设方面的先进理念和工作经验，推动我市非煤矿山智能化建设水平提升，8月17日，漯河市应急管理局四级调研员轩坪带队赴平顶山市考察学习，舞阳县应急管理局和辖区内3家非煤矿山企业（中盐舞阳盐化有限公司、河南永银化工实业有限公司、河南金大地化工有限责任公司）相关负责人参加，平顶山市应急管理局、叶县应急管理局有关领导陪同考察。', '考察组参观了中国平煤神马集团联合盐化有限公司岩盐基地，实地查看了泵房、采输卤系统、罐区、调度室等场所的智能化建设情况，听取了该企业相关负责人对智能化矿山建设的介绍，对智能化设施设备、系统设计、建设标准、资金投入等方面进行了详细了解。考察组一行与平顶山市应急管理局、中国平煤神马集团联合盐化有限公司针对非煤矿山（卤水开采）智能化建设、安全生产等相关事项进行了深入交流。', '下一步，我局将严格按照《河南省非煤矿山智能化建设实施方案》要求，借鉴平顶山市非煤矿山智能化建设宝贵经验，扎实推进我市非煤矿山智能化建设工作，督促企业按时完成建设内容，实现非煤矿山领域高质量安全发展。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>155</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>郾城区委书记周新民深入龙城镇回马村调研指导工作</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2018-04-16</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article256e043a8a3ed5672c0d8dd44561eb14.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['月14日上午，区委书记周新民一行深入龙城镇回马村调研指导工作。区委常委、组织部长李伟恒，区委常委、办公室主任王建中随同调研。', '周新民首先听取了龙城镇回马村的工作汇报，对回马村的工作给予了充分肯定，并着重对村“两委”换届、扫黑除恶、环境治理等工作提出了明确要求。一要重党建。要加强基层组织建设，以村“两委”换届为契机，配优配强村“两委”班子，进一步提升基层组织的凝聚力和战斗力。二要强学习。要以“三会一课”、主题党日活动为载体，加强党员干部党史教育和理想信念教育。要加强基层干部教育培训，组织到先进地区考察学习，不断提升队伍素质，提高服务能力。三要守规矩。要从思想上强化规矩意识、纪律意识，规范村民行为，加大对私搭乱建的治理力度，引导群众依法依规生产经营，进一步优化生活环境、诚信环境。四要抓稳定。要提高政治站位，强化责任担当，深刻认识扫黑除恶专项斗争的重要性、必要性，时刻跟党走、树正气，确保扫黑除恶专项斗争扎实推进。五要谋发展。要解放思想、善于借势，扎实做好防范化解重大风险、精准脱贫、污染防治“三大攻坚战”，持续壮大村级集体经济，大胆探索科学发展、转型发展的新路子、新方法，确保创出新面貌、实现新发展。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>155</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>濮阳市党政考察团来开发区参观考察</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2015-11-30</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article8467169a113ac0b3b2b5d035428d67ed.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['11月20日下午，濮阳市委书记何雄率党政考察团来开发区参观考察，市长曹存正，市委常委、常务副市长杨国志，市委常委、市委秘书长孔祥智，区党工委书记余伟，党工委副书记、管委会主任吴玉培陪同。 考察团一行先后深入开发区旺旺第二工业园、统一工业园参观考察，并听取了企业相关情况介绍，对开发区招商引资、项目建设、产业集聚区发展等工作进行考察。 曹存正对濮阳市党政考察团莅漯表示欢迎，并简要介绍了我市经济运行和产业发展情况。他说，濮阳市连年在全省发展中处于龙头地位，并保持了强劲的发展势头，在产业集聚发展、招商引资、城市建设等很多方面值得漯河学习。漯河也多次到濮阳市考察学习国家卫生城市创建工作的先进经验、做法。这次濮阳市党政考察团来到漯河，对我们来说是一次难得的学习交流机会。希望考察团的朋友们在漯河多走走、多看看，留下好经验、好做法，并对漯河的经济社会发展多提宝贵意见。 考察团对开发区围绕食品产业招大引强，不断做大主导产业、拉长产业链条、加快转型升级的做法及取得的成效表示赞赏，看到旺旺第二工业园、统一工业园设备先进、配套完善的标准化生产线，考察团成员纷纷拿起手中的相机拍照，称赞开发区名企名牌扎堆发展、集约节约发展的理念和做法非常值得学习。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>155</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>舞阳县北舞渡镇三项措施推进历史文化名镇建设</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2016-08-31</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article34ff0c40cfbcee8f41731ca3e42f6af2.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['北舞渡镇把搞好特色产业发展作为促进历史文化名镇建设的有效举措，不断加大特色产业发展力度，为历史文化名镇建设发展注入了强大活力。', '一是强力推进贾湖文化产业建设。积极开展美丽乡村建设，目前正在全力配合搞好美丽乡村房屋改造建设，贾湖遗址展示馆和贾湖幼儿园建设等正在加快推进。为做好贾湖村名优小吃、特色商品、民宿农家乐、手工艺品等街区建设，组织贾湖村、尚庄村党员干部到陕西省袁家村参观考察学习，调动了群众参与贾湖文化产业开发的积极性。同时，邀请多批外商来北舞渡镇考察，为历史文化名城创建争取社会资金投入。', '二是积极发展餐饮住宿业。大力开发胡辣汤特色产业，形成了以闪家老字号胡辣汤为主的省内连锁、直营经营店近百家，原料加工', '余家，建成了阳光购物、好日子超市、顺发购物广场等一批规模商场超市，全镇形成农机、农资、家电、家具、日用品等多种批发零售店']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>155</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>宋耀生等领导拜访泉州市知名企业</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2015-04-17</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articlea71daf3664762a4efaf565080b0b837e.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['近日，舞阳县委副书记、县长宋耀生，县委常委、常务副县长王耀生，县产业集聚区管委会主任左景浩，县领导王晓军带领县服装服饰产业培育攻坚领导小组成员拜访泉州市特步（中国）有限公司、九牧王股份有限公司、恒达制药有限公司、威名达鞋业有限公司。', '在特步（中国）有限公司，宋耀生一行深入企业生产车间、文化长廊、品质管理中心鞋业检测室等地进行参观，详细了解特步的发展历程、品牌定位、产业布局以及合作伙伴等情况。同时，宋耀生也介绍了舞阳县在服装服饰产业发展中的独特优势，希望与特步公司进一步加强联系，在经济新常态下，寻求合作领域，实现互利共赢。', '当看到九牧王股份有限公司丰厚多采的企业文化、紧张有绪的生产车间、以人为本的运营管理时，宋耀生指出，九牧王是中国领先的商务休闲男装品牌企业，九牧王男裤及茄克已经占据市场领导者地位，其成功的发展经验值得舞阳县服装服饰企业学习和借鉴。真诚邀请九牧王股份有限公司到舞阳参观考察、投资兴业，实现共同发展。', '拜访期间，宋耀生一行还到泉州市经济技术开发区管理委员会进行参观考察，学习其在传统产业提升改造、品牌培育、科技创新等方面的先进经验和管理模式。双方在融洽的气氛中进行了广泛的交流，充分肯定了招商引资、项目建设在经济社会发展中的推动作用，希望能够进一步加强交流学习，互惠互通，共同促进当地经济科学健康发展。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>155</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>舞阳县潜心求知绘蓝图精心谋划谱新篇</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2015-06-12</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article65c2f5cc3bcd691d32f3be25d665be2d.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['日，县委副书记、县长宋耀生在孟州市考察学习电子商务建设先进经验时指出，舞阳在电子商务建设方面与发展较好的先进县区相比，还存在不少差距，我们一定要潜心求知绘蓝图，精心谋划谱新篇。县领导王晓军及人社、商务、扶贫、工商、文峰、辛安、北舞渡等部门、乡镇负责人一同参观考察。', '宋耀生一行先后参观了河南德众保税中心、阿里巴巴集团农村淘宝孟州服务中心，并与阿里巴巴集团农村淘宝河南地区负责人毛睿就与阿里巴巴的合作运营模式、线上线下的产品交易流程等进行了交流，并到部分淘宝店、微店进行了学习。', '在考察结束后，宋耀生指出，各有关乡镇、单位要进一步提升思想意识，充分认识到电子商务是改变传统消费模式、节约发展成本、提升发展空间的新途径；是实现舞阳县大众创业、万众创新、拉动内需、改善民生，促进经济社会提质增效的新方式。通过电子商务可以进一步加速舞阳县优势产业对外流通，弥补舞阳县弱势产业短板，从而改善产业结构，提升全县产业综合发展水平。各有关乡镇、单位一定要加强学习、主动研究、结合本职工作、找准发展定位、理清发展思路、创新服务方式，加快推进电子商务快速发展。', '宋耀生强调，各有关乡镇、单位要认真学习借鉴孟州市的先进经验和做法，潜心求知，绘制出舞阳县电子商务发展蓝图，精心谋划，谱写舞阳县经济发展新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>155</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>郾城区罗山县司法局考察我区法治文化建设工作</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2016-08-15</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article7953655113cf038fa34bb5addf9c7b63.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['月11日，罗山县司法局局长徐宗新一行10余人到漯河市郾城区考察学习法治文化建设工作，市司法局依法治市办副主任龙如浩、郾城区司法局局长孙建波等陪同。', '考察组一行先后参观了建于区实验中学的郾城区青少年法治教育基地、区黄河法治文化广场两个法治文化阵地，在基地相关人员向考察组详细介绍了青少年法治教育基地设置的法律知识测试室、法治书法绘画室、法治节目录播室、快乐学法活动室、模拟法庭体验室、法治大风车、法治大圆盘、法治教育长廊等普法活动设置项目以及黄河法治文化广场进行升级改造后10多个滚动式法治宣传教育橱窗、法治文化教育长廊等功能作用的发挥情况。', '孙建波局长向考察组详细介绍了郾城区作为全国“六五”普法中期先进区、全国“六五”普法先进区、河南省“民主法治村”创建工作先进集体为全面落实 “六五”普法规划，丰富法治文化内容所做的诸多尝试、取得的成效以及做好“七五”普法工作的一些设想。考察组一行对该区的普法工作给予充分肯定，对该区在推进法治文化建设工作中的做法表示高度赞赏，认为郾城区的领导重视，机构健全，重点突出，责任落实，将法治文化工作摆在了突出的重要位置，工作取得了良好效果，很有借鉴价值，也为他们的法治文化建设提供了一个很好的范本。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>155</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>漯河科技智囊团助力经济林产业</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2015-08-25</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/bmdt/articlef90088d42b54c4e4c28dc37569f670af.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['近年来，河南省漯河市林学会充分发挥“科技智囊团”作用，为林农送技术、送信息、搭平台，为经济林产业发展引路护航。', '目前，漯河市经济林果种植面积4万余亩，产值达1.2亿元。随着经济林产业的蓬勃发展，林农对林业科技的需求日趋强烈。为此，漯河市林学会成立“科技智囊团”，有针对性地开展科技下乡活动。今年以来，漯河市林学会举办了6期经济林管理技术培训班，组织林果专家深入田间地头开展栽培与管理技术培训，讲授林果的土肥水管理、整形修剪技术等知识，介绍其他地区种植的先进经验及经济林的发展前景等，激发了广大林农发展经济林产业的热情。', '为更及时有效地为林农提供专业技术、供求信息服务，漯河市林学会与电信企业联合组建了林果信息网，将林农的手机号码纳入网中，由林果专家定期发布果树管理技术、病虫害防治、新品种推广等方面的信息；根据天气变化等情况，及时发布提醒信息；此外，还定期向林农免费发放《漯河林业园林》科技杂志、林果管理周年历、病虫害防治小技巧知识彩页以及国内外优良果树品种的宣传资料等。', '近几年，漯河市林学会持续举办鲜桃、无花果等林果鉴评会，综合评定果品外观、含糖量、口感以及农药残留等指标，评选出优质果品，以此激励林农不断提高果品质量，塑造漯河林果品牌。漯河市林学会还积极搭建林农相互学习、交流的平台，多次组织林农到山东、河北等地考察学习先进经验及管理技术，组织召开林果产业发展座谈会，通过学习、交流达到开阔视野、提升水平、促进发展的作用。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>155</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>漯河市创建全国法治政府建设示范市工作第次周例会召开</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/ztzl/qgfzzfjssfcj/cjdt/articleba1c2d9bc7424af7a1b48226edcc8b66.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['7月26日，漯河市创建全国法治政府建设示范市工作第12次周例会召开。市创建全国法治政府建设示范市工作领导小组办公室综合协调组、创建指导组、督导检查组、宣传报道组汇报近期工作，讨论研究重点任务，聚力攻坚难点堵点，确保示范创建各项工作落地落细。', '会议通报法治政府示范创建重点工作任务台账，征求意见建议，深入讨论了印证材料收集、法治理论测试等工作，并组织学习了《赴省内外全国法治政府建设示范市考察学习的情况报告》。', '会议要求，要明晰创建思路，坚持系统观念、注重轻重缓急，紧紧围绕创建步骤节点，做好整体统筹和各阶段规划；要积聚创建力量，市司法局作为牵头部门要把主要时间、精力用到示范创建上，各工作组要把一切力量、资源聚焦到任务落实上；要严格台账推进，各组要深入思考，科学严谨地制定周台账、月台账，保质保量完成台账既定工作；要加强协调沟通，主动向省委全面依法治省委员会办公室汇报创建进展，争取工作支持；要确保初验顺利，进一步强化顶层设计，做好创建指标印证资料上传、行政执法案卷审核等重点工作，确保在省级初步验收中出线出彩。']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>155</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>李亦博张书民等领导赴兰考新蔡考察脱贫攻坚</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2017-09-30</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article0070aab4dbd3c105901e27bcab291f93.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['月27日—28日，市委常委、舞阳县委书记李亦博带队赴兰考县、新蔡县考察脱贫攻坚工作。张书民、王静、刘剑、王凤林、朱暑光等领导一同考察，县委办、县脱贫攻坚办等相关部门人员陪同考察。', '兰考县是焦裕禄精神的发源地，也是全国率先脱贫的国家级贫困县。近年来，兰考县委县政府以脱贫攻坚统揽经济社会发展全局，大力实施精准扶贫、精准脱贫。去年，国务院扶贫办对兰考县先后开展了省际互查、第三方评估、普查、核查四次调查核实，符合退出标准，正式退出贫困县序列。今年，该县在巩固提升脱贫攻坚成果的基础上，提出并扎实推进稳定脱贫奔小康行动，持续掀起全面建成小康社会热潮。', '在兰考县，李亦博一行先后到谷营镇爱心超市、霍寨村，堌阳镇徐场村实地考察，与当地干部深入交流探讨，详细了解扶贫产业发展、档卡资料完善、驻村队员管理、督促检查等方面的做法和经验。在谷营镇爱心超市，李亦博一行认真听取兰考县社会扶贫（公益1+3工程）情况介绍，并向工作人员详细了解具体运作流程和实际效果。在堌阳镇徐场村，李亦博一行实地考察该村民族乐器产业，认真听取产业发展情况介绍，交流扶贫产业发展经验。', '新蔡县也是省委省政府确定今年要脱贫摘帽的四个县之一，前不久，该县召开了脱贫攻坚百日会战誓师大会，全县上下攻坚冲刺士气高涨。在新蔡县，李亦博一行实地考察了李桥镇狮子口村光伏扶贫基地和扶贫车间，听取了该县扶贫产业发展情况介绍。', '在两地考察期间，李亦博一行分别与当地县委县政府有关领导和相关部门负责人召开了座谈会，听取两地脱贫攻坚工作经验做法介绍，双方人员就产业发展、机构设置、工作机制、督促检查、奖惩激励等问题进行了深入沟通交流。考察组一行一路看、一路听、一路议、一路思，深切感受到两地在推进脱贫攻坚工作中思路新、办法多，干部敢担当、劲头足，各项帮扶措施成效明显，很多先进工作理念和成功做法对舞阳脱贫攻坚有很好的借鉴和参考价值。大家一致认为，通过考察，真正开阔了眼界，打开了思路，坚定了信心。纷纷表示，要全面分析查找我县脱贫攻坚中存在的突出问题，找准与先进地区的差距，把考察学习的成果转化为具体的政策措施，进一步理清工作思路，明确目标任务，加快实施推进，确保打赢脱贫攻坚战。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>155</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>召陵区精准培训名扶贫干部</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2018-11-13</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article8e4a7830c1be7ef305a35c71d4b7c57d.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['今年以来，面对脱贫攻坚的新形势，着眼于解决扶贫干部队伍中存在的理论素养不高、方法掌握不多、作风建设不实、担当拼搏不够等问题，召陵区委组织部和区扶贫办分批分期组织举办扶贫干部队伍专题培训，着力提升各级干部推进脱贫攻坚、决胜全面建成小康社会的政治素质和专业化能力。3月初，组织区扶贫办人员和各镇办主抓副职，到河南省台前县、柘城县和山东省菏泽市、安徽省太和县，考察学习扶贫车间建设等方面的经验和做法;4月份，组织镇办党委书记或镇长(主任)、区委农办工作人员，到山东省、安徽省、浙江省学习乡村振兴、光伏扶贫和电商扶贫等先进经验;在5月底，村“两委”换届结束后，立即举办了全区抓党建促脱贫政策业务专题培训班，对全区驻村第一书记、村支部书记和村主任进行集中培训。8月份，组织镇村扶贫干部到商水县、柘城县和社旗县学习产业扶贫先进经验。在9月底，组织全区10个贫困村的31名农村致富带头人到新乡市进行专题培训，通过学习农村实用技术和实地参观，提高其致富技能，开阔了视野。今年前三季度，共组织5次培训班，培训各级扶贫干部和农村致富带头人1122 名。 在培训过程中，注重提高培训针对性、灵活性、实效性，采取“走出去、请进来”的办法，即课堂学习扶贫理论政策知识，又实地参观学习好经验、好做法，增强了扶贫人员对打赢打好脱贫攻坚战责任感使命感和信心决心，提高了扶贫工作能力。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>155</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>参观学习促发展乡村振兴添动力</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2018-08-31</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article4801f1134f381c1beac374a82eb15ff4.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['为学习借鉴先进乡镇乡村振兴建设的好经验、好做法，进一步打开视野，拓宽思路，加快推进我镇乡村振兴建设步伐。8月26日上午，孟寨镇组织党政班子成员、村党支部书记一行40余人到信阳市明港镇新集村和平桥区郝堂村参观学习。', '为学习借鉴先进乡镇乡村振兴建设的好经验、好做法，进一步打开视野，拓宽思路，加快推进我镇乡村振兴建设步伐。', '在明港镇新集村，参观组一行认真参观了该村美丽乡村建设成果。经当地干部介绍，该村在遵循自然发展规律，切实保护农村生态环境的前提下，通过改造原有住房，加强村民垃圾分类和环境保护意识，引导村民改善人居环境，村居环境变美了，村民的生活也更加舒适。当地干部还带参观组参观了荷塘景观、高粱示范方、葡萄长廊、村委活动室、文化广场场地。', '在平桥区郝堂村，映入眼帘的黑瓦徽派建筑风格古色古香，整个村庄给人一种原生态的视角，仿佛走进了一幅山水', '画卷中。参观组一行实地体验了图书馆、荷塘观赏园、趣味仿古一条街等乡村旅游景点。得益于科学的前期规划和积极的招商引资策略，该村已成为体验原味乡景茶情一个最“农村”的农村。', '画卷中。参观组一行实地体验了图书馆、荷塘观赏园、趣味仿古一条街等乡村旅游景点。得益于科学的前期规划和积极的招商引资策略，该村已成为体验原味乡景茶情一个最', '通过实地参观和经验介绍，大家寻找到了美丽乡村建设和产业发展的差距。参观组一行纷纷表示，回去后将及时召开村民代表以上会议，把此次学习的先进经验带给每位村民。', '该镇党委副书记、镇长罗中兴表示，此次参观考察的目的就是让大家通过通过亲耳听、亲眼看、亲身体会，通过横向纵向比较，进一步开拓眼界，提高认识，把握机遇，狠抓落实，将参观考察学习的经验成果和本镇本村实际结合起来，找准、找实适合本地发展的乡村振兴发展道路，为新的一年更好实施好乡村振兴战略打好坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>155</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>漯河市三大林业产业带雏形初现</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2015-04-03</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/jrlh/article4f5cc679a2b5589c1310b021630a1822.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['科技服务，保障产业带健康发展。为进一步推动产业带建设，我市不定期组织市、县两级林业专业技术人员送科技下乡，开展技术服务，并多次组织林果乡土人才、造林大户等赴山东枣庄市、平度市等地，考察学习林果产业发展的先进经验。同时，连续成功举办了五届优质鲜桃鉴评会和采摘节，组织开展了晚秋黄梨、葡萄、无花果等优质果品鉴评会，引导群众科学养护、调整结构、提升效益。', '多策并举，特色林业产业发展步入快车道。近两年，全市新增葡萄、晚秋黄梨、油用牡丹，杜仲、玫瑰、设施容器苗等种植基地2万亩。其中，新增千亩以上基地9个，新增造林大户64个。培育了临颍县皇帝庙绿汇设施葡萄、石桥乡景灏花木，舞阳县国香玫瑰园、玫瑰红紫薇专业园，郾城区美锦林果园区，源汇 区空冢郭众启果桑采摘园、华圃种植园等一批集生态观光、采摘休闲于一体的特色林果园区，107国道孟庙段、商桥段、皇帝庙段、固厢段、石桥段，漯舞路大刘段、吴城段等经济林、种苗花卉集中连片、规模发展的产业格局初步形成。', '在林业生态建设工作中，我市将持续推进三大林业产业带建设。通过政策扶持、土地流转、招商引资，培育专业合作组织等措施，重点在107国道、漯舞路、京珠高速公路两侧和城市近郊大力发展梨、桃、葡萄、玫瑰、油用牡丹、名优花木等特色产业。加快推进107国道源汇段、郾城段、临颍段苗木花卉产业带，漯舞路舞阳吴城段、文峰段、保和段，源汇问十段、大刘段经济林果产业带，京珠高速苗木花卉产业带建设。（熊勇力）']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>155</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>郾城区裴城镇四个注重培育农村乡土人才</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2014-09-09</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article50a78a20f49d24c0b0f0d766df43edd4.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['裴城镇在党的群众路线教育实践活动中，进一步加强乡土人才队伍建设，整合和开发乡土人才资源，发挥乡土人才的辐射带动作用，促进农村经济社会发展和农民增收致富。', '一是注重选拔。建立由农业、林业、畜牧、农机、文化等站所专业人员组成选拔机构，负责对乡土拔尖人才的选拔工作。建立健全了一套“好中选优、灵活实用”的选拔机制，今年来共选拔从事种植、养殖、农机、文化等行业的农民技术人员和管理人员200多人。', '二是注重培训。建立镇、村两级培训网络，以应用型、技艺型科技培训为主要内容，结合农广校技术培训和党员干部现代远程教育网络培训为主要渠道，采取科普讲座、技术交流会、远程点播或现场培训的形式对农村乡土人才进行培训。组织农村优秀乡土人才到外地考察学习，以开阔农村乡土人才视野，增长其见识。', '三是注重管理。管理上，侧重于组织、协调、引导，通过进一步健镇、村两级管理网络，形成以农业、畜牧、文化等站所管理为重点，以镇党委、村党支部为主抓落实的管理形式，形成工作合力；自我管理上，侧重于专业协会的组建，根据乡土人才从事专业类别的需要，分门别类组建专业协会，制定章程，明确乡土人才的权利和义务，通过定期开展活动，加强乡土人才相互之间的联系和交流，促使乡土人才自我管理机制的形成，使乡土人才由松散型向专业组织转变，提升管理水平。', '四是注重服务。积极提供技术指导、经费支持、优惠政策等，鼓励和支持乡土人才创业发展。主动深入基层了解乡土人才的思想动态、工作收入情况以及乡土人才遇到的实际困难，并尽可能提供帮助。制定领导干部联系乡土人才制度，将辖区内的种植、养殖、加工等有突出贡献的乡土人才作为联系对象，形成“１＋１”结对机制。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>155</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>临颍县陈庄乡组织全体村党支部书记到舞阳县源汇区参观学习先进村的经验做法</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2021-03-09</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articleb435774dfb52411fb449b9a0bb9d518f.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['临颍县陈庄乡组织全体村党支部书记到舞阳县、源汇区参观学习先进村的经验做法_漯河市人民政府', '为增强干部干事创业的自信心和紧迫感，加快推进我乡2021年微景观的打造以及农村人居环境整治和意识形态有关工作，3月4日，陈庄乡全体班子成员、部分机关干部和14个行政村党支部书记共25人赴舞阳县、源汇区等地，围绕美丽乡村建设、人居环境整治、意识形态等方面进行观摩学习。', '人赴舞阳县、源汇区等地，围绕美丽乡村建设、人居环境整治、意识形态等方面进行观摩学习。', '学习团上午来到舞阳县吴城镇东王村、北高村、后曹村实地参观了微景观的打造、幸福屋场建设、休闲广场建设，学习环境整治工作经验。', '下午来到源汇区问十乡曹店村、周庄村、宋庄村实地考察幸福屋场建设、乡村亮点工作。在问十乡观摩了他们打造的最美庭院、最美微景观及乡村振兴规划。', '学习团一路走、一路看，一边学习、一边讨论，进一步打开了视野，拓宽了思路。每到一处都会有当地干部介绍他们因地制宜的工作思路和工作方法及如何应对工作中的难题。后槽村支部书记说到“初期的工作都是不容易开展的，是要顶着重重压力做下去的，首先干部们要转变观念，其次是要老百姓转变观念”，让大家深有同感。', '学习团一路走、一路看，一边学习、一边讨论，进一步打开了视野，拓宽了思路。每到一处都会有当地干部介绍他们因地制宜的工作思路和工作方法及如何应对工作中的难题。后槽村支部书记说到', '本次考察学习主要以观摩找差距，以交流促提升。舞阳县和源汇区所辖区乡镇干净整洁的乡村、蓬勃发展的产业让学习团留下了深刻的印象，对照先进，大家都感受到了发展的压力和差距，增强了紧迫感、危机感和使命感。各行政村党支部书记们纷纷表示，在实地参观、听取介绍和互动提问中学到了有效举措和成功经验，心中对今后如何搞好本村的人居环境工作，如何打造具有自己本村特色的微景观有了更深刻的认识，有了更高的标准，回去后会对照先进、查找不足，借鉴经验、加压奋进。']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>155</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>舞阳县审计信息化促审计质量和效率双提升</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2014-07-10</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articlee897cc4c3906bcc7176273ee39b7cbbd.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['亲自抓，亲自管，多次研究部署落实信息化的建设、培训、应用等方面重点和难点问题。同时以身作则，带头', '系统实时查看审计项目实施情况、检查和指导具体审计工作。目前该局的业务和行政文书等内部文件全部都通过', '交互应用攻关小组，由计算机审计业务骨干组成技术班底，进行技术攻坚，研究解决计算机审计实践中遇到的难题。并采取', '三是组织外派，提升水平。该局多次选派技术骨干参加署、厅及市局组织的计算机审计培训，并多次组织一线审计人员到计算机审计应用技术过硬的地区进行考察学习，吸取多方面的知识和经验，一线审计人员的计算机审计应用水平得到明显提升。', '进行审查；对于被审计单位没有电子数据的，要把审计通知、审计方案、审计工作底稿等业务文书引入到']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>155</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>召陵区创业帮扶破解就业创业难题</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2015-11-11</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articled10a13c2c216cb7a5de08adaeddc178a.html</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['近日，召陵区人社局面对新形势下创业者存在的创业信心不足、融资难和政府帮扶资金有限等难题，积极探索新思路，三大举措扎实推进就业创业工作。今年以来，召陵区共扶持返乡青年成功创业21人，帮扶大学生实现创业127人。 一是为高校毕业生提供“一条龙”直通车便捷服务。为了给毕业生创业就业提供一站式、“一条龙”服务，区人社局在东城产业集聚区设立了专门的大学生创业就业服务窗口。窗口涵盖了创业政策咨询、创业贷款申请、就业创业登记证办理、创业培训申请、创业项目推介、职业介绍、人事代理服务、大学生就业创业法律咨询等功能，为高校毕业生创业就业搭建高速服务直通车。截止目前，该窗口已为毕业生办理人事代理、创业指导、咨询等业务千余人次，毕业生报到185人；开展大学生专场招聘会1场，提供岗位450个，帮助102名毕业生求职成功。 二是创业培训“三进”，扩大培训覆盖范围。开展了创业培训进社区、进农村、进园区“三进”活动，将创业培训班开进了园区、社区、农村，提供开业指导、政策咨询，讲授创业知识和技能。开展SYB培训班7期，培训学员230人。根据不同的培训对象开展有针对性的培训，分别为高校毕业生、返乡农民工、就业困难人员等量身制订培训项目和计划。 三是“一练二观三谈”，提高创业成功率。通过游戏模拟练习等方式，让参加培训的创业者感受真实的创业过程，分析存在的问题；组织学员到创业成功者的基地进行实地参观考察学习，组织5名召陵区优秀创业团队参加省项目推介会，培训老师给予现场指导，让学员学习成功经验；定期组织召开创业座谈会，共同讨论分析创业中遇到的问题，同时邀请优秀企业家和创业成功者进行现场答疑解惑，让学员互相借鉴，相互帮助，提高创业成功率。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>155</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>深度对接谋合作借梯登高促发展市长黄钫市委副书记贾宏宇等率队在长三角开展双招双推系列活动</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2023-12-11</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/zfxxgkpt/fdzdgknr/zfgz/zfgz/article9db88e57ea174950a4e80c7a38867fa7.html</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['深度对接谋合作 借梯登高促发展&lt;br&gt;市长黄钫、市委副书记贾宏宇等率队在长三角开展“双招双推”系列活动_漯河市人民政府', '深度对接谋合作 借梯登高促发展 市长黄钫、市委副书记贾宏宇等率队在长三角开展“双招双推”系列活动', '12月5日~8日，2023漯河长三角“双招双推”大会前后，市长黄钫、市委副书记贾宏宇等分别带队，在上海市密集拜访院士专家、知名企业，并深入闵行区、静安区考察，对接洽谈项目、学习先进经验、宣传推介漯河。周剑、荣之光参加相关活动。', '人才是第一资源，创新是第一动力。在本次长三角“双招双推”系列活动中，我市把高层次人才招引放在更加突出位置。12月5日上午，黄钫专程拜访中国科学院院士、中国科学院上海有机化学研究所先进氟氮材料重点实验室主任卿凤翎，就我市打造千亿级新材料产业集群征求意见和建议，围绕设立院士工作站、引进专家技术团队等深入探讨交流，并诚挚邀请院士团队适时来漯考察。卿凤翎详细了解我市新材料产业发展现状，对我市坚定不移推动产业转型升级的做法给予充分肯定，希望双方进一步增进互信了解，加强沟通交流，寻求更多合作机会。', '“我们相信，真诚最能打动人心，共赢合作最长久。”在上海期间，黄钫先后拜访了上好佳（中国）有限公司、上海福贝宠物用品有限公司、上海均和集团有限公司、优势资本上海总部、联东投资（集团）有限公司等多家知名企业。每到一处，黄钫都与企业高管深入座谈、坦诚交流，通过共同观看《今朝漯河》城市宣传片等形式推介漯河，探讨合作的切入点和项目落地的可能性，并盛情邀约相关企业负责人到漯参观考察、发现商机。他表示，漯河市委、市政府将不忘初心，始终如一为企业发展营造最优环境、提供一流服务，让广大企业家在漯投资放心、经营安心、创业舒心。相关企业负责人高度评价我市良好的投资环境、亲商安商的浓厚氛围和向上向好的发展态势，一致表示愿意与我市建立稳定联系、加强务实合作，共享发展机遇、实现互利共赢。', '学习先进找差距，借梯登高促发展。12月7日，黄钫带领各县区（功能区）党政负责同志、市直相关单位主要负责人，利用一整天时间，先后深入上海市闵行区、静安区考察学习。当天上午，黄钫到闵行区新时代城市建设者管理者之家、“大零号湾”科技创新策源功能区参观考察，学习闵行区在人才引进、保障性租赁住房建设、城市更新、创新型园区建设等方面的先进经验。下午，黄钫到静安区百佑佳食品贸易（上海）有限公司、三得利（中国）投资有限公司、银之蕨食品（上海）有限公司等企业参观考察，与企业高管深入座谈，希望双方加强沟通交流，探索合作路径，在实现优势互补、互利共赢的前提下，推动更多漯河产品提升品牌影响力、走向海外市场。', '又讯（记者 刘 丹）12月5日上午，市委副书记贾宏宇一行赴上海中通快运总部参观考察，出席召陵区与中通快运项目合作签约仪式，并与中通快运副总裁任玉兵等集团高管举行会谈。深入了解集团发展历程后，贾宏宇对集团强大的实力和蓬勃发展的活力给予高度评价，双方就加强多领域合作进行深入交流，达成积极共识。贾宏宇指出，现代物流是漯河三大优势主导产业之一，目前漯河正全力建设国家骨干冷链物流基地。中通快运近年来发展迅猛，他希望以本次签约为契机，进一步加强交流，拓宽合作空间，实现互利互惠、共赢发展。漯河市委、市政府将秉持“无事不扰、随叫随到、服务周到”的理念，围绕企业诉求积极整合资源，为企业在漯投资兴业提供全方位的服务和支持。', '俊城达网络科技集团有限公司是全国同城即时配送及相关行业生态服务龙头企业，业务覆盖东北、华北、华东、华南和华中区域的近百座城市。12月6日上午，贾宏宇一行到俊城达网络科技集团有限公司考察，并与公司董事长刘孝臣等高管座谈。贾宏宇简要介绍了漯河市情和发展优势，指出漯河文化底蕴深厚，食品产业特色鲜明、链条完善，交通区位优越，目前正按照市委八届四次全体（扩大）会议提出的“文化点亮城市、产业彰显特色、创新引领未来”发展理念，大力实施现代化食品名城、创新之城、幸福之城建设。他表示我市将把企业的信任变成更好服务企业成长的动力，安排专人专班跟踪负责，全力以赴加快推进企业在漯“一厂四中心”项目建设。刘孝臣表示，漯河营商环境优越，企业对在漯投资充满信心，愿意深化与漯河的合作，为漯河经济社会高质量发展作出贡献。', '又讯（记者 刘 丹）12月6日，副市长周剑带队到上海万纬冷链物流有限公司参观考察，就推动项目合作事宜与该公司高管进行深入洽谈。周剑表示，漯河的产业发展优势和交通区位优势与企业发展高度契合，双方合作前景广阔、潜力无限。希望双方进一步增进互信了解，推动务实合作、实现互利共赢。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>155</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>我市大众创业万众创新重大专题研究初见成效</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2016-09-21</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/bmdt/article90f8ae66cdb9aa6f8438f27b0ed6697a.html</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['今年年初，市委、市政府把推进大众创业万众创新（以下简称“双创”）确定为全市经济社会发展重大专题后，市人社局联合发改、工信、科技、工商等部门及时制定工作方案，围绕”双创”工作中的重点和难点，内搞调研、外出考察，加强研究探索，推动了工作创新发展。', '形成了一批研究成果。市场主体发展情况是”双创”工作的“晴雨表”，也是专题研究的突破口。市工商局围绕市场主体增速、注册资本增速、市场主体结构、产业布局结构等内容，进行全面调查，详尽分析，形成了《2016年上半年漯河市市场主体发展分析报告》。发改、科技、工信等部门也在研究制定《漯河市引进创新创业人才团队资助管理暂行办法》、《关于加快创新驱动发展的实施办法》，形成了初步意见。人社局依据职责，组织人员到山东青岛、潍坊、泰安等地考察学习，吸收借鉴先进经验，撰写了关于山东创业大学的考察报告，提出了建立漯河创业大学的设想。', '完善了相关配套政策。依据《漯河市人民政府关于推进大众创业万众创新的意见》（漯政〔2015〕25号），在调查研究基础上，今年以来,市人社局会同财政、教育等部门，相继研究制定出台了《漯河市市级创业引导资金管理使用办法》、《漯河市市级创业孵化基地认定和管理办法》、《关于做好大中专学生创业（开业）补贴发放工作的通知》、《关于启动实施技能大师工作室项目的通知》等一系列操作性强的配套政策，解决好政策落实“最后一公里”问题。', '取得了一些工作成绩。及时把研究成果转化为工作成果。落实了1000万创业引导资金，将”双创”工作列入了市政府2016年目标考核体系，建立了齐抓共管的工作机制。指导漯河高新技术创业服务中心改造升级成为省级示范性创业孵化基地。在漯河职院、漯河医专、漯河技师学院均建立了大学生创新创业孵化基地。公布各部门权力清单和责任清单，持续优化政务环境。深化商事制度改革，落实先照后证、三证合一等改革措施，降低市场准入门槛。截止8月底，全市新登记市场主体13778户，增速18.99%，高于全省平均水平。企业增速居全省第四位。全市市场主体数量达到8.6万个。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>155</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>全市领导出席市政府外出考察组考察情况汇报专题会议</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2016-12-20</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/zfxxgkpt/fdzdgknr/zfgz/zfhy/articlec50ee64433845bc74a9c81c3a5c35185.html</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['为深入谋划明年工作，市政府近期派出6个考察组，赴省内外进行考察学习。12月19日，市政府代理市长蒿慧杰专题听取各个考察组考察情况汇报。市委常委、常务副市长高喜东，市委常委、宣传部部长、副市长周新鹤，副市长栗社臣、刘国勤、张锦印等出席会议。', '蒿慧杰在总结讲话中对6个考察组的考察成果给予充分肯定。蒿慧杰指出，这次外出考察基本达到了“观风、取经、淘金”的预期目的。考察的各市虽然发展基础、资源禀赋、产业结构、发展阶段不尽相同，但都有值得我们学习和借鉴的地方，希望大家好好研究，消化吸收，充实到明年发展思路的谋划中，贯彻到明年经济工作的推进中。', '针对明年经济工作谋划，蒿慧杰强调了三点要求：一要明确谋划的依据。也就是要弄明白依据什么去谋划。总的讲，就是要围绕落实中央经济工作会议精神和省委贯彻要求来谋划，围绕市委重大决策部署、漯河经济社会发展需要和人民群众期盼来谋划，围绕学习借鉴外地先进经验和好的做法来谋划，确保我们的谋划既“顶天”又“立地”。二要突出谋划的重点。也就是要搞清楚谋划的着力点是什么。概括讲，就是市七次党代会确定的“全面深化六项重大攻坚，持续推进‘一区两城一中心’建设”。具体讲是八个方面，即以提升竞争力为目标，推进产业转型升级；以人的城镇化为核心，加快新型城镇化进程；以绿色发展为方向，加大生态建设和环境保护力度；以保障和改善民生为重点，加强社会建设；以科技创新为重点，促进创新驱动发展；以增强动力、活力为目的，深化重要领域和关键环节改革；以更深层次、更高水平为着力点，扩大双向开放；以整治项目建设环境为突破口，优化发展环境。三是确保谋划的效果。也就是谋划一定要有实招，能够操作；一定要有新招，能解决新问题；一定要有抓手，能落到地上。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>155</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>市政府代理市长蒿慧杰等市领导出席市政府外出考察组考察情况汇报专题会议</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2016-12-20</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/zwyw/article81f0c1a842e54d21877e9b82156780fc.html</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['市政府代理市长蒿慧杰等市领导出席市政府外出考察组考察情况汇报专题会议_漯河市人民政府', '为深入谋划明年工作，市政府近期派出6个考察组，赴省内外进行考察学习。12月19日，市政府代理市长蒿慧杰专题听取各个考察组考察情况汇报。市委常委、常务副市长高喜东，市委常委、宣传部部长、副市长周新鹤，副市长栗社臣、刘国勤、张锦印等出席会议。', '蒿慧杰在总结讲话中对6个考察组的考察成果给予充分肯定。蒿慧杰指出，这次外出考察基本达到了“观风、取经、淘金”的预期目的。考察的各市虽然发展基础、资源禀赋、产业结构、发展阶段不尽相同，但都有值得我们学习和借鉴的地方，希望大家好好研究，消化吸收，充实到明年发展思路的谋划中，贯彻到明年经济工作的推进中。', '针对明年经济工作谋划，蒿慧杰强调了三点要求：一要明确谋划的依据。也就是要弄明白依据什么去谋划。总的讲，就是要围绕落实中央经济工作会议精神和省委贯彻要求来谋划，围绕市委重大决策部署、漯河经济社会发展需要和人民群众期盼来谋划，围绕学习借鉴外地先进经验和好的做法来谋划，确保我们的谋划既“顶天”又“立地”。二要突出谋划的重点。也就是要搞清楚谋划的着力点是什么。概括讲，就是市七次党代会确定的“全面深化六项重大攻坚，持续推进‘一区两城一中心’建设”。具体讲是八个方面，即以提升竞争力为目标，推进产业转型升级；以人的城镇化为核心，加快新型城镇化进程；以绿色发展为方向，加大生态建设和环境保护力度；以保障和改善民生为重点，加强社会建设；以科技创新为重点，促进创新驱动发展；以增强动力、活力为目的，深化重要领域和关键环节改革；以更深层次、更高水平为着力点，扩大双向开放；以整治项目建设环境为突破口，优化发展环境。三是确保谋划的效果。也就是谋划一定要有实招，能够操作；一定要有新招，能解决新问题；一定要有抓手，能落到地上。']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>155</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>市长刘尚进主持召开市政府党组扩大会议</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2020-11-26</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/zyhd/article81f1144e1110694b7bb8547f0540e8be.html</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['11月25日，市长刘尚进主持召开市政府党组（扩大）会议，学习贯彻习近平总书记近期重要讲话精神和国务院有关会议精神，传达河南省党政代表团长三角考察活动情况。', '会议指出，中央全面依法治国工作会议首次提出了习近平法治思想，对当前和今后一个时期推进全面依法治国提出了11个方面的要求。我们要立足把握新发展阶段、贯彻新发展理念、构建新发展格局，加快推进法治漯河建设。习近平总书记视察江苏、主持召开全面推动长江经济带发展座谈会和在浦东开发开放30周年庆祝大会上的重要讲话，不仅是对江苏和长三角的重要要求，也是我市做好相关工作的重要遵循。我们要认真学习长江经济带发展的经验做法，以改革创新添活力，以绿色转型增动力，尤其要树立创新的核心地位，完善提升研发创新、检验检测、质量提升、标准化体系、食品云等平台，深化与高校、院所等优势食品研发机构的合作，完善落实招才引智政策，着力培育创新生态圈。', '会议传达了河南省党政代表团赴长三角学习考察和我市与沪苏浙合作项目签约及重点招商项目情况，分析了我市同沪苏浙在思想观念和发展理念、创新驱动、改革的系统集成、对外开放、城市治理等方面存在的短板不足，指出这次考察学习既是一次解放思想、革新理念之旅，也是一次对标找差距、比学赶超之行，受到了一次深刻的砥砺初心使命、践行新发展理念、改革开放创新、务实重干作风教育。我们要注重解放思想，充分借鉴吸纳外地在用活政策、项目建设、人才引进、管理创新等方面的好经验好做法，加快推进制度创新、管理创新、方法创新。要注重对标对表，在践行“两山”理论、产业培育、专业园区打造、城市治理等方面，高标准推进，高标准建设。要注重融合转化，把转化成果体现在对发展战略的谋划上、体现在重大战略的实施上、体现在对战略重点的把握上、体现在对“十四五”期间重点工作的推进上。要注重作风建设，强化“今天再晚也是早，明天再早也是晚”的理念，增强拼、抢、夺的“狼性”意识，确保干一件成一件，不达目的不罢休。']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>155</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>市委常委舞阳县委书记李亦博主持召开县委届次常委会议</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2015-06-30</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article377dcc50a5059d0a4bceaf39e3ec62c6.html</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['次常委会议。宋耀生、张书民、翟建鹏、赵明、王耀生、李俊伟、刘剑、李新奎参加会议，县人大常委会主任王玉亭列席会议。', '会上，传达学习了马正跃书记来舞调研“三严三实”时的讲话精神，听取了舞阳县“七一”有关工作安排和全县扶贫开发攻坚动员暨上半年工作讲评会筹备情况，研究了《贯彻落实县级以上机关四项基础制度的实施意见》，对舞阳县电子商务发展工作进行了安排部署。', '就学习贯彻马书记讲话精神，会议要求：一是抓紧对学习贯彻进行安排。要以文件形式下发通知，在全县各乡镇各部门中开展深入学习；“三严三实”领导小组要在各相关会议中及时传达学习；要把各乡镇各单位学习贯彻情况纳入督导范围。二是工作安排要体现马书记讲话精神。要采取措施，强化科级干部对专题教育的认识，避免专题教育开展中的“两个倾向”，增强自觉性；要强化问题导向，结合自身，查找不足，以专题教育的开展为契机，解决作风等方面存在的问题，促进经济社会健康发展；要强化从严要求，狠抓落实，确保实效。三是与经济社会发展相融合相促进。要通过专题教育，解决“不严不实”的问题，对上半年工作回顾总结，做好下半年工作，确保完成全年建设任务。', '就“七一”表彰和全县扶贫开发攻坚动员暨上半年讲评会，会议指出：要抓紧筹备，精心组织，对工作的总结要实事求是，对表彰的对象要精心筛选，确保会议达到预期效果。', '就贯彻落实县级以上机关四项基础制度，会议强调：一是思想上要高度重视。要通过县级以上机关四项基础制度的实施实现机关运转的规范化、科学化，营造良好的政治生态。二是措施上要再细化。意见出台后，各牵头部门要制定实施细则或工作安排台账，细化目标任务，真正贯彻落实。三是推进上要抓紧安排。要严格按照意见要求，抓紧开展各项工作，务求工作实效。四是保障上要再加强。要明晰责任，注重督导，强化宣传，对制度推进情况定期总结，对实施过程中发现的不完善、不适应的制度规定，及时进行修改完善。', '就电子商务发展工作，会议指出：一是发展电商尤其农村电商是有意义的事。目前，舞阳县已经具备了发展电商的前提和基础，发展农村电商是一个很好的突破口，方向准，路子对，对于改善舞阳县产业结构、培育新的经济增长点、解放干群思想具有重要而深远的战略意义。二是发展电商尤其农村电商必须精心谋划。要深入调研，了解发展电商的条件，群众对电商的需求，要外出考察学习，借鉴先进经验；要与阿里巴巴农村淘宝项目搞好洽谈对接，实现双方共赢；要研究运用好上级政策，结合舞阳县实际，积极争取相关支持。三是发展电商尤其农村电商必须有总体安排。要抓紧抽调人员成立相关组织，具体负责指导全县的电商发展；要制定出台加快电商发展的意见以及扶持政策；要把电商发展情况纳入全县考核体系；要明确电商发展责任领导、责任单位、完成时限，抓紧抓实，抓出成效。']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>155</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>舞阳县发改工信委采取五项措施强化年轻干部培育工作</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2015-06-24</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article78c401535d63ad23fe6b3c26ecb8fbb3.html</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['周岁以下的年轻机关干部，通过工作实践锻炼和委内考核考评，择优选拔成长性强、素质高、有潜质的年轻人为重点培育的苗子，建立培育动态写实档案、党委考核考评写实档案，委党委安排专人传、帮、带，落实专人负责此项工作，确保苗子土肥、水足，茁壮成长。', '定调子。即对选定的培育苗子，根据个人的业务专长、素质能力、委内工作需要等，确定既能充分发挥个人业务专长、又能人尽其才、最大限度地展现能力素质的合适岗位，按综合素质立标，按专业特长定位，按能力水平安岗。按综合、工业、农业、社会事业、服务业、项目稽察等具体岗位，相对定岗、定向，确定综合型人才、专业人才的培育方向和基调，使好苗子岗定心安，向明路宽。', '压担子。通过专人传帮带和工作实践锻炼，通过实绩考核，赛场选良骢，压担子委以重任，促担当加压历炼，急难险重工作锤炼，使其淬火提纯、成钢成才，成为发改工信工作的中坚和栋梁。', '铺路子。以委内学习培训为基础，积极为年轻干部创造和提供委培学习、省市培训、业务专训、上级点训、干部轮训、外出考察学习等机会和平台，委党委出台了鼓励机关干部学习相关业务知识、提升知识能力，为年轻干部成长进步铺好学习之路、能力提升之路、成长成才之路。', '搭梯子。积极为年轻干部成长成才拓展发展空间、搭建成才平台。采取到省市发改委挂职学习锻炼、委内各股室轮岗学习锻炼、领衔某项重点工作负重锻炼、参与全委全局性工作合成锻炼等举措，锤炼淬火，增长才干，提升能力素质。', '正确的用人导向、良好的成长空间、和谐向上的成才氛围，使年轻干部想干事有平台、会干事有位子、干成事得重用。使干部选用机制起到了']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>155</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>临颍县民政局精准发力推动残疾人康养服务工作高质量发展</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2023-11-10</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articleccc78141eb7b45b481d855a705a11f25.html</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['为进一步落实完善农村重度残疾人照护服务工作和精神障碍社区康复工作顺利实施，建立健全临颍县残疾人关爱服务体系和设施，推动农村重度残疾人照护服务和精神障碍社区康复服务与乡村振兴有效衔接和融合发展，改善残疾人生活状况，减轻残疾人家庭负担，县民政局精准发力，积极采取措施，推动残疾人关爱服务工作扎实开展。', '二是推进精神障碍社区康复服务工作扎实开展。为促进全县居家的精神障碍患者早日融入社会，县民政局依托颍川护理院建立了精神障碍社区康复服务示范点，即颍川社区“心康驿站”，为确保项目科学实施，在考察学习平顶山、新乡和三门峡外地市示范点建设的经验基础上，聘请第三方公司制定了示范点建设实施方案，设立了手工制作室、心理治疗室、智能宣泄室等7个功能室。先后投入27万余元购买了康复器材和办公用品，为确保示范点建设好后能切实发挥作用，县民政局对示范点机构的精神科医师、康复师、护士、社工和志愿者开展岗前业务培训，确保工作人员熟悉服务内容和工作流程，更快进入工作角色。9月底示范点建好后，临颍县“心康驿站”工作人员根据精神类持证人员的分布居住情况进行入户排查，并建立评估服务档案，截至目前，临颍县“心康驿站”为居家精神障碍患者提供社区康复服务70余人次，得到了精神障碍患者家属及社会的认可，切实把这项民生实事办好，好事办实，推动临颍县残疾人康养服务工作的高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>155</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>源汇区召开创建文明城市工作推进会</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2017-05-23</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article2f93a943c9508ec5c5a0872c21ba413b.html</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['5月23日上午，源汇区召开创建文明城市工作推进会，学习贯彻全市创建全国文明城市攻坚动员会议精神，安排部署全区创建文明城市工作重要任务。区委书记徐汇川，区长王凯杰，区委常委、办公室主任赵宏宇，区委常委、统战部长郭平宇，区人大常委会副主任车全安，区政协副主席董国亮，副县级干部黄建伟，以及创建文明城市工作指挥部成员单位和相关乡镇办主要负责同志参加会议。 会上，区委书记徐汇川主持会议，从清醒认识、迅速行动、紧盯目标、加大调度、全力冲刺、决战决胜六个方面，对做好“创文”工作提出具体要求。区长王凯杰传达了全市创建全国文明城市攻坚动员会议精神，指出了全区“创文”工作要重点关注的几个方面。区委常委、统战部长郭平宇对当前“创文”工作进行安排部署。 区委书记徐汇川指出，创建全国文明城市是提升城市建设管理水平和形象品位的重要内容，是提高全市文明程度、增进群众幸福感和获得感的重要举措，事关民生、事关全局、事关长远，经过三年的努力，已经进入了最后关键时刻，各级各部门要发扬“创卫”工作中好的经验做法，一鼓作气，持续发力，全力以赴抓好创建工作，确保如期实现创建目标。一要清醒认识。近段时期，市委、市政府多次召开专题会议，安排部署“创文”工作，马正跃书记还专门带领相关部门和县区赴驻马店市进行考察学习，这充分说明对“创文”工作的重视程度。源汇区相关部门一定要提高思想认识，认清当前形势，克服厌战情绪，全力推进“创文”工作。二要迅速行动。现在距全国测评仅有两个月时间，各单位要迅速行动，加强软硬件设施建设，营造“创文”工作浓厚氛围，同时，结合全市“创文”工作活动安排，谋划好全区各项活动，真正把贯彻会议精神变成实际行动。三要紧盯标准。源汇区作为全市的主城区、老城区，承担的任务更多更重更大，全区上下要按照全市“创文”指导手册要求，紧盯标准，规范提升各个环节，创出源汇特色；“创文”工作指挥部要制定工作台账，细化各项任务，加快推进工作，向市委、市政府和广大人民群众交上满意的答卷。四要加大调度。各分包办事处县级领导要积极参与“创文”工作，明确工作任务，经常深入到工作一线，做好帮扶指导工作。“创文”工作指挥部每周要定期召开工作调度会，及时分析研判解决工作推进中遇到的困难问题，并调度全区各类资源，投入到“创文”工作当中。五要全力冲刺。要牢固树立全区“一盘棋”思想，各分包社区单位、各文明单位，要充分发挥“主题党日”、志愿者服务等活动优势，把力量下沉到基层，开展各类创建活动；各相关职能部门要全力做好校园周边排查、清扫保洁、主题广场建设等工作，进一步提升工作标准，达到“创文”工作要求。六要决战决胜。全区各级党员干部要以决战决胜的工作态度，快速行动、严格标准、压实责任，保质保量完成好“创文”工作任务，不能因为源汇区工作不到位，影响到全市“创文”工作大局。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>155</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>李亦博带队考察舞阳县生态水系建设和乡村振兴工作</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2018-12-24</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articlefc8c46f729a2a6c14a0c6ddff4e7ff73.html</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['12月17日-18日，市委常委、舞阳县委书记李亦博带领县财政、水利等部门负责人，赴淮委中水淮河规划设计研究有限公司、合肥市水环境综合治理项目区、包河区大圩镇、凤阳县小岗村等地考察生态水系建设和乡村振兴工作。县委常委、县纪委书记、县监察委主任朱暑光，县委常委、办公室主任周俊伟，县政府副县长师艳芳一同考察。', '17日上午，在淮委中水淮河规划设计研究有限公司，李亦博与中水有限公司董事长周虹、副总经理马东亮、建筑景观设计院院长徐飚及相关设计人员进行座谈，听取舞阳县城区水系规划设计情况汇报，观看设计成果，与会人员对项目建议书和可研报告进行了分析研究。李亦博指出，生态水系建设既是打造宜居城市的生态工程，也是关系群众切身利益的民生工程，要结合舞阳实际，在充分征求群众意见基础上，强化与设计单位沟通对接，进一步完善城区生态水系建设范围、规模、融资渠道、景观设计等，确保规划科学，设计合理，有序推进，力争项目按计划分步实施，早日开工见效，进一步提升舞阳城市生态环境质量，进一步提高群众幸福感获得感。', '当天下午，李亦博一行在建筑景观设计院院长徐飚及相关设计人员陪同下，先后到安徽省合肥市塘西河综合治理项目区、合肥滨湖国家森林湿地公园，实地考察合肥市水环境综合治理情况，并就我县生态水系规划和澧河水环境综合治理项目进一步研讨交流。李亦博指出，合肥市生态水系建设的先进经验做法，有很多值得舞阳学习借鉴的地方，各相关部门要抱着对舞阳人民负责的态度，以百城建设提质工程为契机，高标准谋划好、实施好生态水系工程，为全县人民营造更加良好的生态环境。', '18日上午，李亦博一行到合肥市包河区大圩镇考察乡村振兴工作，实地参观考察大圩党建“聚合”工程引领乡村振兴发展、鲜来鲜得葡萄种植基地、“圩美磨滩”乡村振兴示范点。考察过程中，李亦博指出，大圩镇“圩美磨滩”等建设的成功模式为我们实施乡村振兴战略提供了有益借鉴，要紧密结合舞阳特色乡镇、美丽乡村建设实际，深度挖掘乡村特有的文化符号，寻找符合民族内核、具有生命力，符合新时代、新要求的内容，加以丰富和提升，形成具有乡村魅力、正能量充盈的乡村文化。合肥市包河区区委书记、市滨湖新区建设管委会主任、党工委书记葛锐，区委副书记徐生彬等陪同。', '当天下午，李亦博一行到中国农村改革发源地、中国农村改革第一村——凤阳县小岗村进行考察学习。先后到大包干纪念馆、当年农家及沈浩纪念馆参观，听取凤阳县及小岗村经济发展情况和“大包干”情况及沈浩精神介绍。李亦博指出，全县各级党员干部要以习近平新时代中国特色社会主义思想为指导，坚持中国特色社会主义乡村振兴道路，发扬小岗人“敢为人先”的精神和“沈浩精神”，不断探索，勇于创新，努力走在新时代乡村振兴前列，以实际行动贯彻落实好习近平总书记在庆祝改革开放40周年大会上的重要讲话精神。凤阳县县委书记徐广友，县委常委、办公室主任王胜勤陪同。']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>155</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>市委常委常务副市长高喜东等市领导出席市六届人大常委会第三十四次会议第二次全体会议</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2016-12-28</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/zwyw/article2dd5e66248fd4c4cbd04c5b53e595bc9.html</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['市委常委、常务副市长高喜东等市领导出席市六届人大常委会第三十四次会议第二次全体会议_漯河市人民政府', '市委常委、常务副市长高喜东等市领导出席市六届人大常委会第三十四次会议第二次全体会议', '12月27日上午，市六届人大常委会第三十四次会议第二次全体会议召开。市人大常委会主任雷建民主持并讲话。市人大常委会副主任陈平、杜广全、赵坤炎，秘书长李广科出席会议。市委常委、常务副市长高喜东，市人民检察院检察长陈连东列席会议。', '会议对市人民政府办理代表所提重点建议情况进行了满意度测评；表决通过了关于接受王惠辞去河南省第十二届人民代表大会代表职务请求的决定（草案）；表决通过了市人大常委会主任会议关于补选河南省第十二届人民代表大会代表的议案；表决通过了市人民政府关于调整2016年新增地方政府债券资金分配使用方案及2016年政府债务限额的议案；市人民政府关于贯彻落实《市人大常委会对市人民政府实施〈中华人民共和国执业医师法〉情况的审议意见》情况的报告未获通过。', '结合本次会议议题，雷建民提出了一些具体要求。关于地方立法工作，雷建民指出，我们在深入调查研究、外出考察学习、广泛征求意见的基础上，组织起草了《漯河市沙澧河风景区条例（草案）》，提交本次常委会进行了一审，常委会组成人员提出了一些具体的修改意见和建议。会后，市人大常委会法工委要切实负起责任，联合市人大常委会城环工委、市政府法制办等部门，对《漯河市沙澧河风景区条例（草案）》作进一步的修订完善，明年适时提请市人大常委会会议进行二审。同时，要从做好法规案的审议和修改工作、拓宽公众参与立法的渠道、加强各个层面的沟通协调三个方面着手，认真做好地方立法工作。关于“本级审”审计查出问题整改情况，雷建民给予充分肯定，并希望市政府及有关部门在今后的工作中，要充分发挥审计监督作用，科学安排审计项目计划，把全部政府性资金纳入审计范围，确保资金有效利用、政策严格落实。关于城市总体规划执行，雷建民强调，要严查各类“双违”建设，加大规划宣传教育力度，深入推进多规融合，确保各类专项规划与总体规划有机衔接，尽快形成功能齐全、目标明确、操作性强的城市规划体系。对市政府、市中级人民法院关于代表所提建议、批评和意见办理情况，雷建民也给予了充分肯定。关于地方政府债券资金的安排使用，雷建民强调，希望市政府和相关部门严格按照地方政府债券资金使用要求，进一步强化资金监管，不断完善资金使用管理、监督和审计等各项规章制度，确保债券资金及时投放、专款专用、尽早见效。', '关于2016年市人大常委会的工作，雷建民指出，2016年是本届人大履职的最后一年。一年来，市人大常委会在市委的正确领导下，深入学习贯彻党的十八大，十八届三中、四中、五中、六中全会和省十次党代会、市七次党代会精神，围绕中心，服务大局，依法履职，认真开展工作监督，大力实施法律监督，积极筹备地方立法，充分发挥代表作用，切实加强自身建设，各项工作都取得了长足进步，为促进全市经济社会健康持续发展和民主法治建设做出了积极贡献。', '雷建民强调，明年是换届之年，届时将选举产生新一届市人大常委会。希望大家一定要善始善终，认真总结本届以来好的经验和做法，为下届人大常委会工作提供借鉴和参考。同时，要提前思考、科学谋划明年的各项任务，为2017年人大工作开好头、起好步，为本届人大圆满收官做出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>155</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>我市就业工作成效显著</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2024-01-19</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/zdlyxxgkzl/jycy/jyzc/article8c0edb87b1de4b898bb512f475931520.html</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['2023年以来，漯河市紧盯省厅下达的就业创业目标任务，强化调度，扎实推进，成效显著，就业局势总体稳定。光明网、新华网、中国劳动保障报、河南日报、学习强国等省级以上媒体，20多次报道漯河就业工作做法。我市全力服务企业引才，创新“岗位+政策+美食”招才引智新模式，在南京理工大学专场活动中，获省人社厅丁同民厅长高度评价，漯河展位突出了现代化食品名城特点，很有特色。漯河人社部门指导经开区湘江社区，在五星支部宜业兴业星创建上创特色，高标准打造“家门口”就业服务站，“社区+园区”点亮宜业兴业星特色做法，入选河南省委组织部2023年编发的《城市社区“五星”支部创建案例选编》。', '在万人助万企方面，认真落实市委市政府关于“拼经济、抓项目，全面推进‘四个对接’”决策部署，全面落实人社惠企政策措施，聚焦用工对接，深入实施企业用工保障服务专项行动，全力保障企业用工需求，助推经济高质量发展。搭建供需对接平台，服务企业用工需求。2023年，累计举办招聘活动188 场，发布岗位20万余个，达成初步就业意向2.8万个，有力保障了用工需求。至目前，全市共开展各类职业技能培训12万人次，新增技能人才6.3万人；全市新增发放创业担保贷款5.99亿元，扶持各类市场主体1500余家，带动和吸纳就业8500余人。积极落实惠企政策，已为双汇、大象物流、三五一五等3181家企业发放失业保险稳岗补贴2637.06余万元。采取免审即享模式，为符合奖补条件的金大地、华电、曙光健士、中盐等100家企业，发放323.85万元奖补资金。特色做法先后被省委办公厅《工作交流》、省政府办公厅《工作快报》、省助企办《工作动态》多次刊发；3次在市委市政府重点工作月讲评中被表扬。', '在宜业兴业星创建方面，市宜业兴业工作专班，主动把创建工作融入到现代化漯河食品名城、创新之城、幸福之城建设中来，紧盯宜业兴业星创建目标，凝聚部门合力，扎实推进创建工作有序有力开展。至目前，全市59个“宜业兴业星”创建社区，没有出现辖区企业、商户投诉社区现象，53个社区设立了“零工驿站（暖心驿站）”，46个社区创成了市级以上充分就业社区，其中，10个“五星”社区为省级充分就业社区。一是通过开展观摩活动，对照先进，补齐短板，做到学有先进，赶有方向。二是举办帮扶青年就业专题活动，集中发布一批帮扶困难高校毕业生岗位，重点用于支持“宜业兴业星”创建社区、零工市场（驿站）基层就业服务平台等，逐步实现“宜业兴业星”创建社区全覆盖。三是统筹市县工作专班力量，对四星、五星创建社区进行常态化督导指导，帮助指导创星社区完善创建措施、巩固创星优势、突出创星亮点，确保顺利实现创星目标任务。', '在示范城市创建方面，4月初，漯河入选全国公共就业创业服务示范城市创建名单，市人社局高度重视，领会创建工作要求，全力投入示范城市创建中，对标5大体系扎实推进示范创建工作。积极向市政府汇报，迅速成立以主管市长为组长的示范城市创建工作领导小组。组织考察学习小组赴浙江宁波、江西吉安考察学习创建经验。成立示范城市创建工作领导小组，下设综合组、就业组、创业组，由县级干部牵头分包，同时抽调专人组建创建工作专班，充实创建工作力量。第一时间印发《漯河市创建全国公共就业创业服务示范城市实施方案》的通知，打好示范城市创建的“四梁八柱”。多次召开示范城市创建推进会、协调会等，对标服务体系等五大创建标准，强化组织领导，推出系列政策措施，全力推动，落地落实。把示范城市创建与特色就业创业活动、零工市场（驿站）建设运营、社区宜业兴业星创建有机融合，抓创建促工作。近期，组织开展漯河市“宜业兴业杯--我身边的就业故事”主题征文活动，累计收到征文稿件近100篇，选树就业典型23名，营造出浓厚创建氛围。', '（一）特色活动效果实。在特色招聘上求创新。在办好日常招聘的同时，举办“返漯高校毕业生招聘周”“人才夜市”“元宵灯廊招聘”“乡村集市招聘”等活动，让招聘活动充满“烟火气”。在助企服务上重实效。统筹市县力量，扎实开展“三包三联”活动，围绕用工保障、社保政策落实等重点任务，定期上门走访，宣传政策解决问题。如我们落实助企政策支持企业稳岗，帮助吸纳高校毕业生等重点群体就业的双汇、卫龙、利通液压等企业，享受扣减税费153.51万元，被漯河政务信息第35期刊发。2023年8月9日，漯河产业创业就业联动推动就业形势稳中向好，被新华网报道。在就业创业活动上重影响。强化大创业理念，联合退役军人、侨联、残联等部门，开展市级创业之星评选活动，评出2023年创业之星33名，举办新侨人士“创新创业之星”表彰活动，省侨联主席杨海强、市委副书记贾宏宇等领导，专程参加并颁奖，极大激发了来漯回漯创业热情。', '（二）基层就业服务优。把就业服务融入基层党建中。强化党建引领，将就业管理服务融入党建引领基层治理范畴。市人社局作为五星创建宜业兴业星的牵头部门，在争创中，靠前指导，注重服务，把就业平台建设、零工驿站作用发挥、招工求职信息匹配作为创建重点，培育出湘江社区、漓江社区、燕山社区等一批创建典型，打造15分钟就业服务圈，有效满足群众多样化就业需求。多举措持续提升基层服务能力。编印2023年以来省市就业政策汇编，举办高质量充分就业研讨班，采取以会代训等形式，举办就业见习、就业援助、就业统计等专题培训，结合就业创业领域专项整治、就业补助资金专项审计等，抓整改促规范，抓业务促提升，持续提升就业战线业务能力和服务水平。', '三是报道批示多。漯河开展的“宜业兴业杯--我身边的就业故事”主题征文活动，残疾人刘二召就业故事被学习强国报道。漯河创业项目在省赛国赛中表现优异，省贺信获秦书记肯定性批示。《漯河市优化“创业贷”服务促进高校毕业生创业》，被省政府办公厅第114期《政府工作快报》刊发，并得到黄市长的肯定性批示。漯河市就业创业工作特色做法先后被明网、新华网、中国劳动保障报等省级以上媒体20余次报道。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>155</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>漯河市三大林业产业带雏形初现</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2014-11-26</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/bmdt/article8291a5276b4a511ac96f9ae2871f3857.html</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['本报讯（记者熊勇力）发展特色林业产业是生态增绿、农民增收的有效途径。近年来，漯河市按照“生态建设产业化、产业发展规模化”的发展思路，采取规划引导、政策激励、项目扶持、招商引资等方法，将种苗花卉、经济林产业培育成了农民持续增收的新亮点，确定了围绕107国道、漯舞路、京珠高速公路两侧500米范围建设三大种苗花卉、经济林产业带的发展方向，有效提高了林产品的科技含量和附加值，促进了林业增效、林农增收。', '政策扶持，加快林业产业带建设。漯河市出台《漯河林业生态市建设奖补办法》，鼓励公司、个人发展用材林、苗木花卉、经济林基地，对境内沿107国道、漯舞路、京珠高速公路两侧500米以内连片种植的，市级财政每亩一次性补助500元；其他新建集中连片规模在100亩以上（含100亩）的，市级财政每亩一次性补助200元。各县区加大对林业的投入力度，出台了系列造林优惠扶持政策。临颍县把林业生态建设列入全县“七区同建”重点工作，明确提出优先发展沿107国道、京珠高速、许泌路、逍襄路、石窝路“三纵二横”花卉苗木观光带，着力扶持以石桥、固厢、台陈、皇帝庙、大郭、繁城、杜曲、窝城等乡镇为主体的花卉苗木基地，计划发展面积10万亩，打造河南中部知名苗木花卉产业基地县。源汇区加大本级财政对造林绿化的投入力度，印发了《源汇区林业生态建设奖补办法》，对辖区内107国道、330省道（漯舞路）及白马路、黄石路、坡大路等县乡道路两侧发展经济林、苗木花卉等特色经济带建设的，在市级财政补助的基础上，每亩再补助100元～300元。', '土地流转，促进林业产业带规模经营。漯河市把“明晰所有权，放活使用权，放开经营权，保障受益权”作为发展林业产业带的关键措施来抓，推行集体、农户林地承包、租赁、合作等经营模式，实现了土地集约化经营。同时，以各现代林业园区为载体，大力吸引外商在林果、苗木花卉种植及林产品加工等方面投资。两年来，漯河市先后引入中峰农业公司、景灏园林绿化公司、上海均和公司等二十多家企业，通过转包、入股、合作、租赁、互换等方式进行土地流转，带动近万户农民参与林业发展。', '科技服务，保障产业带健康发展。为进一步推动产业带建设，漯河市不定期组织市、县两级林业专业技术人员送科技下乡，开展技术服务，并多次组织林果乡土人才、造林大户等赴山东枣庄市、平度市等地，考察学习林果产业发展的先进经验。同时，连续成功举办了五届优质鲜桃鉴评会和采摘节，组织开展了晚秋黄梨、葡萄、无花果等优质果品鉴评会，引导群众科学养护、调整结构、提升效益。', '多策并举，特色林业产业发展步入快车道。近两年，全市新增葡萄、晚秋黄梨、油用牡丹，杜仲、玫瑰、设施容器苗等种植基地2万亩。其中，新增千亩以上基地9个，新增造林大户64个。培育了临颍县皇帝庙绿汇设施葡萄、石桥乡景灏花木，舞阳县国香玫瑰园、玫瑰红紫薇专业园，郾城区美锦林果园区，源汇区空冢郭众启果桑采摘园、华圃种植园等一批集生态观光、采摘休闲于一体的特色林果园区，107国道孟庙段、商桥段、皇帝庙段、固厢段、石桥段，漯舞路大刘段、吴城段等经济林、种苗花卉集中连片、规模发展的产业格局初步形成。', '在林业生态建设工作中，漯河市将持续推进三大林业产业带建设。通过政策扶持、土地流转、招商引资，培育专业合作组织等措施，重点在107国道、漯舞路、京珠高速公路两侧和城市近郊大力发展梨、桃、葡萄、玫瑰、油用牡丹、名优花木等特色产业。加快推进107国道源汇段、郾城段、临颍段苗木花卉产业带，漯舞路舞阳吴城段、文峰段、保和段，源汇问十段、大刘段经济林果产业带，京珠高速苗木花卉产业带建设。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>155</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>李亦博带队赴成都开展舞阳县招商活动</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2019-10-29</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/articleda12a6a2e497d3d454007efe38224a52.html</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['10月23日、25日，市委常委、舞阳县委书记李亦博带领县发改委、财政局、自然资源局、商务局、金融办、农业农村局有关负责人，赴西南化工研究设计院有限公司、成都泰格微波技术有限公司进行对接招商，到成都市高新区、四川川能智网实业有限公司、成都新经济发展委员会考察学习新经济发展工作。县委常委、办公室主任周俊伟，县政府副县长师艳芳陪同。', '23日上午，李亦博一行先后到西南化工研究设计院有限公司、成都泰格微波技术有限公司进行考察拜访、对接招商。西南化工研究设计院有限公司隶属中国化工集团，是集科研、技术开发、技术咨询与服务、产品生产和科技贸易为一体的原化工部直属重点技术开发型院所。在西南化工研究设计院有限公司，公司党委书记、总经理陈健主持召开座谈会，系统介绍了公司发展、科技研发、成果应用等有关情况。座谈会上，李亦博介绍了舞阳基本县情和盐及化工、医药化工产业发展优势。县发改、商务等有关部门负责人与该公司参会人员进行了现场对接和交流。陈健表示将到舞阳实地考察，进一步洽谈合作事宜。座谈结束后，李亦博一行实地参观考察了该公司工业排放综合气体利用国家重点实验室。李亦博指出，西南化工研究设计院有限公司长期从事天然气化工、工业排放气利用、节能环保、化工自动控制等领域的研究和成果转化应用，技术力量雄厚，产学研用水平国内领先，对舞阳延伸产业链条，加快盐及化工主导产业发展具有广阔的合作空间。李亦博要求，县发改、商务等有关部门要围绕我县盐及化工、医药化工产业发展，组织有关企业加强与西南化工研究设计院有限公司对接，进一步找准产业发展结合点，积极开展合作，努力招引一批链条式项目入驻舞阳，推动舞阳盐及化工和医药化工产业加快转型发展。', '23日下午，李亦博一行来到成都泰格微波技术有限公司，听取了公司有关情况介绍，双方人员进行了相互交流。', '25日上午，李亦博一行赴成都市高新区天府高新视窗新经济场景馆、极米科技有限公司考察新经济发展。在随后召开的座谈会上，成都市高新区管委会巡视员林涛介绍了高新区新经济发展现状，重点就培育新经济发展七大应用场景、六大经济形态、五大发展路径和四个发展特征作了详细阐述，双方部门负责人进行了深入对接交流。李亦博指出，成都高新区新经济产业的聚集发展和先进的园区管理模式、科技服务等经验值得我们学习。我们挂牌成立了县新经济发展局，要借鉴成都高新区的成功经验，结合舞阳实际，认真谋划我县新经济发展的机制办法。', '25日下午，李亦博一行先后到四川川能智网实业有限公司、成都新经济发展委员会考察学习。在座谈会上，成都市新经济发展委员会党组书记卢铁成结合成都市新经济发展实践，就制定新经济发展精准政策体系、构建多元应用场景、推动新技术新模式与城市发展需求有机链接等方面，进行了系统介绍。李亦博一行就新经济发展路径、推进举措、机制办法等进行详细询问了解。李亦博指出，新经济是推动县域经济高质量发展的重要引擎和有力举措。要认真总结考察成果，学习借鉴先进经验和好的做法，以更高的站位、更宽的视野，思考谋划新经济发展的思路举措，为舞阳经济高质量发展培育新动能。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>155</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>漯河市自然资源和规划局对市政协七届五次会议第号提案的答复</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2022-01-05</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/zfxxgkpt/fdzdgknr/zfgz/ytabl/article56be02a77e8933fee39070ffb8ae32d7.html</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['2019年以来，为促进国土空间合理利用和有效保护，落实高质量发展要求，做好国土空间规划顶层设计，实现“多规合一”，全面落实促进中部地区崛起、黄河流域生态保护和高质量发展等战略，围绕深入落实新时代漯河经济社会发展“四三二一”工作布局、根据省委省政府和市委市政府有关决策部署，我局有序开展了漯河市国土空间规划编制工作。', '按照“请进来、走出去”的工作方法，先后听取自然资源部庄少勤副部长对《编制指南》进行专题辅导报告及自然资源部国土空间规划专题推进会；', '考察学习规划编制先进经验做法，为我市国土空间规划的编制找经验、摸路子，并与省其他地市进行交流学习。', '在规划编制过程中，按照“政府组织、部门合作、专家领衔、公众参与、科学决策”的原则，把公众参与贯穿于国土空间规划编制全过程，兼听广纳，汇聚众智。', '多媒宣传，广泛参与。近两年来，我市国土空间规划编制工作通过微信公众号、网络、报刊、电视、微信等多种媒体渠道，开展了2万余份问卷调查，广泛征求市民意见和建议，注重乡村层级对接和走访，走进乡村，对全市乡村采用问卷调查、核查等方式摸清了农业、村庄等基础情况；注重与专家、学者和人大代表、政协委员等群众代表沟通，凝聚社会各界智慧力量，集思广益反复论证，形成共识，科学构建高效的国土空间规划体系，充分体现“我的城市，我做主”，共同编制漯河规划蓝图。二', '多媒宣传，广泛参与。近两年来，我市国土空间规划编制工作通过微信公众号、网络、报刊、电视、微信等多种媒体渠道，开展了', '民主决策，多方位咨询协商。先后多次向市委、市政府主要领导进行了汇报，市主要领导以规委会、市政府办公会等形式为漯河市国土空间规划把方向，捋路子。市人大组织相关部门和部分人大代表提出了着眼于我市未来发展的需求，围绕大项目、大工程谋划空间。市政协以月协商座谈会的形式，组织政协常委和政协委员就我市产业融合深度不够、综合交通体系不完善、历史文化特色不明显、蓝绿空间不足等问题提出了七个方面的专题报告。注重深入各县区（管委会）、各相关市直部门就国土空间规划的具体内容进行研究、对接、谋划近百次。结合我市2035发展愿景和十四五发展规划，提出了区域重大战略研究，编制各相关专项规划，形成专题报告，纳入我市国土空间规划，融入省级国土空间规划。', '民主决策，多方位咨询协商。先后多次向市委、市政府主要领导进行了汇报，市主要领导以规委会、市政府办公会等形式为漯河市国土空间规划把方向，捋路子。市人大组织相关部门和部分人大代表提出了着眼于我市未来发展的需求，围绕大项目、大工程谋划空间。市政协以月协商座谈会的形式，组织政协常委和政协委员就我市产业融合深度不够、综合交通体系不完善、历史文化特色不明显、蓝绿空间不足等问题提出了七个方面的专题报告。注重深入各县区（管委会）、各相关市直部门就国土空间规划的具体内容进行研究、对接、谋划近百次。结合我市', '坚持问题导向和目标导向，结合漯河本地实际，完成“双评估、双评价”及对漯河“人、水、地、产业、乡村、城镇”等要素为核心的十', '目前，我市生态保护红线划定方案已经省级专家论证会研究通过，并报自然资源部。此外，我们通过进行相关专题研究，摸清了我市一般耕地、基本农田底数以及城镇开发建设现状情况，按照集约节约土地、亩均税收优先的原则，对接“十四五”重点项目，进行了空间的优化布局，精准匹配土地要素，实现亩均效益最大化，基本形成了永久基本农田、城镇开发边界划定初步方案，将在下一阶段工作中充分征求各方意见，统筹进行深化完善。', '目前，我市生态保护红线划定方案已经省级专家论证会研究通过，并报自然资源部。此外，我们通过进行相关专题研究，摸清了我市一般耕地、基本农田底数以及城镇开发建设现状情况，按照集约节约土地、亩均税收优先的原则，对接', '按照“自下而上”和“自上而下”的国土空间规划编制具体要求，全国国土空间规划和省级国土空间规划正在加快推进。下一步，我局将认真吸纳您的意见建议，继续加强与上级主管部门的沟通对接，最大限度地为我市争取规划建设用地空间，划好控制三线，绘好一张蓝图，提升我市可持续发展能级，赢得未来高质量发展主动权。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>155</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>大招商快报</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2018-04-10</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/zsyz/tzdt/articled8f4830f0d64f530498ea5599844f23a.html</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['月22—23日，县委副书记杨智勇带队赴郑州拜访了天鉴碳材料总经理陈和平、厚德钻石科技有限公司董事长庞爱红、豫星华晶微钻有限公司副总经理孙志涛、华晶金刚石股份有限公司销售总监张凯，双方分别就到临颍投资建厂进行沟通洽谈。', '月26日，广州合摩计算机科技有限公司副董事长游光辉一行受邀来漯参观考察，县长赵丹负责接待，双方就投资相关事宜进行深入交流。', '月25日，县委副书记、县长张书民带队赴郑州拜访了河南畅洁管业科技有限公司总经理孙文，双方就来舞投资中高端塑料管材生产项目进行沟通洽谈。', '月23日，中国供销·北京中合万家电子商务有限公司董事长李金康、总经理赵剑一行四人受邀来漯参观考察，区委书记周新民负责会见，区领导李新伟、王建中、陈国军、楚建杰参加会见。双方就打造总投资50亿元的郾城区中合万家田园综合体项目举行签约仪式。', '月22日，周口东方神话旅游发展有限公司副总刘帅举一行四人受邀来漯参观考察，副区长于宏负责会见，双方就建设漯河东方神话文旅产业园项目相关事宜进行沟通洽谈。', '月24日，副区长吕峥带队赴邯郸市拜访了浙江颐高新经济科技发展有限公司区域发展总监付家俊，由区商务局局长徐俭峰、区商务局副局长朱伟民陪同，实地考察了颐高智能广场，双方关于在召建设智能广场项目相关事宜进行了沟通洽谈。', '月23—24日，上海大学现代物流研究中心主任、高级教授储雪俭；传化物流集团河南大区副总经理殷云刚受邀来漯参观考察，区党工委副书记王彦民负责接待，双方就围绕示范区临港产业园的产业规划、功能布局和漯河传化公路港项目建设有关事宜进行沟通洽谈。', '月25-26日，区党工委副书记王彦民带队赴北京拜访了神州长城集团会见集团董事局主席陈略、执行董事许策；东方园林集团会见集团副总裁王琼，双方分别就项目合作进行沟通洽谈。', '月23日，广西智超食品开发有限公司总经理吴志超一行受邀来漯河进行参观考察，区管委会副主任项丽负责接待，双方就项目合作进行沟通洽谈。', '月24日，漳州宏蓝食品有限公司董事长张天金一行受邀来漯河进行参观考察，区党工委书记吴玉培负责接待，双方就项目合作进行沟通洽谈。', '月26日，珠海碧海科技有限公司总经理廖波一行受邀来漯参观考察，区管委会副主任项丽负责接待，双方磋商合作细节，草拟投资协议。', '月28日，上海慧沣食品有限公司经理刘仁望一行受邀来漯参观考察，区管委会副主任项丽负责接待，双方就项目合作进行沟通洽谈。', '月24日，区党工委书记周剑带队赴鹤壁考察学习商务中心区及城市绿化建设情况，区党工委副书记、管委会主任荣之光与环境保护局、建设投资中心及财经与经济发展局有关负责人陪同。', '月26日，河南掌圣文化传播有限公司法人王黎光一行受邀来漯参观考察，区招商局长崔保华负责接待。双方就入驻我区办公进行了初步的沟通洽谈，该公司拟在我区投资呼叫外包服务项目。']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>155</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>漯河市三大林业产业带雏形初现</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2014-11-20</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/jrlh/article2c4f93e9ef1072a06a7a5b40e4b6b8bf.html</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['发展特色林业产业是生态增绿、农民增收的有效途径。近年来，我市按照“生态建设产业化、产业发展规模化”的发展思路，采取规划引导、政策激励、项目扶持、招商引资等方法，将种苗花卉、经济林产业培育成了农民持续增收的新亮点，确定了围绕107国道、漯舞路、京珠高速公路两侧500米范围建设三大种苗花卉、经济林产业带的发展方向，有效提高了林产品的科技含量和附加值，促进了林业增效、林农增收。', '政策扶持，加快林业产业带建设。我市出台《漯河林业生态市建设奖补办法》，鼓励公司、个人发展用材林、苗木花卉、经济林基地，对境内沿107国道、漯舞路、京珠高速公路两侧500米以内连片种植的，市级财政每亩一次性补助500元；其他新建集中连片规模在100亩以上（含100亩）的，市级财政每亩一次性补助200元。各县区加大对林业的投入力度，出台了系列造林优惠扶持政策。临颍县把林业生态建设列入全县“七区同建”重点工作，明确提出优先发展沿107国道、京珠高速、许泌路、逍襄路、石窝路“三纵二横”花卉苗木观光带，着力扶持以石桥、固厢、台陈、皇帝庙、大郭、繁城、杜曲、窝城等乡镇为主体的花卉苗木基地，计划发展面积10万亩，打造河南中部知名苗木花卉产业基地县。源汇区加大本级财政对造林绿化的投入力度，印发了《源汇区林业生态建设奖补办法》，对辖区内107国道、330省道（漯舞路）及白马路、黄石路、坡大路等县乡道路两侧发展经济林、苗木花卉等特色经济带建设的，在市级财政补助的基础上，每亩再补助100元～300元。', '土地流转，促进林业产业带规模经营。我市把“明晰所有权，放活使用权，放开经营权，保障受益权”作为发展林业产业带的关键措施来抓，推行集体、农户林地承包、租赁、合作等经营模式，实现了土地集约化经营。同时，以各现代林业园区为载体，大力吸引外商在林果、苗木花卉种植及林产品加工等方面投资。两年来，我市先后引入中峰农业公司、景灏园林绿化公司、上海均和公司等二十多家企业，通过转包、入股、合作、租赁、互换等方式进行土地流转，带动近万户农民参与林业发展。', '科技服务，保障产业带健康发展。为进一步推动产业带建设，我市不定期组织市、县两级林业专业技术人员送科技下乡，开展技术服务，并多次组织林果乡土人才、造林大户等赴山东枣庄市、平度市等地，考察学习林果产业发展的先进经验。同时，连续成功举办了五届优质鲜桃鉴评会和采摘节，组织开展了晚秋黄梨、葡萄、无花果等优质果品鉴评会，引导群众科学养护、调整结构、提升效益。', '多策并举，特色林业产业发展步入快车道。近两年，全市新增葡萄、晚秋黄梨、油用牡丹，杜仲、玫瑰、设施容器苗等种植基地2万亩。其中，新增千亩以上基地9个，新增造林大户64个。培育了临颍县皇帝庙绿汇设施葡萄、石桥乡景灏花木，舞阳县国香玫瑰园、玫瑰红紫薇专业园，郾城区美锦林果园区，源汇区空冢郭众启果桑采摘园、华圃种植园等一批集生态观光、采摘休闲于一体的特色林果园区，107国道孟庙段、商桥段、皇帝庙段、固厢段、石桥段，漯舞路大刘段、吴城段等经济林、种苗花卉集中连片、规模发展的产业格局初步形成。', '在林业生态建设工作中，我市将持续推进三大林业产业带建设。通过政策扶持、土地流转、招商引资，培育专业合作组织等措施，重点在107国道、漯舞路、京珠高速公路两侧和城市近郊大力发展梨、桃、葡萄、玫瑰、油用牡丹、名优花木等特色产业。加快推进107国道源汇段、郾城段、临颍段苗木花卉产业带，漯舞路舞阳吴城段、文峰段、保和段，源汇问十段、大刘段经济林果产业带，京珠高速苗木花卉产业带建设。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>155</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>市政务信息临颍县发展劳务经济促进农民增收成效明显</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2007-03-03</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article21528d19cc28c8abe87f800ed85a26e6.html</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['近年来,临颍县始终把发展劳务经济作为转移农村剩余劳动力、开辟农民增收新途径的头号工程来抓,采取“政府引导、培训先行、建立基地、订单定向”等多种形式,促进农村剩余劳动力转移向规模化、品牌化方向迈进,取得了明显成效。目前,全县在外务工经商人员总量达8.6万人,年劳务收入8.5亿元;就地转移农村劳动力9.5万人,年收入5.7亿元,农民人均劳务收入2390元,占农民人均纯收入的62%,劳务经济的快速发展已成为农民收入的重要渠道。主要做法是:', '一是搞好调查。该县印制了《临颍县劳动力资源调查表》、《临颍县外出务工经商人员调查表》6万余份,发放到各乡镇,按照姓名、性别、年龄、文化程度、技术特长、求职意向等内容,逐人进行登记造册,做到了村不漏户、户不漏人。在此基础上,对全县劳务经济的发展状况进行分析,找出了本县农村劳动力转移的特点和存在问题。二是外出学习。组织乡(镇)长和县直相关部门负责人到福建仙游、广东东莞等劳务经济繁荣地区进行考察学习,为大力发展劳务经济打下良好基础。三是完善体系。制定出台了《关于进一步加快推进劳务输出工作的实施意 见》、《劳务输出管理办法》和《劳务输出工作考核办法》等配套文件;调整充实了县劳务输出工作领导小组,组建了劳务输出局,全面加强对全县劳务经济工作的领导。各乡镇、行政村也成立了相应的组织机构,明确专人负责本辖区的劳务输出工作,形成了县、乡、村三级劳务输出组织网络。至目前,全县已组建劳务中介服务组织18家,发展劳务信息联络员363人。', '一是储备式培训。结合农村劳动力资源普查结果和市场用工需求,开展食品加工、微机操作等当前市场各类短缺专业的技能培训,储备劳动力资源。至2006年底,已对3100名农民工进行了6个专业的培训。二是联合式培训。协调临颍职高与深圳企业家联合会、深圳东方教育集团、深圳宝安职业技术学校签订了办学协议,有针对性的对未能升学的初、高中毕业生,按照各自专业需求,进行中短期职业技能培训。2006年已分三批把1520名学生送到深圳勤工俭学,务工锻炼。通过强化培训使全县的劳务输出实现了由“劳力型”、“体力型”向“智力型”、“技能型”转变,促进了劳务收入的有效增长。至2006年底,全县共完成职业技能培训1.87万人,引导性培训4.63万人次,受培训的外出务工农民月平均收入,比未接受培训的转移人员平均高出300多元。', '一是该县始终把建立劳务基地、培育品牌、提高劳务输出知名度作为重点工作来抓,在输出人员相对集中、转移工作基础较好的城市,设立劳务输出服务站,在输出劳务人员规模在1000人以上的重点市、县派驻联络员,为劳务人员提供跟踪服务,妥善处理农民工工作、生活中遇到的困难和问题。同时配合当地劳动部门协调解决劳务纠纷,做好农民工的维权服务。至目前,全县已建立劳务输出基地22个,其中输出人员规模在千人以上的重点基地达到8家。同时,注重劳务品牌的培育,已形成了颇具临颍特色的劳务输出体系和打工者群体。如临颍在深圳的吊车搬运群体,据不完全统计,有大小吊车300台,从业人员达2000多人,已在深圳创出了品牌,工人平均月工资1000--1500元,仅此一项该县农民工全年收入2000多万元。东南亚最大的东莞大岭山镇吉龙木材市场200多家商户中临颍商户就有52家,每年向大岭山当地政府部门缴纳费用千万元。', '一是该县将200名有影响力的优秀外出务工人员作为本县招商引资工作的义务宣传员和信息员,鼓励他们为家乡的劳务输出和招商引资服务。通过务工人员的情况介绍,累计发放招商资料近800多份,以劳务输出促进招商工作开展,取得了明显成效。如该县通过在广东中山务工人员提供的信息,促使广东侨光公司前来考察,并签订了投资7000万元的纺织项目,现已招收农民工850人,正在进行岗前培训,年内可吸收1500人就业。同时,该县积极号召在外务工创业有成的临颍籍人士回乡投资兴业,支持家乡经济发展,从而实现农村剩余劳动力的就地转移。如投资上亿元的新瑞化工项目总经理马新生,固定资产两千多万元的亮点食品有限公司总经理张丙中等,都是回乡创业人员。目前,全县回乡人员已创办企业200多家,使3万多名农村剩余劳动力实现了就地转移。']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>155</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>召陵区实施创新驱动战略激发工业经济发展新活力</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2019-12-20</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article2b64e6f99effe58af6dc5c37d7adfc7f.html</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['近年来，召陵区始终将创新驱动作为“工业强区”发展战略的重要抓手，以提升企业科技创新能力为核心，以培养引进创新引领型企业、人才、平台为重点，全力做大做强主导产业，改造提升传统产业，培育发展新兴产业，全区工业企业发展质量和效益得到提升，工业经济发展涌现新的活力。 培育创新发展主体 推动产业转型升级 谋划发展高技术产业，围绕电子信息、生物医药、装备制造等战略性新兴产业，积极抓好培育工作。新培育永安线路、艾农肥业2家成功申报为国家级高新技术企业，国家级高新技术企业达到9家；拟新增奥诚电力、展欣节能、正宇电气、博奥电气4家企业成为市级高新技术企业，市级高新技术企业有望达到15家；世林冶金、永光电力等4家企业被评为省级创新性试点企业，6家企业评为市级创新型试点企业；大力培育科技型中小企业，培育河南省“科技小巨人培育”企业2家，引导11家中小企业在科技部网站上成功备案。世林冶金、永光电力、亿博橡胶、源隆生物4家企业成为河南“专精特新”优质中小企业。 改造提升传统主导企业，引导企业加快淘汰落后生产设备，企业智能化、绿色化水平不断提高。际华3515成为全国第四批绿色制造（工厂）。银鸽生活纸产申报为河南省智能车间。亿博橡胶引进的意大利比尔玛脉冲试验机软管试验检测能力达到国内顶尖水平。永光电力完成了“机器人焊接”的设备升级，引进了国际领先亚洲一流的日本批量型干燥法镀锌工艺及设备。豪强科技首套工业应用电子直线加速器填补省内空白。红黄蓝电子引进了世界领先的LED全自动封装生产线，LED模组占据国内市场30％份额。 加强平台建设 提升企业科研创新能力 加强科研平台建设，提升企业科研水平，筛选了一批研发活动开展较好的企业，作为省、市工程技术研究中心重点培育对象。三五一五、永光电力等4家企业建成省级上工程技术研究中心，漯效王生物、源隆生物、永安线路等14家企业建成市工程技术研究中心。加强企业服务平台建设，yes!众创空间作为省级众创空间，有效引进创新型企业进场孵化，在技术转移、融资人才、市场推广等方面为企业提供服务。河南政检检测研究院、爱微迪医学检测平台、辐照钴60食品检测等第三方服务平台的建立，为召陵企业发展提供了强力的平台服务。 推动企业成果转化，引导企业纷瞄准市场、主动作为，通过新技术、新产品点燃企业新引擎。展欣节能科技首次将润滑油实现净化循环利用的效果，源隆生物低聚木糖属打入美国市场产品，漯效王叶面喷施产品开创绿色施肥新革命，科科生物省级研发成果荣获中国骨科70周年创新成果转化大奖，曼博睿新材料国内首次实现PVDF静电纺丝法纳米纤维膜生产工艺的工业化突破…… 提升服务水平 优化企业创新发展环境 优化企业政策发展环境，开展常态化“政策落实进企业”行动”，编印《召陵区惠企政策汇编》《召陵区科技创新政策汇编》，指导企业用好用活政策。积极争取上级先进制造业与科技创新政策资金，银鸽纸产、永光电力两家企业技改项目获得省级先进制造业发展专项奖补资金967万元，市级配套奖补资金453万，亿博科技通过两化融合管理体系标准评定，获得市级奖补资金30万元。3515、世林冶金、科莱堡洁具等6家企业成功申请市级科技创新券372.4万元。世林冶金研发项目申报成为市级重大科技创新专项，企业获得200万元科技创新专项经费，目前已下达100万元。 加强科技型人才队伍建设，积极组织企业经营管理人才、科技创新人才、科技型中小企业创新发展等各类培训班，提升企业创新发展能力。加强创新型、领军型创新创业团队培育，建成市级创新型科技团队3个。成功举办了4届“企业家大讲堂”，邀请市科技局、税务局领导对全区重点企业进行政策培训，指导企业项目认定、政策资金申报等内容，提升企业创新发展能力。今年8月份举办全区优秀企业经验管理人才和电商物流专业技术人才培训班，组织全区30家企业在浙江杭州、义乌等地考察学习，助力企业转型升级创新发展。']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>155</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>各县区突出重点抓整改促发展在全市第三批学习实践活动中</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2010-02-25</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article0b99309a1bd49fde5b90f168ff9062e3.html</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['在我市第三批学习实践活动整改落实阶段，全市各县区各单位抓住关键、突出重点，着力解决好影响科学发展的大事、制约科学发展的难事、阻碍科学发展的急事、关系民生改善的实事，取得了较好成效。', '“带头人才培训”培育农村发展主力。整合各类培训资源，对村干部进行定期轮训和分级培训，多方面提高村干部“双带致富”能力和政策水平，全县共举办村干部集中培训班8期，培训人员526人次，先后组织363名村干部外出考察学习。', '“定向人才培养”挖掘农村发展潜力。实施“三向培养”计划，即力争每年把100名党员培养成为致富能手，把100名致富能手培养成为党员，把100名党员中的致富能手培养成为具有带领致富能力的村干部，为农村经济发展进一步挖掘潜力。', '“技能人才培养”提升农村发展智力。通过开展“能工巧匠”、“民间工艺家”评比等活动，使一大批“田秀才”、“土专家”评上了职称；在建档备案、技能培训、经济扶持、政治关心等方面全面加强农村乡土人才培养工作。', '截止目前，全县累计培训乡土人才1.3万人次，有200多名各级各类乡土人才在村“两委”班子中担任“一把手”。', '全面加强村级组织规范化建设。严格按照有关规定下拨建设经费，为村级组织活动场所统一配备办公家具、党徽、国旗及活动场所各项规章制度版面，提升建设水平。', '大力推进民主管理示范村创建工作。选择28个村开展民主管理示范村创建工作，以运用“四议两公开”工作法修订村规民约为切入点，全面加强党领导的村民自治机制建设。', '扎实开展办实事送温暖活动。各参学单位主动深入基层、深入群众，积极开展帮扶困难企业、困难村、困难群众和困难党员的“四帮扶”活动。截止目前，全县各级党员领导干部已慰问看望贫困党员677人，发放慰问金、慰问品共计14万余元。', '建立健全党建工作长效机制。不断丰富完善党建一体化工程、干部素质提升工程、公开承诺制活动等党建工作机制，促进了党建工作的科学化、制度化、规范化。', '对照问题深入改。围绕“五个如何”（如何建立现代企业制度，如何培养创新型人才，如何引进技改项目，如何拓展销售市场，如何发挥党组织功能）下功夫，集思广益凝聚共识，明确思路力促整改。', '树立典型带动改。注重树立培养先进典型，通过实地参观学习、制作专题报道、召开经验交流会等多种形式，积极发挥其示范带动作用。共组织实地参观活动10余次，经验交流会5次。', '加强指导帮助改。积极发挥协调指导作用，帮助非公有制经济组织理清发展思路，制定整改方案，落实整改措施。共开展指导活动30余次，帮助企业协调解决难题20余件次，办实事好事120余件次。', '完善制度督促改。实行整改落实追踪和整改情况定期汇报制度，对进展不快、效果不好的进行督查通报。', '开展在职党员进社区活动。将全区3000多名在职党员全部纳入社区管理范围，成立了在职党员工作联络站，并根据行业特点、自身优势，设立政策宣传岗、环境卫生岗、义务助学岗等3大类10个服务岗位。', '开展“为党分忧、为民解难”活动。开展“六联一做一帮”便民服务活动，即：每名社区党员联系一个五保户、个体工商户、下岗失业工人、计划生育对象、流动儿童、军烈属，年内每人做五件实事，帮助建立一个文明户。共建立各种社区服务网点160多个，为居民群众解决实际问题1360件，帮贫扶困300余人次，安排下岗职工400多人。', '开展“廉政、法律、文明、文化”进社区活动。以“清风家园”、“清洁家园”等为主题，开展形式多样的创建活动，丰富社区居民群众的精神文化生活，提高社区居民的文明素质。目前，该区有1个社区达到国家级示范社区标准，5个社区达到省级示范社区标准，8个社区达到市级示范社区标准。', '召陵区 多项举措大力发展农村经济 积极引导外出创业。通过建立农民工工会组织、劳务输出工作站，引导群众外出务工。目前，常年外出务工人员达2万人，外出创业成功人士达120多人。', '扶持企业二次创业。通过协调资金、干部驻企帮扶等措施引导企业强化管理，调整产品结构，扩大企业规模，推动企业二次创业，实现农民就地转移就业。目前，已为15家企业，协调200万元创业资金。', '帮扶群众自主创业。鼓励广大群众充分发挥产业优势和技术优势进行创业。通过亲情回访、短信问候、发送贺卡等多种形式，引导外出务工有成者返乡创业。目前，全区创办企业实体人员达400余人，从业人员达2.3万人。', '发展专业经济组织。依托专业经济合作组织发展烟叶生产、扫帚加工、塑料制品等传统产业，建成了3个优质烟叶示范园区，规模化烟叶种植2000多亩，进行扫帚加工的农户100多户，塑料加工的农户80多户，从业人员达3000多人。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>155</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>解决好怎么看才知道怎么办市文旅文创指挥部外出学习考察纪行</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2023-12-26</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/bmdt/article4370498b7e3f4d589b84208798a482f1.html</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['解决好“怎么看” 才知道“怎么办”——市文旅文创指挥部外出学习考察纪行 _漯河市人民政府', '12月6日至12日，带着“文化点亮城市，产业彰显特色，创新引领未来”的美好愿景，结合对近期“七大文旅提升项目”和“十种新业态”推进实践的认知，市文旅文创融合战略指挥部（以下简称市文旅文创指挥部）考察组在市政协主席、市文旅文创指挥部指挥长王克俊，市委常委、市委宣传部部长、市文旅文创指挥部常务副指挥长马明超的带领下，开展为期七天、跨越四省（市）二十余个点位的考察学习。通过考察学习，大家在文旅文创融合发展理念上更加清晰坚定、战术方法上更加有底有招。大家一致认为：高质量发展我市文旅文创，首先要解决好“怎么看”的问题。只有实现思想认识上的突破，才能明晰“怎么办”的科学路径。深入思考问题，澄清模糊认识，方能谋划实施好全市文旅文创工作。', '全国上下发展文旅文创氛围空前浓厚，市场竞争激烈，人们需求多元，应该牢固树立什么样的发展理念？', '沈阳老百姓又爱又恨的兴隆大家庭，摇身一变成为国内首家工业文化主题文商旅综合体，一个商业新地标——盛京百货耸立在沈阳方城之中。当年的兴隆大家庭盛况空前：街头派送广告堪比精美杂志，72小时不夜城圣诞大狂欢，创造年销售额30亿元的奇迹。因房地产等商业项目的拖累，它最终成为尘归尘、土归土的昙花一现。', '2022年，沈阳国有全资百货集团——盛京资产集团接手该项目，对其全方位改造。植入沈阳工业文化元素后的商业特色街区让人仿佛穿越到上世纪六七十年代的沈阳。深厚文化底蕴与崭新商业业态结合，绽放出无限魅力。人们找回心中老沈阳的同时，陡生对这座伟大城市的敬畏之情。如今，沈阳工业文化主题街区号称“共和国工业文化第一街”，已成为网红打卡地。', '启迪与思考：旅游资源少而寡、薄而弱，难以有所作为的认知看来是个“谬论”。找准定位彰显特色发展、守正创新突破自我创造才是关键。贾湖文化、许慎文化、商埠文化、食品文化是漯河的特色文化资源。要通过对这四大本土文化的寻根探源、梳理挖掘，创新表达方式，适应新时代需求，赓续历史文脉，坚定文化自信，彰显担当作为。', '“这里街上的大红灯笼看着真喜气，纷繁不显杂乱，红红彤彤的，让人想起千里之外的家乡。”', '“这座椅很别致，仿生钢材座面不沾水，上下通透便于雨水流走，雨天就座都不成问题。”市文联主席陈向丽招呼大家：“这些座椅不光实用，还与周边花草、设施、地面完美融为一体。”', '“终于找到变化这么大的原因了。”市沙澧河建保中心副主任张乐看着手机说：“2023年3月1日，沈阳古城启动34个基础设施类项目。围绕‘两年示范样板、四年基本建成、八年全面复兴’目标，完善提升古城井字格局，呈现古香古色街巷肌理。四个月内将陆续启动其他21个项目，按时完成创建国家5A级景区硬件建设任务。”', '启迪与思考：古城改造既要尊重历史事实，又要考量现代审美要求，高质量的美学引领不可忽视。', '不管是结伴远来的客人，还是当地故交好友相聚，大家总会到“中央里”古街区逛一逛。这条全国网红街曾是普通街巷而已，当地老百姓连“中央里”的称谓都不熟悉。', '古街区负责人说：“该条小街巷被打造成为体验盛京满族民俗文化体验中心、沈阳餐饮美食品鉴中心、文商旅融合示范中心，是配合打造全国高品位步行街——中街发展战略的一个点。依据历史文化，我们先后实施了芝兰台、邓公井、大世面等项目，更好地凸显了特色魅力。”', '为确保街区“特色”永固，管理方实行严格的淘汰机制：哪个美食项目连续一段时间内销售倒数，将被运营公司淘汰出局。倒逼商家自寻压力，用心做细创新，用情做精创优。', '启迪与思考：为了“特色”永不褪色，管理看似无情却有情。打造特色和专业团队严格管理，两手都要抓，两手都要硬，不可偏废。', '“沈阳古城的每一条路、每一栋建筑、每一家当铺、每一个标牌、每一盏路灯、每一片绿植、每一处座椅都是用情用心建造的。”市文广旅局赵宏亮说出了一连串的“每一”。', '“真是这样的，工业文化商业街区的打造匠心频现，支援全国三线建设的历史展陈，一下子拉近了游客与沈阳的距离。我已被这座城市的博大胸怀、炽热情怀所感染。我一定要带上家人朋友来这里走一走、看一看！”来自市商务局的陈少华动情地说。', '启迪与思考：想要征服游客，创意设计和建造都必须精益求精，半点不可糊弄。道边石拐角处，座椅边角棱，凡人之所及，都要做到“逢角必圆”。追求极致效果，打造传世文旅文创场景，人民群众才能真正心向往之。', '打开手机搜索“安吉古城”，信息如潮而来：杭州到安吉古城最快的道路；安吉古城酒店订房；安吉古城最近有活动开展……', '不就是一个古城遗址吗？有什么看头儿、玩头儿？不至于这么多人关注吧！带着疑惑，大家踏上了考察学习之旅。', '“这个遗址博物馆好有科技感！置身复原场景，沉浸体验，有种不知今夕是何年的感觉……”', '“这么大的茶园，谁来管理？土地是什么性质的？怎么流转租赁？文创产品商店谁来经营？……一连串的问题让负责讲解的小王应接不暇。', '“政府主导推动实施，整合利用资源，在项目建设开发之初就把文旅元素融合进去，由专业公司建设运营管理。”讲解员小王一通话让大家的思考有了着力点。', '我们仿佛看到，碧空朗日下，古越将领和士兵骑着高头大马，穿梭在松林之中，激战正酣。眼前的景象让考察组成员驻足凝思，对于如何发挥作用，心中的答案渐渐清晰。', '启迪与思考：政府扮演着剧本“创作员”和节目“剪辑员”角色，有效整合建设资源和力量，兼顾文保、市场和居民三方，更好地保护文化资源、老百姓利益和市场营商环境。', '“我们良渚遗址公园能有今天，要感谢考古专家王宁远先生。他带领团队日夜奋战，最终实现了良渚古城遗址在第43届世界遗产委员会会议上获准列入世界遗产名录。”', '“考古水利专家、中国社会科学院刘建国带领团队，利用地理信息系统空间分析等技术，逐步探明了古城的水系构造。”', '“大家看到的公园标志雕塑《良月流晖》，是著名艺术家、清华大学文科资深教授韩美林设计的。”', '“从本科到博士都是学习设计专业的苏焕，带领团队进驻，为五千年良渚文明打造IP，使其成为网红打卡地……”', '大家站在考古专家设计的模拟考古现场旁，看一群孩子现场挖掘。如何策划设计建设文旅文创项目，答案已在心中。', '“大家再忍一忍。接我们的车辆距离这里500米，估计20分钟后到。”负责车辆衔接的赵宏亮扶正抵挡寒风的帽子，看着蠕动的车流说。', '如此寒冷的天气，刘老根大舞台演出一票难求，中央里美食一条街人声鼎沸，步行中街人流不息。刚过晚上八点，游客想买杯酸奶喝却被店主告知已售罄……', '这一路走来，大家随处可感受到市场这只有力之手的抉择智慧：安吉古城运营公司多业态融合发展，对项目精心打造和培养；中央里步行街末位淘汰“弱者”的倒逼机制；遗址博物馆拥有文创产品经营公司，观赏性实用性兼具的产品琳琅满目，让人流连忘返……', '如何让人民群众喜欢、满意、答应？政府干好该干的、市场抉择自己的——这才是干好文旅文创的王道……大家的讨论在热烈进行中。', '启迪与思考：商场即战场，讲的是生死存亡法则，不可不察。政府干好自己的事，市场干好自己的活，如车之两轨平行向前，共同支撑经济这辆车快速前行。', '“你前头先走，我再照一张。”这是考察团队中高频率出现的一句话。大家一致的感受是：精工细作、巧夺天工、尽善尽美、无与伦比。纯粹的环境，纯粹的业态，纯粹的展陈，是此次考察学习最大收获和强烈感受。', '西湖白堤，距水面尺把高，堤岸犹如臂膀，将西湖之水揽入怀中。岸上绿植、垂柳、野花、古建与西湖融为一体，一派自然和谐之美。', '良渚古城，细雨如毛，风吹芦苇，远处的山、近处的丘和垄畴，让人追思5000年前故国家园，展开一场穿越时空的心灵交流。', '靓男倩女身着清朝服饰，在古色古香建筑衬托下，呈现出灵动之态，稚幼青涩荡然无存。人、连廊、古建、天空和飞鸟早已入画。', '坐落在均深30米的湖水之畔的跨湖桥遗址博物馆，每天上演山与水的对话，人与天的私语，鱼与鸟的互答，让人秒懂古人“江山与风月，最忆是杭州”的心境。', '西湖边，斜阳下，垂柳旁，大家不时按动相机快门，记录眼前纯粹美景之时，自己也显得那么纯粹。', '启迪与思考：文旅文创项目必须做到纯粹，方得青睐。“我的世界我做主”的游客世界容不得杂乱。', '文旅文创工作是人民对美好生活向往的重要承载。回应好时代之需、人民之需，我们应该如何做？', '有媒体报道：总投资近7亿元的34项工程同时开工。无论从开工数量还是从投资额度来说，沈阳古城改造均创下历史之最。大量工程实施，不怕造成交通拥堵等社会问题？', '“群众‘吹哨摇铃’报情况，政府部门闻讯齐抓共管，因此群众生活没受到多大影响。再说，一城人努力为一座城，理解也是一种贡献。”', '重统筹、能统筹、敢统筹、会统筹是沈阳古城改造工作者身上的一抹亮色。安吉古城多业态良性发展，以馆养馆目标得以实现，统筹建设要素集聚是关键。沈阳故宫节假日突破320万游客拉动消费背后，大量红马甲志愿者有老有少的背后，统筹各单位各部门全力保障服务是重点……', '启迪与思考：工作成也统筹、败也统筹。文旅文创工作涉及多家行政事业单位。要多角度、多维度、多层面思考问题，充分动员和科学用好各种力量。', '同策集团的静安新业坊项目把一处200亩地的旧工业厂区改造为一个影视基地，入驻影视文体企业40多家，解决就业岗位6000个，年交税60亿元。', '“同策集团之所以有今天的辉煌业绩，缘于它始终把根深深扎入市场和人民群众当中，充分聚合一切有利发展元素为己所用，做好‘全’字文章。”', '“我市文旅文创的问题不是天地小、资源薄弱，而是在‘聚合充分’上下气力不够。干事创业不能单打独斗，不仅要‘聚合’要素，还要在‘充分’上做细、做实。”', '启迪与思考：各要素“聚合”在一起就好比车之两轮、鸟之两翼。如果“充分”上出了问题，两轮难以平行，两翼难以共振。', '上山文化遗址管理处于主任介绍：浙江在完成良渚遗址申遗之后，随即又启动了浦江上山文化遗址与嵊州、义乌、永康、仙居、龙游五县区21处文化遗址联合申遗。目前，浙江省政府成立专班，申遗工作全面有序铺开，上山文化遗址申遗进入“上山”节奏。浙江果然是事事都走在前头！', '“将别人的先进经验做法拿来用，不是考察学习的唯一目的。关键是用心领悟别人思想认知、思维方式、工作逻辑如何形成，进而重构大脑解析问题的惯性思维，探索出适应时代发展要求的认知实践新路径。”', '“今天来看，文旅文创工作是否真抓实干，表现有二：有的严格落实市委、市政府要求，抢抓机遇不放手、不松懈；有的则是在嘴上喊喊、做做样子而已，只为不作为找借口，不为解决困难找办法。如果大家‘同频’不到一起，‘共振’效果就难以呈现。”', '“干工作横向要‘同频’，纵向也要‘同频’。只有上下左右‘同频’到位了，同一首歌才能唱响，同一盘棋才能下好。”', '“说到底，‘同频’就是要心往一处想、劲往一处使，直面困难，同向发力，同向而行。心无旁骛，方结硕果。”', '启迪与思考：“同频”与否是方法问题，也是格局问题，更是认知问题。总在自己一亩三分地里打算盘，没有“大”的思想认知做支撑，集聚的“蝶变效应”就无从谈起。', '沈阳古城业态相互贯连支撑共发展，上山文化遗址联盟借力申遗求突破，安吉古城紧紧围绕“休闲”主题引业态……成功案例无不折射出“合一”的魅力。', '“看来不能单纯看待文旅文创这项工作，而要在全市、全省乃至全国这个‘大盘’中推敲思考和策划项目。谋划项目既要有人间烟火气，又要体现出‘专精特新’。”', '文旅文创工作涉及单位和部门多，要深入认真细致琢磨，将大家的力量凝聚并调动起来；要凸显宣传功效，引导大家身心与事业、愿景与工作合而为一，共筑心中梦，共画同心圆。', '启迪与思考：“合一”是一种状态，既是物质的集结，又是神志的凝聚；既是谋篇布局心神所使的意念，又是干事创业动力激情的源泉；既有无我的状态，又有无畏的勇毅。只有用全心全意为人民服务浸润身心，才能达到自觉践行的高度。', '安吉古城项目策划者闲暇之余，总要到各处走一走、逛一逛。目的无他，就是要把身心完全融入大众、融入社会，用心感悟大众需求、社会需要，以此推敲抉择项目的可行性。', '“凡事预则立，不预则废。将军领军作战妙计频出、胜仗连连，诀窍就在知己知彼、‘预’字当先上。”', '“在市场经济下开展工作，必须要有‘无为’之状态。特别是文旅文创工作，投的是真金白银。若颗粒不收，岂不败仗一场？”', '“‘无为’的关键在‘心’。要做到心中有底、心中有数。这个‘底数’是有章可循、有法可依的支撑。走四方、览群书，多学、多看、多思才是正道。”', '“无为”的过程就好比车辆运转不停歇。思想的马达同样要高速运转，方得真知灼见。一场“无为”之道的解析会正在回程车内召开。', '启迪与思考：这种闲逛的“无为”之态，实乃“大为”的奥妙之处。它是暴风雨来临前的电闪雷鸣，是大合奏音律的铺垫，是滔滔江水一泻千里前力量的积蓄。“无为”实乃“真为”也。', '千机科技集团每年将在沙澧河畔提供不少于80次的千架无人机表演，生产基地将年产万架无人机推向市场，不仅丰富沙澧河景区业态，还为当地经济繁荣发展添砖加瓦。', '“千机科技集团落户漯河沙澧河景区，是我们借梯登高、不断丰富景区业态、增强吸引力的一招。今年国庆假期，沙澧河景区游客高峰达到50万，成效初显。”沙澧河建保中心副主任陈乐说。', '“研究国家、省、市层面的政策要求，结合自身实际，谋划包装项目，借上级政策资金之势，全力推进工作走深走实。目前，我们谋划的贾湖文化遗址公园提升项目，国家文物局已经对外公示。”贾湖遗址保护中心主任武艳芳说。', '“看来盘活以文旅商为目标的3515老厂区，必须在‘借’字上大做文章。下一步，我们将与沈阳的盛京集团、红梅集团、上海的同策集团对接好，把《草船借箭》这出活剧演好。”漯河际华3515集团副总刘彦青说。', '启迪与思考：古人云：登高望远靠借山，音传久远凭借风。当今社会，新技术、新业态、新思想“新”生事物快速迭代升级。如此大潮大势，抓好文旅文创工作有为之法何在？核心就是一个字——借。', '上海麦金地集团股份有限公司成立于2003年，注册资本9180万元，共有员工12000多名，为华为、通用电气、阿里巴巴、西门子、微软等500多家企事业单位提供高端团膳餐饮。', '“我们不光为企事业单位制作团餐，不断开发新的菜系，还进军预制菜领域，为百姓人家提供高质量服务。”', '“天上没有掉馅饼的好事。大到一个国家，小到一个单位和个人，创造发展自我的机会是重中之重。要自我创造条件，抢抓机遇为我所用。”', '启迪与思考：毛主席说过，当桅杆顶刚刚露出的时候,就能看出这是要发展成为大量的普遍的东西，并能掌握住它，这才叫领导。创造机遇就要有前瞻30年的战略眼光和社会担当，全力抓好我市文旅文创事业，一步一个脚印扎实推进各项工作。', '数据统计：沈阳“十一”期间，共接待国内外游客1119万人，同比增长222%，实现旅游收入110亿元，同比增长339%。一座仿佛要在经济社会大潮中沉寂的城市，一夜间被大家推崇到打卡目的地的浪尖。', '“沈阳文旅文创事业的繁荣得益于深耕细作的‘装扮’。这里的山、这里的水、这里的古城、这里的姑娘和小伙一直在等待大家到来。”', '“好一个‘等待’注脚。之所以等待，是因为准备好了一切；之所以等待，是因为有足够底气；之所以等待，是因为有满腔热情；之所以等待，是想让你遇到一个更好的沈阳。”', '“等待中的沈阳，不是坐而待之，而是起而行之，不断完善自己、提升自己，让每次相遇都有不同色彩。”', '启迪与思考：等待中孕育着机遇，关键看你准备好没有。时刻准备着，努力提升文旅文创事业高度、深度和宽度，才能让大家遇到一个更好的漯河！']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>155</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>市司法局开展廉政勤政制度学习教育月活动成效明显</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2010-08-11</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/bmdt/articlef98f86c5c9015003eeab6ccc468f4efe.html</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['为深化《廉政准则》、“四项”监督制度和局制度性文件的学习，切实加强机关和党员干部作风建设，市司法局精心开展了 “廉政勤政制度学习教育月”活动，进一步增强了全体党员干部的党性修养和服务意识，有效推动了“三项重点工作”。 一、精心组织，认真实施 为扎实开展好这次“廉政勤政制度学习教育月”活动，局党组召开会议作了专题研究，制定印发了《漯河市司法局关于开展“廉政勤政制度学习教育月”活动的实施方案》，并召开全体大会进行了动员。明确指出，《廉政准则》和干部“四项”监督制度的颁布实施，就是为党员领导干部干好工作立“规矩”，有了“规矩”就要坚决执行，从党员领导干部到每个同志都有职有责，职责法定。坚持廉政勤政，履行岗位职责，要“凭党性”做到思想信仰历久弥坚，“凭良心”做人做事问心无愧，“凭本事”把想办的事情真正地办实办好。要求全体同志要不断强化对纪律、制度的尊重和遵守，把岗位职责与全市的中心工作结合起来，服务大局，服务群众。在活动中，规定了学习《廉政准则》、干部“四项”监督制度、公务员法、机关制度性文件选编四个专题。明确了政治部、纪检组（监察室）和办公室共同组织实施，各科（室、部、处）长（主任）为组织开展好这次活动的第一责任人。每周二下午由科室组织集中学习，班子成员参加所分管科室的学习，每周五下午全体人员集中，以“人人讲坛”为平台，由班子成员领学，科室人员交流学习体会，共有4名班子成员作了专题领学，16名同志在“人人讲坛”发言交流，其他同志也都结合本职工作，写出学习体会，使这次活动开展得扎实有效。 二、深化教育，注重提高 开展“廉政勤政制度学习教育月”活动，其宗旨是为了教育党员领导干部和工作人员进一步增强党的宗旨意识、廉洁自律意识、勤政为民意识，提升执行力，保持全体公务员廉洁从政。许多同志结合自身的思想实际，在学习中深化教育，在教育中提升素质。班子成员带头学，带头讲。党组书记、局长张高峰同志强调：“木受绳则直，人守规则正。”对领导干部而言，要从小节做起，小节见精神，小节有品性，小节影响着整个队伍的作风。还有的班子成员制作了精美的多媒体课件，理论视角新颖，讲学生动活泼，增强了对理论学习的自觉性。有的同志从法制的角度阐述了《廉政准则》和干部“四项”监督制度颁布实施的重大意义；有的同志从我国公务员制度与西方公务员制度的比较，提示大家要坚守自己的岗位，依法履行自己的职责；有的同志从“工作、学习是人的生命的重要组成部分”的角度，阐述了作为一名公务员要“ 立大志、多尽职、察民情、戒浮燥、勤学习”，与大家共勉珍惜人生、廉洁从政；还有的同志结合外出考察学习的情况，介绍了先进地区的管理制度、精细的服务理念和严格执行制度、勤奋敬业的精神。交流中，大家的所讲所谈，既符合思想实际，又有理性分析，既有先进经验借鉴，又有理念创新。使大家从廉洁从政、敬业勤政、遵守制度、工作态度、人生感悟等方面有了更加深刻的体会和认识，更是受到了一次深刻的党性党风党纪教育。 三、努力践行，服务大局 全体同志坚持以学习促工作，以工作检验学习效果，做到学习教育和业务开展两不误，紧紧围绕深入推进“社会矛盾化解、社会管理创新、公正廉洁执法”三项重点和公开承诺为民办实事活动，用真心、下实劲、求实效，努力践行社会主义法治理念。宣教科为了做好全国、全省对我市“五五”普法依法治理工作的考核验收，对全市各单位各行业进行了检查，培育示范点21个，精心组织“法制宣传逐乡行”、“法治漯河沙澧行”等活动，拍摄专题片22 个，发表新闻稿件39篇，营造了深厚的法制宣传氛围；基层科不畏高温酷暑，组织人员对全市55个乡镇司法所、27个乡级人民调解委员会、179个村级人民调解委员会进行了综合检查。7月初对128名人民调解员进行业务、职业道德和执业纪律培训，夯实了基层基础工作；两劳科采取健全网络、搞好衔接、强化排查、规范管理等措施，不断深化和完善社区矫正工作，开展了招募社区矫正工作志愿者活动，加快了社会管理创新的步伐；律管科和市律协在全市律师队伍中组织开展了警示教育，教育全市律师依法履行职责，恪守职业道德和执业纪律，切实做到依法诚信执业，自觉维护当事人的合法权益；司法鉴定和公证业务主管部门开展了公开承诺办实事和行风建设的督导检查，司法鉴定机构为69名残疾人、农民工、下岗职工减免鉴定费用14700元，对39名办理公证的当事人进行电话回访，满意率在100%；市法援科着力落实民生工程，加大工作力度，法律援助接待中心已于6月底正式投入使用，让人民群众接受法律援助更方便、更快捷、更满意，推进了全市司法行政系统公正廉洁执法活动的深入开展。（纪检监察室）']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>155</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>漯河审计第期</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2010-08-06</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/bmdt/article1125de5bdc7ffb27dc57e4bd37bba2b3.html</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['2004年以来，漯河市审计局不断加强对政府派出机构的审计监督，尤其是对市政府驻京联络处，采取多种形式连续开展了4次审计，除进行正常的预算执行和财务收支审计，还对其主要领导开展任期经济责任审计。通过审计，市政府驻京联络处内控制度进一步强化，财务管理进一步规范，依法理财能力不断提高。', '领导高度重视。市政府驻京联络处是市政府派出机构，主要负责接待市政府及县区各部门的来京人员，协调、处理进京上访的有关事宜，为全市经济发展和领导决策提供综合信息。由于地处首都北京，任务特殊，加之近年来网络媒体对各地驻京办的负面炒作，无形中使驻京联络处成为市领导和广大群众关注的热点单位。市审计局在市政府的大力支持下，积极发挥鉴证、监督、服务等职能，连续开展对市政府驻京联络处的审计，审计后既加强了管理，又对市政府驻京联络处进行了宣传。市政府驻京联络处对审计监督的认识不断深化，越来越重视审计工作，多次主动要求对其审计。', '精心组织审计。每一次审计前，市审计局领导都要征求市领导、市政府办及有关部门的意见，针对不同时期特点制订审计实施方案，确定具体审计重点，做到有的放矢，操作性强，在最短的时间内完成好这项审计任务。审计过程中重点关注财务管理的真实性、合法性和效益性，看预算执行是否严格、高效，财务核算是否合法、规范，任期内经济工作目标任务完成情况，重大经济事项决策情况，内部控制制度建立和执行情况，国有资产保值增值情况，执行财经纪律和廉洁自律规定情况等。每次局领导都亲自带队进行就地审计，坚持和审计组同志一道分析审计中存在的突出问题，研究解决问题的措施和办法，做到边审边纠，边审边规范制度。', '强化规范管理。几年来，针对审计发现的部分收入挂往来账、政府采购不健全、票据开具使用不规范等问题，市政府驻京联络处高度重视各项管理制度的建立和完善，制订完善了《财务管理制度》、《固定资产管理制度》、《客房管理制度》、《服务人员工作纪律》等规章制度，又及时对《漯河市人民政府驻北京联络处管理制度》进行了修订，内控制度进一步强化，有效堵塞了管理漏洞，确保近年来无一起严重违规违法行为发生。经审计核实，市政府驻京联络处2009年3月末净资产总额比2002年10月增加500多万元，国有资产保值增值效果显著。 （办公室）', '进入舞阳县审计局，一种浓厚的书香气息和学风扑面而来。“多读书、读好书”已成为一种理念、一种习惯、一种时尚，一种生活方式、一种内在需求，成为机关干部的自觉行动。', '为不断加强和推进机关干部队伍建设，使机关干部成为学习型干部，机关成为学习型机关，舞阳县审计局在干部职工中深入开展“多读书、读好书”为主题的读书活动。为方便大家读书，该局今年重新装修了图书室和阅览室，又投入6000余元用于购置新书，新书书目涉及政治理论、学习指导、公文写作、摄影、法律法规和审计业务等多个方面。该局确定了5本必读书目，即《科学发展观读本》、《文明礼仪知识简明读本》和《AO2008实用手册》等书目，在此基础上每人还确定3本自选书目。并要求结合实际制定个人年度学习计划、每天抽出半小时读书看报、每人写一本读书笔记、每年撰写一篇调研文章，每年组织开展一次读书学习交流活动。', '为配合读书活动的开展，该局先后举办了文明礼仪从我做起演讲比赛，业务知识培训；计算机知识、新《审计法实施条例》、法制与宣传知识测试；开展“我为审计献一言”活动，共收到建议78条，有16条被采纳，促进了审计工作的开展。该局将通过读书交流会、报告会、心得体会文章评比等形式，进一步推动读书活动向纵深发展。并制定了抽查、评比、奖励制度，明确提出将检查评比结果纳入年终目标管理，统一进行考核，对表现突出的同志给予表彰和奖励。（舞阳县审计局）', '2009年以来，临颍县审计局为确保政府投资效益，按照《中华人民共和国审计法》的有关规定，主动作为，履行职责，把开展政府投资建设项目审计作为一项重要工作来抓。', '为加强对政府投资建设项目的审计监督，县政府出台了《临颍县政府投资建设项目审计监督办法》，该局组织审计人员到外地考察学习，借鉴外地先进经验，形成了自己的工作思路；在充分调研的基础上，制定实施了首批政府投资建设项目审计计划，将陈星聚墓园建设项目、新瑞大道、县委县政府机关硬化和绿化项目、乡镇敬老院建设项目、临颍县新区多条道路修筑项目、县自来水厂和供水管网项目等纳入审计计划；为确保工程造价的真实性，该局审计人员到菏泽、鄢陵，偃师、上蔡等地进行主材价格核查，掌握第一手资料。通过审计人员多方慎密的审计调查，掌握了工程造价的真实性，进一步规范了项目管理，确保了政府投资的使用效益。', '通过对30多个政府投资建设项目的决算审计，共审减资金700多万元。县政府充分肯定了投资审计工作，经县长办公会研究，决定增设临颍县政府投资建设项目审计中心，对人员编制，经费供给同时进行了明确，为开展政府投资建设项目审计提供了可靠的保证。（临颍县审计局）']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>155</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>南街高中成功晋升河南省示范性高中</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2007-04-12</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/bmdt/article38d875a74554147fedb39c076244c390.html</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['2007年2月8日，是南街高中学校发展史上值得纪念的日子，也是值得全体南高人举杯同庆的日子。这一天，不但记载了南街高中努力拼搏，成功晋升河南省示范性高中的骄人业绩，也记录着全体南高人抢抓机遇，争创省级示范性高中的艰辛历程。', '否有与时俱进的办学理念，是否有高标准的规划目标，这是全面提高学校品位的动力、导向和保障。南街高中始终把创建省级示范性高中，以名校促强校、走内涵发展道路作为学校发展战略目标。2006年2月，为了进一步推进学校的跨越式发展，全面提升办学层次，学校决定在成功创建市级示范性高中的基础上争创省级示范性高中，努力争取发展机遇，积极迎接挑战考验。', '客观地说，南街高中在创建过程中的确存在着诸多困难和问题，尤其是社会声望积淀不足和高考升学绝对人数偏低的状况使部分教职工产生了失望的情绪，以至于创建的初始阶段，在激烈的竞争面前，自信心略显不足，部分教职工对学校能否一举成功也有些怀疑。这些问题表明了学校的客观条件的确存在一定问题，同时也说明学校对创建工作宣传尚不到位。', '针对这种情况，学校及时召开了创建“省示范”师生动员大会和誓师大会，统一了创建思想，坚定了成功的信念。认真对照《省级示范性高中评验细则》要求，在客观分析学校创建的优势和不足基础上，着重分析了创建的必要性和可行性，统一了创建思想，坚定了全体教职工对创建成功的信念。创建思想的统一，极大地鼓舞了师生员工投身于创建工作的积极性，全校师生信心高涨，确保了创建工作的顺利开展。', '创建省级示范性高中的宏伟目标饱含了全校师生共同的期待，凝聚着全体南高人的希望。为确保省级示范性高中的创建成功，学校广泛征集创建意见和建议，统筹规划，精心组织，做了大量扎实、细致的工作，规范了学校办学行为，改善了学校办学条件，提升了学校办学层次。', '省厅十分重视对本批省级示范性高中申报资格的审验工作。由于临颍县已经创建了一所河南省示范性高中，因而南街高中的申报资格并不确定。对此，该校积极与市县教育部门沟通，请求上级教育部门能为学校争取到一个申报名额。在市县教育部门和学校的共同努力下，06年10月，南街高中顺利获得了申报资格。', '王宏斌为组长的省级示范性高中迎验工作领导小组，确立了“通过创建过程优化创建结果，全面提升学校办学水平和办学层次”的指导思想，建立了创建工作台帐，明确了领导责任，排查了工作漏洞。在此基础上，依据“软件从严，硬件从实”的原则，对学校软硬件设施进行了充实，不但加大资金和人员投入，对校园环境进行了优化，对学校的硬件设施进行了及时的整修和补充，使校园自然环境和人文环境焕然一新。同时，还精选媒体，加大宣传力度，与市电视台和《漯河日报》社通力协作，耗时一个多月，五易其稿，制作了学校宣传记录片和宣传画册，充分调动媒体的辐射作用，不断优化校内外环境，树立了学校的品牌形象，大大提升了学校的整体形象和软实力。', '南街村集团公司在资金十分紧张的情况下，为学校划拨创建专款50多万元，有力支持了学校的创建工作。上级领导的支持和帮助，增强了学校的创建信心和创建成效。', '为了进一步完善创建的监督机制，学校制定了《南街高中创建省级示范性高中责任制度》，确保创建工作责任到人，责任到岗，分别对各部门、各科室及全体教职工进行了具体的工作分工，并对有时间、有能力的教职工进行了抽调，集中收集创建信息，查漏补缺，完善了学校档案的分类和整理，确保了创建目标高标准如期完成。学校还积极营造浓厚的创建氛围，通过各种形式积极向广大师生宣传创建的目的和重要意义，进一步增强了广大师生的使命感、责任感、紧迫感，在全校范围内形成了人人参与创建、人人为创建做贡献的有效环境。', '06年4月份，组织班子成员到漯河高中、漯河四高、罗山一高等已创建成功的学校进行考察学习、交流座谈，不仅提高了班子成员对创建工作的认识，而且使大家了解了创建流程以及本校与名校之间所存在的差距，为后来有针对性地开展创建工作奠定了坚实的基础。同时，积极与有关评审专家联系，请高人出谋划策。如请河南省高中校长培训办主任王国森教授到校进行创建工作实地指导；到郑州请原郑州回民中学校长王现超、省教研室副主任闫俊合、省厅基础教育处副处长王德茹、省教育学院有关专家等进行创建工作细节指导；还经常与河师大附中校长滑秀林、河大附中校长陶有才、省教育时报社副总编侯岩等专家沟通，以不断提高我校的创建水平。', '为了更好地展现学校的良好形象，在创建接待上也做了很大的创新。首先，在各科室都安排了专门的接待人员，要求他们不但要熟悉本科室的具体情况，还要运用专业的用语介绍本科室的工作情况和各种实验仪器的使用情况，体现其专业化；其次，还十分重视师生的形象工程建设，为全体教职工定制了统一的职业服装，要求全体师生佩带校徽进科室、进课堂，师生良好的精神风貌赢得了各级领导的好评；同时，本着勤俭办事的原则，自力更生，高标准布置了接待专用会议室，并从村里请来了专业接待员，给评估专家留下了深刻的印象。']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>155</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>辽宁省朝阳市设施蔬菜产业发展经验值得借鉴</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2014-06-10</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/bmdt/article0dccf65f0ef7c6816835018582ca9e58.html</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['辽宁省朝阳市位于辽宁省西北部，目前是我国北方最大的设施农产品稳定生产供应基地，也是我国设施蔬菜产业建设发展先进地区之一。为了进一步提高我市设施蔬菜生产建设和管理水平，市政府菜办组织有关人员于5月21日—24日赴辽宁省朝阳市就设施蔬菜生产建设与管理进行了实地考察学习。该市的设施蔬菜生产规模、种植模式、管理方式以及经营效益均处于国内先进水平行列，值得我市借鉴。', '朝阳市国土面积1.97万平方公里，属北温带大陆性季风气候，总耕地面积为714万亩，其中设施蔬菜面积达到185万亩，主要以日光温室和高档连栋大棚为主，年产蔬菜500多万吨，实现产值156亿元。种植模式是越冬茬周年生产，主要以种植黄瓜、番茄、豆角、辣椒为主，产品销往全国各地及俄罗斯、东盟、香港等国家和地区，已形成了“冬销北、夏走南、四季生产、市场不闲”的产业格局。设施蔬菜已成为当地农村经济的重要支柱产业和农民致富的重要手段。朝阳市设施蔬菜发展通过采取六项主要措施，呈现出五大特点：', '一是全面强力推进。在设施蔬菜发展工作中，朝阳市坚持政府高度重视、全社会广泛动员，切实在百万亩设施农业建设上形成了强大的推进合力。市政府与各县（市）区政府分别签定责任书;县(市)、区政府与各乡镇政府签定责任书。一级抓一级，层层抓落实。实施了116个部门包扶116个乡镇村的设施蔬菜园区建设活动，并把100万亩设施蔬菜产业建设作为县（市）、乡（镇）两级“一把手”工程，强有力进行推动。', '二是规模沿线发展。全市积极开展群众工作，打破地域界限，采取联村建棚、联区建棚、联户建棚等方式，园区建设突出规模化、沿线沿路化，在高速公路、国道、省道等公路沿线规划建设设施蔬菜园区,便于产品外运与销售。', '四是多方筹措资金。朝阳市政府整合涉农资金重点向设施蔬菜建设方面倾斜，银信部门加强信贷服务，保证了资金需求。朝阳市累计投入资金180.8亿元，其中投放贷款41.28亿元，下拨省补贴资金8.53亿元，市县乡投入资金19.29亿元，企业投入23.7亿元，农民自筹88.05亿元。园区内的水、电、路配套建设费用全部由政府财政承担。', '五是完善管理服务。为了利于设施蔬菜园区服务与管理，朝阳市专门成立了市设施农业管理中心，规格为副县级，事业编制35个，强化了市本级设施农业管理、规划和技术指导力量。并按照“一乡一站、三权在县”的模式，全面完成了乡镇农技服务机构“三定”工作，保证了基层技术服务队伍。', '六是实施奖惩并举。建立了包扶和督查工作制度，由10位市委常委分别联系指导7个县（市）区设施农业建设，同时成立了由市委、市政府领导任组长、相关部门为成员的建设保障、督导推进、宣传动员、综合协调四个设施农业建设推进组。朝阳市政府抽调纪检委、组织部、政法委、农委等部门的骨干人员组成7个督查推进组，不间断地对各县（市）区建设完成情况进行实地核实和督查推进，朝阳市委、市政府制定了《朝阳市推进100万亩设施农业建设考评奖惩办法》、《100万亩设施农业建设考核评价办法》，将百万亩设施农业建设纳入县域经济考核目标中，明确多项考核举措和奖惩办法，并逐一兑现实施。', '一是区域规模发展。朝阳市在设施蔬菜建设过程中，园区建设突出区域化、规模化，其中500亩以上园区达到440个，1000亩以上园区达到180个。', '二是区域特色布局。在设施蔬菜生产中，形成了凌源的黄瓜，北票的番茄，喀左的茄子 、椒类，朝阳县的韭菜，建平的西葫芦等在全国都有重要影响的生产基地。北票市还被命名为“中国果菜日光温室番茄生产全国第一县”和“日光温室越夏番茄全国第一县”，凌源市日光温室黄瓜生产在全国具有较高的知名度。', '三是生产服务完善。建立了市县乡三级技术服务体系，培养和造就了一大批农民技术人员；同时每个县(市)区建设1处集新品种、新技术引进、试验、示范、推广、培训于一体的高标准蔬菜示范园区，示范园区有重点示范户，基本形成了完善的服务体系。', '四是市场销售顺畅。朝阳市现有大小设施农产品产地批发市场37处，其中农业部定点批发市场4处，蔬菜产品95%以上销往外地。其销售范围覆盖了东北三省、京津唐、上海、广州、深圳等全国各大城市，并出口到俄罗斯、东盟、香港等国家和地区。', '五是科技普及率高。朝阳市通过示范园引进推广普及了适应当地种植的国内外名优新品种。重点推广了营养土基质栽培、秸秆生物反应堆、水肥一体化基质栽培等新技术，全市新建工厂化育苗中心9个，年育苗能力达到18.1亿株。', '为进一步促进我市设施蔬菜的快速发展，实现我市蔬菜产业质的飞跃。通过对朝阳市设施蔬菜的考察学习，借鉴先进地区的生产和管理经验，结合我市的实际，特提出以下几点建议：', '一是加大政策扶持。市、县（区）要设立设施蔬菜建设扶持资金，市级财政每年拿出不少于1000万元，县区财政每年拿出不少于500万元，用于设施蔬菜园区的培育和奖补。市、县（区）充分整合涉农资金向蔬菜产业倾斜，同时加大蔬菜产业招商引资力度，充分利用社会资金发展我市蔬菜产业。交通、水利、电力等相关部门对规模化设施蔬菜园区的水、电、路等基础设施建设给予政策支持。', '二是提升服务功能。培育和建立我市设施蔬菜市县乡三级专业技术服务队伍，每个县区配备3-5名蔬菜专业技术人员。要加强同国内外蔬菜科研部门合作，加强我市设施蔬菜的技术指导和培训工作，进一步提升我市设施蔬菜服务功能。', '三是完善流通体系。市县区财政加大资金投入，用于市县区蔬菜批发市场、产地市场、农贸市场、直销市场、早晚市、专卖店、社区网点等市场流通网络建设。全市建设一个规模大、功能全的综合型蔬菜批发交易市场，每个规模化蔬菜基地建设相配套的产地蔬菜批发市场，每个居民小区要建设蔬菜直销市场。', '四是抓好科技创新。各县区要建设1个集引进、试验、示范、推广、培训于一体的高标准设施蔬菜示范园，加快国内外蔬菜新品种、新技术的引进、示范和推广工作，不断提升我市设施蔬菜生产技术和管理水平。', '五是实施奖惩措施。市政府出台《漯河市设施蔬菜建设考评奖惩办法》，将设施蔬菜纳入各县区经济考核目标中，明确考核举措和奖惩办法，做到严格落实，及时兑现。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>155</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>月日月日招商信息</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2018-05-21</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/zsyz/tzdt/article8af33551657fbb01704912449c29fcd1.html</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['】4月20-23日，县产业集聚区管委会副主任王全明带队赴广东拜访深圳汇邦集团公司董事长钟志明、广东长盈精密技术有限公司副总经理罗卫国、新裕电梯总经理梁钢、广东启惠教育投资股份有限公司董事长张秀成、东莞市兴科电子科技有限公司总经理李明金、东莞市名茂自动化科技有限公司副总经理夏亚魁、东莞市晟起精密模具配件有限公司总经理彭东庆，详细推介了临颍产业发展、生产要素及招商政策，双方就项目合作进行沟通洽谈。', '4月25日，市长刘尚进带队赴广东，拜访东莞力星激光科技有限公司董事长姚玉东、深圳市建福科技有限公司董事长周金辉，并出席临颍县建泰科技工业小镇项目签约仪式，双方就加快项目落地进行沟通交流。', '4月25日，县长赵丹带队赴广州拜访深圳仙之宝食品有限公司总经理魏艳超，双方就项目合作进行沟通洽谈。', '4月25日，泰国环农微生物科技有限公司DR.CHAROONKIAT博士一行受邀来漯参观考察，常务副县长李俊伟负责接待，详细了解我县食品工业、高效农业等产业状况，双方就项目合作进行沟通洽谈。', '月22日，县委副书记、县长张书民带队赴北京拜访中国核工业中原建设有限公司华中分公司总经理张永朝，双方就投资6亿元的舞阳新北环道路建设项目进行沟通洽谈。', '】4月17-19日，美国VTV生物制药公司副总裁达尔马波利塞提一行受邀来漯参观考察，', '4月20日，广东德润集团副总经理黄焕祥、国梁实业发展（深圳）有限公司董事长肖啸、漯河泓泽服饰董事长张红喜一行受邀来漯参观考察，区领导卢丽琴、李同葆负责接待，双方就项目合作进行沟通洽谈。', '4月25日，区长李新伟带队赴汝州、临颍考察学习城建工作，考察团一行在汝州市政协主席陈国重的带领下，先后对智慧城市创新中心、蔡庄社区立体停车场项目、洗耳河黑臭水体治理项目、幸福港、城市中央公园、南关棚户区安置社区和中大街历史文化街区改造提升项目进行实地考察；在临颍县委常委、常务副县长李俊伟的带领下，先后对黄龙湿地公园、鼓楼特色商业街、邢庄城市广场、兰湖公园、颖川学校等项目进行实地考察，并召开了座谈会，区领导卢丽琴、陈国军、朱浩伟参加。双方就城市规划、项目融资、“三违治理”等工作进行了深入交流。', '25日，区委常委、组织部长李伟恒带队赴浙江先后拜访了美国LISA医药临床研发机构负责人、杭州泰格公司董事长叶小平、苏州微康生物公司董事长方曙光，双方就其与裕松源药业合作的工作程序、时间节点等事宜进行了深入对接；以及漯河益生菌研发生产项目的厂房改造、人才政策申报等工作进度进行了沟通商议。', '4月21日，德国国际企业家商会主席李其昌，全球联实业集团董事局主席蒋群，中国量子科学院院长宏晨等带领德国国际企业家商会怡养小镇项目考察团一行受邀来漯参观考察，区长曹江涛', '4月26日，副区长吕峥带队赴深圳分别拜访恒利盛物流总经理刘利明、德汇通物流总经理王效飞，区商务局副局长朱伟民陪同，双方分别关于在召建设陆路货运项目和物流园建设的相关事宜进行了沟通洽谈。', '】4月18-20日，区党工委委员、管委会副主任黄安伟带队赴北京拜访红星美凯龙集团发展中心经理苟平，双方围绕示范区中央商务区高端商贸业态开发建设进行沟通洽谈。', '4月21-22日，区党工委委员、管委会副主任黄安伟带队赴海南拜访中国保利生态集团总工程师魏国庆，双方围绕示范区农业田园综合体项目规划设计与魏国庆进行深入交流，并诚邀魏国庆食博会期间到漯考察投资。', '4月20日，区党工委委员、管委会副主任任会刚带队赴深圳拜访深圳天集产城投资发展有限公司总裁李可，双方就初步合作进行了沟通洽谈。', '4月23日，北京金风科技股份有限公司国内营销中心副总经理陈秋华一行受邀来漯参观考察，区招商局局长崔保华负责接待，区招商局有关人员陪同。双方就项目合作进行了沟通洽谈。', '4月23日，中建二局有限公司河南事业部总经理王振飞一行受邀来漯参观考察，区党工委书记周剑负责接待，区党工委副书记、管委会主任荣之光，区招商局局长崔保华陪同。双方就意向合作进行了初步的对接。', '4月25日，中建七局郑州经瑞公司董事长李中贤一行受邀来漯参观考察，区党工委书记周剑负责接待，区党工委副书记、管委会主任荣之光', '区党工委副书记牛建昌、区招商局局长崔保华以及区党政综合办公室相关人员参加陪同。李中贤一行参观了西城区城市展示馆，实地考察了凤凰岛特色小镇项目。双方就初步合作意向进行了沟通洽谈。', '4月25日，万达集团河南区域总经理宁军一行受邀来漯参观考察，区党工委书记周剑负责接待，区招商局局长崔保华陪同。双方就项目合及规划方案进行了深入沟通交流。', '4月25日，北控清洁能源集团运营总裁郭其峰一行受邀来漯参观考察，区党工委副书记、管委会主任荣之光负责接待，区党工委委员、管委会副主任史志伟，区党工委委员、工会主席张韶敏，区建设投资中心']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>155</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>从窗口优质服务看国土文明建设临颍县国土资源局精神文明创建纪实之三</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2016-08-18</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/xqdt/article813357730589aec245a9866ac5f2b7f5.html</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['从窗口优质服务看国土文明建设——临颍县国土资源局精神文明创建纪实之三_漯河市人民政府', '窗口工作是国土部门与广大企业群众面对面交流和近距离接触的平台，也是企业和群众了解政策、办理业务的重要渠道。因此，窗口服务质量的高低，直接影响着国土部门在老百姓心目中的形象。如何提升登记窗口服务质量，将这件利国利民的好事做好？近年来，县国土资源局紧紧依行政服务中心国土局窗口为依托，全力打造优质服务群众满意窗口，有力地促进了全局精神文明建设。 打造一流队伍 营造一流环境 县国土资源局党委认识到，窗口就是一张“名片”，工作人员的一言一行、一举一动直接关系着单位形象。因此，必须下大气力加强窗口建设。该局本着优中选优的原则，先后抽调7名精英充实到国土窗口。为加强对窗口工作的领导，该局5名班子成员坚持每周轮流到窗口值班，并采取“走出去”、“请进来”的办法，定期对窗口工作人员进行有针对性的业务和理论培训，组织窗口工作人员到外地国土窗口考察学习，开阔了视野，创新了思路。 为营造一流的“窗口”环境，该局在硬件建设上加大投入， 始终坚持高起点、高标准。具体达到了三个“优”。一是“环境优”。电脑、桌椅等服务设施由服务大厅配置外，该局还配备了打印机、复印机、多易拍等办公设备和软件，环境整洁，地亮桌净，为服务对象提供优良的服务环境；二是“配置优”。为窗口人员和带班领导统一配备了标志服，制作了个人铭牌，在窗口摆放文明服务用语示范牌，配备资料档案柜，窗口设有便民箱；三是“服务优”。窗口设立文明示范岗，在显要位置悬挂工作人员监督台和工作服务承诺，为窗口服务的规范、高效运作打下了坚实的基础。 开通绿色通道 服务便捷高效 为支持县域社会经济发展,该局专门开通了绿色通道,实行重点项目特事特办。从项目预审、用地报批、供地到联合竣工验收、土地权证办理实行一条龙服务。对办事群众，按照尽最大可能取消不必要的程序，尽最大限度简化不必要手续的要求，做到份内的事积极办，份外的事帮着办，能办的事立即办，难办的事妥善办。同时还实行了限时服务，延时服务、预约服务、送证上门等服务事项，大大提高了办事效率，受到了企业和群众的一致好评。一次，一位企业老板到窗口办理土地使用证书，当他拿着材料来到窗口的时候，已经到了中午下班时间。当窗口负责人陈涛了解到企业老板并不是本地人，而且下午还有事要赶回平顶山老家的情况后，立即组织大家加班加点，等到土地使用证办理完毕，已经是下午一点多钟。这位企业老板拿到土地使用证后，非常感动，一定要请窗口同志吃饭，被他们婉言谢绝。几天后，县优化办就收到了该企业送来的锦旗，上面写着“热情服务、廉洁高效”八个字。还有一次，窗口工作人员接待了一位行动不便的老大爷前来办理土地使用证，当时老大爷带来的资料并不齐全，为了避免老人再跑冤枉路，窗口工作人员决定开车将老人送回家中，并在老人家中将所有材料准备齐全。土地使用证书办好后，窗口工作人员又亲自将证书送到了老人家中，老人手捧土地证书，热泪盈眶，紧紧握住工作人员的手，连声说道：“谢谢、谢谢、谢谢！我活了70多岁，还是第一次遇见这么好的工作人员……。” 领导现场办公 难题迎刃而解 近年来，县国土资源局一直坚持局领导窗口现场办公制度。专一制定了窗口办公日程安排表，5名班子成员每周轮流到窗口带班，现场办公。这一措施使办事企业和群众遇到的一些急难问题在窗口及时得到解决，避免了请示、汇报、研究再答复等繁琐过程。2014年5月的一天，窗口突然来了十几位群众，情绪十分激动。当时正在窗口带班的副局长杨俊峰热情的接待了他们。经过深入细致的了解，原来由于边界问题，群众与开发商发生争议。杨俊峰一边安抚群众不要做过激的行为，一边耐心的给群众讲解有关政策，并作出限时解决的承诺，使群众非常满意。据统计，近年来仅领导现场办公及时处理解决的难题就达30多起。 县国土资源局窗口工作人员，以实际行动用他们热情周到、廉洁高效的服务,诠释了“文明国土、地利人和”的文化内涵,铸就了窗口的优质服务品牌。据统计，近年来，该局窗口共办理国有土地使用证870多本，集体土地使用证10000多本，他项权利证220余本，未出现一例错登，漏登现象。各项审批业务均在规定时限内办结，实现了按时办结率100%，群众满意度100%。该窗口2011年荣获漯河市行政服务中心优质服务窗口称号；连年被县行政服务中心评为年度红旗窗口；20多个季度被评为季度红旗窗口；20多人次被县行政服务中心评为季度服务明星；2013年窗口负责人陈涛还被河南省国土资源厅评为优质服务先进个人。']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>155</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>漯河市党政代表团赴雄安新区西安洛阳学习考察</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2023-07-10</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/zfxxgkpt/fdzdgknr/zfgz/zfgz/article1d5d40dc439d466daba2bc0161a3f9d0.html</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['7月4日至7日，市委书记秦保强、市长黄钫带领各县区（功能区）和市直机关主要负责同志组成的党政代表团，赴雄安新区、西安市、洛阳市就城市规划建设治理、科技赋能、建设现代化产业体系、培育消费新热点等进行考察，学习借鉴好经验好做法，共谋务实良策，共商发展大计。', '7月7日下午，市党政代表团结束考察返漯，当晚就召开全体（扩大）会议，交流学习收获，相互启发借鉴，第一时间消化转化，明确努力方向，研究部署落实举措，推动学习考察成果转化为谋划推动工作的具体行动。市委书记秦保强主持会议并讲话。市长黄钫讲话。周新鹤、乔彦强、周剑、吴玉培、荣之光参加会议。', '4天时间，3个省市，27个学习考察点，行程紧凑、内容充实，代表团成员一路走、一路看，边交流心得边探讨研究，纷纷表示深受启发、收获满满，一致认为，雄安新区、西安市、洛阳市深入贯彻党的二十大精神和习近平总书记重要讲话、重要指示批示精神，坚决落实党中央、国务院重大决策部署，创新创造开展工作，取得了令人瞩目的发展成果，形成的先进经验和成功模式非常值得认真学习借鉴，通过学习考察，既认清了与先进地区的差距，也坚定了比学赶超、加快发展的决心信心。', '秦保强指出，在全市上下深入贯彻落实党的二十大精神和第二批学习贯彻习近平新时代中国特色社会主义思想主题教育即将开始之际，组织市党政代表团到雄安新区、西安市、洛阳市学习考察，正当其时、意义重大。这是一次对标对表、重温领袖嘱托之行，一次开阔视野、解放思想之行，一次感受文化、体验消费之行，一次交流取经、激发动力之行。从三地经济社会发展日新月异的变化、人民群众丰富多彩的美好生活中，我们更加深刻感悟到习近平新时代中国特色社会主义思想的强大真理力量和实践伟力，真切感受到雄安、西安、洛阳三地的站位高、格局大、理念新，接受了一次深刻的国情和党性教育、思想淬炼和灵魂触动，更加坚定了沿着习近平总书记指引的方向奋勇前进的信念信心和政治自觉。各县区各部门要学习好、借鉴好三地的先进理念和成功经验，及时跟进开展主题教育，切实打开解放思想这个“总开关”，坚持不懈用习近平新时代中国特色社会主义思想的世界观、方法论和贯穿其中的立场观点方法谋划推进工作，转变观念对标新标杆，奋勇争先紧盯最前沿，把学习考察成果转化为推动漯河高质量发展的思路举措和具体行动。要更加注重调查研究、学习钻研，进一步丰富全面创新的系统性，勇于探索实践，强化系统观念法治思维，构建抓落实的闭环机制，充分发挥“创新第一动力”作用；提升城市工作的综合性，规划建设治理一体推进，传统产业提升和新兴产业培育一体发力，重大项目和民生实事同步实施，推动“产城人文”深度融合；增强产业的带动性，整合资源、集聚要素，强化聚变思维裂变思维，推动产业链、创新链、供应链、价值链、制度链“五链”耦合，实现更多“从0到1”的转变；激活文旅的功能性，强化文化铸魂文创赋能，发展文化事业文化产业，加强“颠覆性创意、沉浸式体验、年轻化消费、移动端传播”，更好满足人民群众精神文化需求；突出消费的时代性，强化场景创造业态创新，延伸链条、集聚人气、引领市场，更好拉动内需扩大消费，奋力保持全面领先、持续领先的良好态势。', '秦保强强调，要凡事讲政治，工作必对标，跑出现代化漯河建设“加速度”。深刻理解把握中国式现代化理论体系，创造性地落实习近平总书记重要讲话、重要指示批示精神，牢牢把握高质量发展首要任务，积极主动对接国家重大战略，锚定省委“两个确保”，深入实施“十大战略”，打造中国式现代化漯河版本。要守正创新、久久为功，建设优势再造、形神兼备的食品名城。更加突出食品产业的主导地位，加快培育发展智能制造、新材料等战略性新兴产业，推动预制菜、健康食品等产业抢占风口、扩规提质、积厚成势，支持企业研发单品、建立标准、开拓市场、扩大影响；坚持活态传承传统文化、挖掘汲取本土文化、汇聚交融现代文化、完美融合美食文化，深入研究食品文化，深度提炼“漯河味道”，大力引进知名美食企业，加快建设一批美食消费空间，坚定不移推动食品城向美食城转变；着力提升沙澧河文化风光带的承载力，系统做好沙澧河水体及堤岸、灯光演绎、历史文化街区、新兴业态的创意提升，真正把沙澧河变成融合文化、吸引人流、促进消费、支撑发展、展示形象的主要承载地。要奋力赶超、大力引育，建设龙头带动、人才汇聚的创新之城。对标国家级创新平台建设提升中原食品实验室，启动实验室二期设计建设工作，高标准高质量建设食品科创园；积极与企业开展协同创新，扎实做好企业创新服务工作；进一步明确中原食品实验室的研究方向，突出重点，加快突破，始终引领食品产业发展潮流；加大人才招引育力度，全面落实优惠政策，加快研究生院建设，充分激发人才活力。要规划先行、智慧服务，建设文明引领、温暖可及的幸福之城。办好省定、市定民生实事，加快推动七大民生工程建设，坚持以“五星”支部创建引领幸福社区、和美乡村、创新园区建设，切实把为民惠民的举措落到实处；高度重视城市的高水平规划、多模式建设、智慧化治理、市场化运营，把漯河特有的文化元素融入重大项目和民生工程建设中，全面彰显现代、典雅、清新、活力的城市特质。', '黄钫强调，抓城市必须抓规划抓建管。要突出规划引领，加快编制城市规划导则，一张蓝图干到底；注重补齐短板，疏解城市功能，持续提升城市品质。抓产业必须抓风口抓创新。要立足资源禀赋和产业基础，融入好理念、好思路，打造生命力旺盛的本地风口产业；聚焦食品前沿领域，重点引进适合本土消费的产品，提升质量标准，引领食品消费；建立市场需求发现机制，定向研发新品，不断改良创新；建立人才引进保障机制，吸引企业和年轻人来漯开展创新活动；建立研发问题解决机制，实现“研发—中试—产品—市场”一体化。抓文旅必须抓场景重运营。要理清逻辑关系，增加游客体验感、融入感、互动性，让游客真正参与进来；坚持长周期、算大账，完善“食、住、行、游、购、娱”全链条服务，更好集聚人气、激发市场活力；坚持统一标准，秉承宁缺毋滥，选择行业最优商家入驻景区；结合我市码头文化、集市文化、贾湖文化、许慎文化等，不断塑造场景，打造城市符号。抓教育必须抓布局巧借势。要高标准编制教育发展规划，重点抓好“护旧、补短、建新”三件事，不断提升基础教育水平；做好人才培育，优化教育资源布局，推动区域教育优质均衡发展；加强教育资源整合，夯实高等教育基础，为现代化漯河建设提供人才支撑。']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>155</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>中央环境保护督察组回头看交办案件办理结果公示第批</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2018-07-02</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/ztzl/zyhjbhdchtk1/bdbg/article47d8fd346df0918bab55fa1999abab44.html</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['：漯河市临颍县三家店镇前杨东村，南头有个养鸡场，粪便废水外排，污染地下水，蚊蝇滋生，臭气熏天，向当地相关部门多次反映未解决。', '：鉴于该养鸡场距离东杨村太近，影响居民生活质量，临颍县三家店镇政府对该养鸡场下发了《环境污染责令整改通知书》，责令其限期关停取缔。7月10日前，养鸡场对污粪池进行密封覆盖，喷洒除臭除蝇药物消除异味，对原露天堆粪厂残余鸡粪进行清除，涉及土地进行复耕，现已整改到位；养鸡场对污粪经发酵后用罐车及时抽走追肥自家庄稼，做到日产日清。', '：鉴于该养鸡场距离东杨村太近，影响居民生活质量，临颍县三家店镇政府对该养鸡场下发了《环境污染责令整改通知书》，责令其限期关停取缔。', '：漯河市源汇区大刘镇陶庄村西南边有一个养猪场，粪便废水排入厂边的大坑内，气味难闻，蚊蝇满天飞，污染环境。向漯河市环保局反映两三个月未处理。', '：经调查，举报件属实。举报件反映养殖场为桂梅生猪养殖场，2000年建设投产，占地一亩，圈舍面积300平方米。', '该养殖场没有粪污处理设施，场内气味难闻。2018年4月，环保部门接到群众投诉后，源汇区环保攻坚办、大刘镇政府、区畜牧局联合进行调查，要求该养猪场限期整改，大刘镇和陶庄村干部积极做养殖户工作，动员其清空圈舍，该养殖户表示，因大部分幼猪尚未达到出栏条件，采取逐步减少存栏办法清空圈舍，今后不再进行养殖。', '：漯河市郾城区新店镇新店村，大队书记闫顺淼开了一个养殖场，粪便污水排放新店小区南边一个污水池内，臭气难闻，地下水受到污染，村民敢怒不敢言。', '：经调查，举报件属实。⑴关于“大队书记闫顺淼开了一个养猪场”，经查，不属实。举报件反映的养殖场为新源养殖场，闫顺淼前妻所办。⑵关于“粪便污水排放至新店小区南边一个污水池内，臭气难闻”，经查，属实。该养殖场日常产生的粪便采用干清粪工艺进行处理，养殖废水排入该场西侧的氧化塘内自然发酵，由于氧化塘未采取密闭措施，随着气温逐渐升高，产生气味影响周边群众生活。⑶关于“地下水受到污染，村民敢怒不敢言”，经查，不属实。该养殖场氧化塘建设过程中采取了严格防渗漏措施。', '：6月27日，郾城区畜牧局向该养殖场下达了《整改指导意见》，责令该养殖场抽干氧化塘中液体消毒后回填，6月30日氧化塘内液体已抽干并做消毒除臭处理，坑塘已全部回填到位；7月15日之前在养殖场区内建设与现有规模相配套密封加盖的三级沉淀池，并做好防渗漏、防除臭等措施，今后不得向外排放。', '：漯河市舞阳县永银化工厂院内的漯河远建精细化工有限公司严重污染的情况，之前我们已经向县、市、省环保部门多次举报，今年曾两次向市委省委书记举报，但都在检查之前被舞阳县环保局领导提前告知该企业减产减量，该敲炉不敲，最后不了了之。走后立即又恢复生产，照样污染环境，妖雾腾腾，气味刺鼻，尤其是早晚及阴雨天，毒雾像浓云一样，一波波四散开来，严重影响周边居民的身体健康，该企业是生产三氯化铝的小作坊企业，生产工艺落后，污染十分严重，30几台炉子经液氯和铝锭在高温下反应，生成的有毒气体直接散发到大气中，污染可想而知。有关环保部门和我永银公司主要领导若没有拿该企业老板的好处会允许这样的企业长期生存吗?现在来检查他们又以技改的名义停产了，但你们走后立马又开始生产，污染照旧。', '：漯河市舞阳县永银化工厂院内的漯河远建精细化工有限公司严重污染的情况，之前我们已经向县、市、省环保部门多次举报，今年曾两次向市委省委书记举报，但都在检查之前被舞阳县环保局领导提前告知该企业减产减量，该敲炉不敲，最后不了了之。走后立即又恢复生产，照样污染环境，妖雾腾腾，气味刺鼻，尤其是早晚及阴雨天，毒雾像浓云一样，一波波四散开来，严重影响周边居民的身体健康，该企业是生产三氯化铝的小作坊企业，生产工艺落后，污染十分严重，', '：经调查，举报件属实。⑴关于“已经向县省市环保部门多次举报，今年曾向市委、省委书记举报”，经查，属实。对于转来的反映“漯河远建化工精细化工有限公司污染环境”等问题信访件，漯河市环保局都进行了深入调查，并及时将调查结果进行了上报。⑵关于“但都在检查之前被舞阳县环保局领导提前告知该企业减产减量，该敲炉不敲，最后不了了之”，经查，不属实。舞阳县环保局没有在各级环保部门对该企业检查时提前告知企业减产减量，今年4月份以来，漯河市环保局先后3次对该公司进行实地检查，并委托第三方公司进行现场监测。⑶关于“走后立即又恢复生产，照样污染环境，妖雾腾腾，气味刺鼻，尤其是早晚及阴雨天，毒雾像浓云一样，一波波四散开来，严重影响周边居民的身体健康”，经查，不属实。该公司5月份技改停产之前，一直正常生产，有组织排放废气进入尾气吸收装置，经过二级水洗、二级碱洗、一级水洗把关捕集后通过25米高排气筒排放，今年4月、5月正常生产时，漯河市环保局委托第三方进行突出监测，该公司废气达标排放。⑷关于“该企业是生产三氯化铝的小作坊企业，生产工艺落后，污染十分严重，30几台炉子经液氯和铝锭在高温下反应，生产的有毒气体直接散发到大气中，污染可想而知”，经查，不属实。该企业环保手续齐全，企业在项目建设时配套建设有污染物处理设施，并在生产过程中正常运行，多次检测废气，有组织排放、无组织排放厂界均能达到国家排放标准。⑸关于“有关环保部门和我永银公司主要领导若没有拿该企业老板的好处会允许这样的企业长期生存吗?”，经查，不属实。该企业符合产业政策，污染治理设施运行正常，污染物达标排放。⑹关于“现在来检查他们又以技改的名义停产了，但你们走后立马又开始生产，污染照旧”，经查，不属实。该公司于今年4月22日向环保部门提交了环保设施优化升级及厂房改造方案，5月份至今一直在停产技改中。', '：(1)针对该公司三氯化铝生产车间设备密闭不严、废气收集效果差等问题，环保部门责令该公司按照既定方案对工艺及污染物处理设施进行升级改造，改造后验收合格方可投产。(2)河南永银化工实业有限公司对厂区内进驻企业加大监管力度，确保按环评要求依法依规生产经营，废水废气达标排放。(3)舞阳县产业集聚区管委会、县环保局、县工信办等有关部门，加大对企业监督管理力度，一旦发现环境违法行为，依照有关法律法规从快从严从重查处。', '：漯河市舞阳县姜店乡李湾村村干部李红欣，不顾村民反对，在村南边可耕地上盖了一个大型养鸡场，离村子太近，臭气熏天，严重污染环境。多次向上级反映，一直没有得到解决。', '：经调查，举报件属实。举报件反映养殖场为漯河爱欣牧业有限公司，养鸡场在李湾村村庄南200米左右，法人代表李红欣（系李湾村党支部副书记），建于2000年11月，占地3400平方米，场内已建成鸡舍3栋。⑴关于“在村南边可耕地上盖了一个大型养殖场”，经查，不属实，该养殖场占地不属于可耕地，为建设用地。⑵关于“离村子太近”，经查，属实，该养鸡场在李湾村村庄南侧，距离村200米左右。⑶关于“臭气熏天，严重污染环境”，经查，属实。该养鸡场有2栋鸡舍，喂养蛋鸡12000只，养殖场内虽建有10立方米沉淀池一个，但无法满足处理需要，粪便露天晾晒，造成养殖场周围臭气较大。⑷关于“多次向上级反映，一直没有得到解决”，调查组查阅舞阳县环保局、畜牧局、姜店乡政府信访记录，未收到举报信件。', '：经调查，举报件属实。举报件反映养殖场为漯河爱欣牧业有限公司，养鸡场在李湾村村庄南', '：6月25日，姜店乡政府对该养鸡场下达《整治通知书》，责令该养鸡场3日内对周边环境整治到位，并实施粪污综合治理措施，确保达到环保要求。⑴养鸡场新建420平方米晾晒棚一座，水泥硬化地面，四周砌1米高围墙，使用钢架结构和透明瓦搭建，已于6月30日建成。⑵养鸡场新挖24立方沉淀池一座，四周砌墙水泥防渗处理，池底水泥硬化，已于6月28日建成。⑶养鸡场对剩余的老晾晒场整体机耕，全部种植农作物，6月28日复耕完毕。⑷养鸡场对鸡舍、晾晒场、复耕的老晾晒场喷洒除臭剂做无害化处理，6月28日喷洒到位。⑸责成养鸡场鸡粪日产日清，保持场区整洁无异味。⑹责成养鸡场做好环保备案，完善相关手续。⑺舞阳县环保局对该养鸡场违法排污行为立案处罚，依法处以4万元罚款。', '：经舞阳县姜店乡党委研究决定：给予姜店乡李湾村党支部书记、环境保护网格长李建伟党内警告处分，给予环境保护监督员李中宇党内警告处分，给予环境保护巡查员李红欣党内严重警告处分。', '：漯河市临颍县城关镇三里头村S329省道路边南侧临颍县曜邦机械厂（城东中心幼儿园西侧30米，晨阳农庄东），该厂自2016年查环保时就摘掉了厂牌，用6米高的铁皮把院子围起来，平时大门紧闭。造好机器后就在院子里直接露天喷漆。周围都是刺鼻气味，造机器的噪音也是非常大。', '：经调查，举报件属实。⑴关于“该厂自2016年查环保时就摘掉了厂牌，用6米高的铁皮把院子围起来，平时大门紧闭”，经查，属实。该厂在2016年环保督查时主动关门停产，之后用约6米高的铁皮围成车间生产。⑵关于“造好的机器就在院子里露天喷漆，周围都是刺鼻气味，造机器的噪音也非常大”，经查，部分属实。该厂尚不具备整机制造能力,无密闭喷漆车间以及配套的挥发性有机物污染防治措施，现场检查时厂内未发现有喷漆设备及喷漆痕迹，生产时有噪音。', '：经调查组调查，该企业属于“散乱污”企业，6月25日，临颍县城关管理办公室对“临颍县曜邦机械厂”下发《环境污染取缔通知书》，6月26日至29日，临颍县城关管理办公室联合县环保局、工商局、电业局、自来水公司，按照“两断三清”标准依法对该厂进行取缔，6月29日，已取缔到位。', '：经临颍县城关办研究决定，对负有环境管理监管责任的网格长符国亭、网格员刘广杰、巡查员李晓娜、督察员姚青花分别给予党内警告处分。', '：5月底漯河市临颖县杜曲镇长枪王村中佳木业使用两吨烧燃煤锅炉被漯河市环保局检查中发现。杜曲镇政府和环保局主要领导官商勾结利用这个事件做文章，肆无忌惮扒毁杜曲镇三百多家木材加工企业炕房，目的就是让三百多家生产单位搬入镇政府和县环保局官员入股建设的集中烘干中心，来收取高额租金和保护费。镇政府打着环保口号“一刀切”扒掉炕房，人民群众深恶痛绝，不让使用燃煤或者生物质燃料商户都可以积极改正，不至于政府不顾人民群众生死存亡而野蛮扒炕房。烘干中心是镇政府和县环保局以及漯河市有关领导入股兴建，违规使用劣质醇基燃料污染烘干中心周围一公里范围刺鼻难闻严重污染环境。', '：经调查，举报件属实。⑴关于“5月底漯河市临颍县杜曲镇长枪王村中佳木业使用两吨烧燃煤锅炉被漯河市环保局检查中发现”，经查，属实。2017年5月，临颍县环保、公安等部门联合执法中，发现临颍县中佳木业有限公司存在非法使用燃煤锅炉问题，联合执法组依法对厂内锅炉烟囱进行拆除、2吨烧燃煤锅炉向东进行移位、所有连接管道和线路予以切断，2018年5月29日，市县环保督查中发现该公司擅自将已拆除移位的燃煤锅炉复位并准备投入使用，5月30日，临颍县环保局责令该公司1天内主动拆除擅自复位燃煤锅炉，当天，该公司按照要求自行拆除燃煤锅炉，并对烟囱、管道、锅炉主体进行了清理。⑵关于“杜曲镇政府和环保局主要领导官商勾结利用这个事件做文章，肆无忌惮扒毁杜曲镇三百多家木材加工企业炕房，目的就是让三百多家生产单位搬入镇政府和县环保局官员入股建设的集中烘干中心，来收取高额租金和保护费”，经查，不属实。杜曲镇组织100多家涉及环保问题的木业企业负责人先后到山东曹县、宁津和河北文安、香河等地考察学习木业产业环保整治经验，并组织相关部门逐片、逐村、逐户调查摸底，对照中央、省、市制定的集中整治工作要求，开展了为期8天的土地违法和木业产业燃煤锅炉暨燃煤土炕集中整治清零行动，清零行动是落实环保政策、纠正违法行为的集中整治行动，而河南杜曲板材股份有限公司是股份制企业，通过查阅该公司章程、制度、股份名单、证明等相关资料，没有发现各级官员参股入股的行为，也没有公司支出高额租金和保护费迹象。⑶关于“镇政府打着环保口号“一刀切”扒掉炕房，人民群众深恶痛绝，不让使用燃煤或者生物质燃料商户都可以积极改正，不至于政府不顾人民群众生死存亡而野蛮扒炕。”经查，不属实。杜曲镇政府为推进大气污染防治工作，保障人民群众身体健康，严格按照“以改为主，应改尽改、非改即拆”原则，坚持拆改同步，对集聚区内燃煤锅炉、燃煤炕房进行综合治理，杜曲镇集中整治清零行动，只对2017年以来顶风违规，迟迟不改，不顾环保政策偷烧燃煤的企业进行依法拆除，不存在打着环保口号“一刀切”行为，同时为满足企业生产需要，镇政府积极帮助企业想办法、找出路、谋发展。⑷关于“烘干中心是镇政府和县环保局以及漯河市有关领导入股兴建，违规使用劣质醇基燃料污染烘干中心周围一公里范围刺鼻难闻严重污染环境。”，经查，不属实。河南杜曲板材股份有限公司，统一社会信用代码：91411100344946844N，注册资本：三千万，经营范围：木材、木制板材、竹、竹制品销售，该公司是由漯河市木业协会牵头，木业企业组团参与建设的项目，共涉及木业企业41家，不存在领导参股入股问题。为帮助企业解决烘干板材问题，烘干中心规划建设有2台75吨循环流化床锅炉、1台40吨循环流化床锅炉，因集中供热项目预计2018年10月投入运行，临时配备1台6吨、1台10吨的新型清洁能源炉进行过度，6月25日，河南杜曲板材股份有限公司委托河南政检检测研究院有限公司在正常运行情况下检测无组织废气3次，根据检测报告，该公司燃油炉无组织废气氨及硫化氢排放浓度均满足《恶臭污染物排放标准》二级标准限值要求；6月25日，临颍县环保局监测站对河南杜曲板材股份有限公司燃油炉在运行基本稳定情况下对排放废气进行监测，监测结果符合GB13271-2014,《锅炉大气污染物排放标准》限值。', '：6月28日、29日，杜曲镇政府联合临颍县电业、中房燃气有限公司、技术监督局等部门，对木业产业企业“煤改电、煤改气、煤改醇基燃料”进行业务指导，进一步提高企业改造清洁能源知晓率。下一步，临颍县将进一步加大宣传力度和执法力度，对违反环保政策的企业坚决进行整治，并积极为企业发展谋出路，推进经济高质量发展，努力实现经济发展和生态环境保护协同共进、人与自然和谐共生。']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>155</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>漯河市司法局关于征求漯河市城市生活垃圾分类管理条例草案意见的公告</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2023-03-28</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jlhd/myzj/article163f786502a04a1e8df3ae17fc9f10c7.html</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['漯河市司法局关于征求《漯河市城市生活垃圾分类管理条例（草案）》意见的公告_漯河市人民政府', '。请全市各级机关、企事业单位和其他组织、广大市民积极参与到地方立法中来，以认真负责的态度，就', '习近平总书记高度重视垃圾分类工作，多次作出重要指示批示，深刻指出了垃圾分类工作的重要意义、实施要求、重点任务和科学方法。习近平总书记强调', '实行垃圾分类，关系广大人民群众生活环境，关系节约使用资源，也是社会文明水平的一个重要体现。他指出要加快建立分类投放、分类收集、分类运输、分类处理的垃圾处理系统，形成以法治为基础、政府推动、全民参与、城乡统筹、因地制宜的垃圾分类制度，努力提高垃圾分类制度覆盖范围。', '2020年省城市管理重点工作》中对于垃圾提出了“有地方立法权的市要尽快建立完善生活垃圾分类政策法规体系，因地制宜细化生活垃圾分类投放、收集、运输和处理的管理要求和技术标准，为垃圾分类工作开展提供法规和政策保障”。', '《漯河市新建居住区垃圾分类设施管理办法》《垃圾分类设施配置标准》《漯河市城区生活垃圾分类工作考核办法》等文件，', '对生活垃圾分类投放、分类运输和分类处理进行了规范，构建了垃圾分类标准体系。但仍然存在不足之处。如：垃圾分类全流程管理制度缺少刚性支撑。由于目前法律对于垃圾分类多为原则性规定，对于垃圾分类投放、分类收集、分类运输全过程管理缺少执法依据，尤其是商户混投混收、保洁公司混装混运等现象缺少有力的执法手段。以立法的形式，建立', '“垃圾分类责任制”，有利于完善垃圾分类制度体系、明确各级分类管理责任，建立协同高效、合作有力的工作机制，提高城市管理水平。同时明确学校、商场、机关、饭店等各类公共场所垃圾分类主体责任，规范垃圾分类投放、收集、运输、处置等各个阶段的行为，对于出现混装混运、二次污染等行为进行处罚，对加强垃圾分类管理提供重要法律保障。', '通过入户宣传、主题活动、积分兑换等形式的活动开展，提升了居民生活垃圾分类意识和居民参与的积极性。由于垃圾分类是新事物，受生活习惯和生活方式的影响，群众对生活垃圾分类的认识还不是很多，参与垃圾分类的意识还比较淡薄，分类习惯还未形成，存在分类不彻底现象。', '通过广泛的教育倡导，建立以法治为基础的垃圾分类制度，让人民群众认识到实行垃圾分类的重要性和必要性，通过有效的督促引导，让更多人行动起来，更好地提升漯河城市文明的整体水平。', '建立组织保障，第一时间成立了以局长为组长的《漯河市城市生活垃圾分类管理条例》（草案）起草工作小组，组成专班，夯实职责，细化任务，落实到人；按照《通知》规定的', '《中华人民共和国固体废物污染环境防治法》、《城市市容和环境卫生管理条例》等相关法律法规，压茬儿推进立法工作。', '2019年起，我们组织有关人员先后到郑州、开封、洛阳、安阳、焦作等地实地考察，学习垃圾分类先进工作经验；2020年，安排人员先后到银川、徐州、淮安等地考察学习。', '各区环卫部门、基层办事处负责人召开座谈会，对我市垃圾分类工作及立法事宜进行探讨，结合我市工作实际，不断研究打磨《条例（草案）》。', '15个省、市垃圾分类方面的地方性法规，比照学习，借鉴其特色亮点，重点参考了《郑州市城市生活垃圾分类管理办法》《焦作市生活垃圾分类管理条例》《宜春市生活垃圾分类管理条例》《铜陵市生活垃圾分类管理条例》，完成了《条例（草案）》起草工作。', '。认真贯彻落实习近平总书记重要指示精神，将国家、省委对生活垃圾分类工作的政策措施法治化。坚持问题导向，重点对分类投放不准确，分类处理设施不完善等问题，制定针对性措施。突出漯河特色，精准科学立法，对上位法有规定的，避免重复或少重复，重点针对生活垃圾分类投放、收集、运输、处理四个关键环节进行规范，对《河南省城市生活垃圾分类管理办法》已有规定的，如资源化利用等内容不再重复表述，同时，对上位法原则性规定予以细化。按照全域、全时、全链条理念，探索建立市场化的建设和运行模式，推动企业规模化、集约化运营，促进可持续发展。为规范垃圾分类工作、促进生态文明进步提供法治保障。', '《条例（草案）》形成后，我们征求了各县区人民政府，经济技术开发区、市城乡一体化示范区、西城区管委会、市发展改革委、', '。《条例（草案）》依据的主要法律法规有《中华人民共和国固体废物污染环境防治法》、《城市市容和环境卫生管理条例》《河南省城市生活垃圾分类管理办法》。依据的主要部门规章有建设部《城市生活垃圾管理办法》。参照的政策性文件主要有河南省发展和改革委员会、河南省住房和城乡建设厅联合', '起草过程中，我们借鉴了广州、上海、宁波、南京、铜陵、南昌、宜春、郑州、焦作等地级市在垃圾分类管理立法中的先进经验和做法。', '主要对城乡生活垃圾处理专项规划的编制、年度建设计划的制定和实施、设施建设的标准和要求', '明确了专项规划编制的主体、程序和内容；强化了对生活垃圾收集、转运、处理设施用地的保护；规定了生活垃圾设施的建设应当符合有关环境卫生标准', '立涵盖生产、疏通、消费等领域的各类源头减量工作机制，单位和个人应当履行生活垃圾分类投放的义务，减少使用或者不使用一次性用品，减少生活垃圾产生。要求单位、公共场所、餐饮及旅游行业等场所', '将生活垃圾分为可回收物、有害垃圾、厨余垃圾、其他垃圾四类；为加强生活垃圾分类投放的指导与管理，', '单位和个人分类投放的方式作出了规定；采用细分类模式，明确了生活垃圾中产生量不高、不适', '明确了生活垃圾分类收集、运输、处理的主体和方式；详细列举了收集、运输、处理单位开展作业应当遵守的相关规定；三是针对实践中存在的混收混运、混合处理等问题，建立了拒收制度。', '明确规定了政府及其有关部门、街道办事处等在考核检查、引导督促等方面的职责；在综合考核、监督检查、社会监督员职责等方面作出了具体规定，加强生活垃圾分类的监督和管理。', '对违反本条例的行为作出了具体处罚规定。针对个人违法投放垃圾的行为，实施渐进式惩戒，规定先由环境卫生主', '正，情节严重的，对个人处五十元以上二百元以下罚款。在对个人的处罚上，重点把握了处罚与教育相结合的原则。', '。我市生活垃圾分类试点工作主要在中心城区推进，但也有一些农村先行先试，考虑到有的区域目前尚不具备生活垃圾分类处理能力，《条例（草案）》明确适用范围为', '“本市实行城市化管理的区域”，暂不包括农村，从实际工作出发，这样既保证开展效果，也符合我市实际', '确保分类投放工作落实到位。对收运单位、处理单位的设置作出了细化规定，并设定了相应罚则。', '。为加强对生活垃圾分类全过程的监督和管理，《条例（草案）》第六章在借鉴外地市先进经验基础上，结合我市工作实际，对建立生活垃圾分类综合考核制度、监督检查制度、应急管理机制、社会监督员制度等作出了具体规定。同时，还规定任何单位和个人有权对违反生活垃圾分类管理规定的行为进行举报、投诉。', '生活垃圾减量化、资源化、无害化处置水平，改善人居生活环境，推进生态文明建设，根据《中华人民共和国固体废物污染环境防治法》《城市市容和环境卫生管理条例》等法律、法规，结合本市实际，制定本条例。', '对危险废物、医疗废物、废弃电器电子产品、建筑垃圾等固体废物的管理，法律、法规已有规定的，从其规定。', '【党建引领】城市生活垃圾分类管理应当坚持以党建为引领，建立健全以基层党组织为核心，居（村）民委员会、业主委员会、物业服务企业、业主等共同参与的工作机制，共同推进生活垃圾分类管理工作。', '市、县（区）人民政府应当加强对城市生活垃圾分类管理工作的领导，将城市生活垃圾分类管理工作纳入国民经济和社会发展规划，确定城市生活垃圾分类管理目标，建立城市生活垃圾分类工作协调机制', '乡（镇）人民政府、街道办事处应当将城市生活垃圾管理纳入基层社会治理体系，组织开展辖区城市生活垃圾分类管理工作。', '市环境卫生主管部门负责制定城市生活垃圾分类管理工作制度、标准和规范并组织实施，指导县（区）环境卫生主管部门开展城市生活垃圾分类管理工作，对开展城市生活垃圾分类管理工作的情况进行监督检查。', '鼓励通过奖励、表彰、积分兑换等方式，促进单位和个人积极参与城市生活垃圾减量与分类工作。', '践行绿色低碳的生活方式，履行源头减量和分类投放义务，减少城市生活垃圾产生量，并承担城市生活垃圾产生者责任。', '生活垃圾收集、转运、处理设施年度建设计划所需资金和土地，分别纳入年度投资计划和年度土地供应计划。', '生活垃圾分类设施，并与建设项目主体工程同步设计、同步建设、同步验收、同步交付使用。', '生活垃圾分类投放要求以及无固定的垃圾收集点的，由市、县（区）人民政府按照有关规定，组织补（扩、改）建，配齐收集容器。', '销售者应当严格执行对限制产品过度包装的有关规定，减少包装性废物的产生；企业生产、销售、进口被列入强制回收目录的产品和包装物，应当按照国家有关规定进行回收。', '农业农村、市场监管、商务等部门应当按照各自职责，加强对果蔬生产基地、大型农贸市场、标准化菜场、超市的管理，积极推行净菜上市、洁净农副产品进城。', '（一）可回收物，指适宜回收和资源化利用的生活垃圾，包括纸类、塑料、金属、玻璃、织物等；', '（二）有害垃圾，指对人体健康或者自然环境造成直接或者潜在危害的生活垃圾，包括灯管、家用化学品、电池等；', '（三）厨余垃圾，指易腐烂的、含有机质的生活垃圾，包括家庭厨余垃圾、餐厨垃圾、其他厨余垃圾等；', '的单位和个人应当按照规定的时间、地点和方式，将生活垃圾分类投放到有相应标识的收集容器内，禁止随意倾倒、抛撒、堆放或者焚烧。', '（二）灯管、家用化学品、电池等易碎或者含有液体的有害垃圾，应当在采取防止破损或者渗漏的措施后投放；', '（三）体积大、整体性强或者需要拆分处理的家具、家电等大件垃圾，应当堆放至指定地点，或者预约再生资源回收经营者上门收集搬运。', '（一）实行物业管理的居住小区，物业服务企业为管理责任人；未实行物业管理的居住区，所在地的居（村）民委员会为管理责任人；', '（一）建立生活垃圾分类日常管理制度，在显著位置公示生活垃圾投放的时间、地点和方式等；', '机关、企事业单位、社会团体等单位的办公或者生产经营场所，应当根据需要设置可回收物、有害垃圾、厨余垃圾、其他垃圾四类收集容器；', '城市住宅区、居民点应当在公共区域成组设置厨余垃圾和其他垃圾两类收集容器，并至少在一处生活垃圾交投点设置可回收物、有害垃圾收集容器；', '生活垃圾分类投放管理责任人可以根据可回收物、有害垃圾的种类和处理利用需要，细化设置收集容器。', '生活垃圾的，应当及时劝阻，督促其按规定分类投放；对不听劝阻的，管理责任人可以拒绝其投放，并报告环境卫生主管部门处理。', '餐厨垃圾的收集、运输和处置实行特许经营。个人和未取得特许经营权的单位不得从事餐厨垃圾收集、运输和处置。', '餐厨垃圾产生者应当将餐厨垃圾交给取得特许经营权的单位收集、运输和处置。取得特许经营权的单位应当对餐厨垃圾实行统一收集、运输，集中定点处置。', '收集要求】可回收物、有害垃圾应当定期定点分类收集、运输，厨余垃圾、其他垃圾应当每日定时分类收集、运输。', '（一）使用符合国家规定和本市生活垃圾类别标示、标识的密闭化车辆，防止污水滴漏、扬尘等；', '收集、运输单位发现管理责任人混合收集城市生活垃圾的，应当要求其重新分类收集，再按规定交付；', '（五）按照有关规定安装使用监测设备，实时监测污染物的排放情况，并公开污染排放数据；', '（六）建立环境信息公开制度，定期向社会公开年度环境报告书、生活垃圾处理设施主要污染物排放数据、环境检测等信息；', '环境卫生主管部门应当逐步建立生活垃圾分类投放质量第三方评估机制，对生活垃圾源头减量、分类投放质量等进行评估，并公开评估结果。', '生活垃圾分类投放管理责任人有下列行为之一的，由环境卫生主管部门责令限期改正；逾期未改正的，按照下列规定处罚：', '（二）将分类后的生活垃圾移交给不符合要求的单位收集、运输的，处五千元以上五万元以下罚款。', '违反本条例第二十八条第一款规定，个人和未取得特许经营权的单位从事餐厨垃圾收集、运输的，', '责令改正，有违法所得的，没收违法所得；拒不改正的，对单位处一万元以上十万元以下罚款，对个人处一百元以上五百元以下罚款。', '生活垃圾收集、运输单位有下列行为之一的，由环境卫生主管部门责令改正，并按照下列规定处罚：', '（一）运输车辆未做到密闭、完好和整洁的，处以二千元以上二万元以下的罚款；无明显生活垃圾分类标志、标识的，处一千元以上五千元以下罚款；', '（二）未按照规定的时间、地点、线路分类收集、运输生活垃圾的，处二千元以上二万元以下罚款；', '生活垃圾分类处理单位有下列行为之一的，由环境卫生主管部门责令改正，处十万元以上一百万元以下罚款，没收违法所得：', '【承担责任】各级人民政府以及相关部门工作人员在城市生活垃圾管理工作中有滥用职权、玩忽职守、徇私舞弊等行为的，依法给予处分；构成犯罪的，依法追究刑事责任。', '漯河经济技术开发区、漯河市城乡一体化示范区、漯河市西城区管委会根据市人民政府授权，依照本条例负责辖区内的生活垃圾分类管理工作。']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>155</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>漯河市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>漯河市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>精准发力三板先行漯河市装配式建筑发展呈现良好局面</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2022-08-16</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>http://www.luohe.gov.cn/sitesources/lhsrmzf/page_pc/jrlh/bmdt/articleddf37c23930340d29b9ea26c5d824440.html</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['发展装配式建筑是建造方式的重大变革，是贯彻落实习近平生态文明思想和党的十九大精神的重要体现。近年来，漯河市通过政府引导、市场推进、精准发力、循序渐进，有力推进装配式建筑发展，工作呈现良好局面。', '漯河市是装配式建筑产业发展政策出台较早的省辖市之一。2017年10月，漯河市人民政府印发了《关于大力推进装配式建筑产业发展的实施意见》，之后又相继出台了《关于建立漯河市建筑业发展和装配式建筑发展工作联席会议制度的通知》《关于印发漯河市装配式建筑项目补助资金管理暂行办法的通知》《关于明确装配式建筑发展重点推进区域及实施办法的通知》《关于规范装配式建筑项目实施重点环节管控的通知》等文件，为装配式建筑积极推进奠定了政策基础。', '漯河市装配式建筑产业基础比较好，2017年两家构件生产企业建成投产，其中混凝土结构构件生产企业1家、年生产能力15万立方米，钢结构构件生产企业1家、年生产能力5万吨。截至目前，全市共有构件生产企业5家，其中混凝土结构构件生产企业3家、年生产能力30万立方米，钢结构构件生产企业1家、年生产能力25万吨，轻钢结构构件生产企业1家、年生产能力0.5万吨，有两家企业先后被评为河南省装配式建筑产业基地。', '发展之初，漯河市部分开发企业、施工单位和社会大众对装配式建筑存在抵触情绪，致使装配式建筑推广应用工作一度陷入僵局。漯河市通过积极布局，努力克服投入成本高、技术力量薄弱、技能人才短缺、社会认知度低等制约行业发展的因素，积极探索装配式建筑发展路径。成立了装配式建筑产业发展调研组，先后赴江苏南通、湖南长沙、上海等装配式建筑发展先进城市进行实地考察学习。充分借鉴外地市“示范带动”的经验，结合本市实际，采取“由易到难、先水平后竖向”的典型做法，探索决策了与其把装配式建筑工业化程度定位太高，市场难以接受，致使建筑业仍被手工业生产方式垄断，不如统筹各种要素，循序渐进推动，走出一条符合漯河市情且具有漯河特色的建筑产业化道路。', '一是划定区域重点推进。明确漯河市城市规划区西城区、城乡一体化示范区起步区、龙江生态城、沿河第一街坊等区域为装配式建筑重点推进区域，坚持“小步快走”进行试点示范。二是要求重点推进区域内强制应用“三板”（即：预制内墙板、预制楼梯板、预制楼板），应用总比例不得低于60%。在推进“三板”应用基础上，鼓励采用预制外墙板、预制阳台、预制遮阳板、预制空调板等预制构件，提高建筑的整体装配率。三是建立行业发展激励政策。一方面对“三板”应用项目和其他结构形式的装配式建筑技术应用项目，经核实符合扬尘治理“六个100%”标准的，在重污染天气临时管控期间给予开复工管理的优惠政策；另一方面对达到装配式建筑评价标准要求的装配式建筑项目，享受省市装配式建筑资金奖补等支持。一系列政策组合拳的打出，正式拉开了漯河市装配式建筑技术应用的帷幕。', '通过建筑项目“三板”技术应用的实践，漯河市实现了装配式建筑“从无到有”，并取得了明显成效，主要有以下六个方面：一是补齐了装配式行业发展短板。通过成立装配式产业发展协会，组建装配式建筑专家人才库，集中社会优势资源，延伸拓展装配式建筑相关服务，引领行业加快技术创新。完善标准规程，支持漯河市企业开展装配式建筑相关标准规程编制工作，其中由漯河市监理企业编制的《混凝土结构工程监理规程》填补了我省空白。二是推进了建筑产业化稳步发展。随着“三板”技术的推广应用，漯河市的装配式建筑构件生产主要以叠合楼板、预制楼梯、内隔墙为主，有效提高了构件生产的标准化、规模化程度，促进了构件生产工业化水平，降低了生产成本，提升了生产企业市场竞争力，为漯河市装配式建筑发展奠定了产业基础。三是锻造了一批新型产业化工人队伍。漯河市先后有1000余名建筑工人参与了“三板”技术应用施工，熟练掌握了相应的施工技术。期间，市住建局推出的“送教上门”服务，更是助力漯河市建筑劳务人员实现了从农民工到产业工人的转型，为漯河市装配式建筑发展奠定了人才基础。四是积累了可供参考的装配式建筑发展经验。从摸着石头过河到成效凸显，漯河市装配式建筑发展以“三板应用”为切入点，突破传统建造业的壁垒，在沙澧大地上开花结果，省内多个兄弟市县先后到漯河市考察学习，交流经验做法，实现了共同提高。五是提升了装配式建筑社会认可度。通过实践，社会各界人员直观地认识到，装配式建造方式更加安全、干净、整洁，工地扬尘、噪音、建筑垃圾等问题大幅减少，改变了传统施工方式中工地现场脏乱差的现状。消费者也认识到装配式建筑外观精细、工整，工程质量高，结构安全等特点，增强了购买意愿。六是提升了装配式建筑行业科技创新能力。漯河市装配式建筑企业以科技研发、技术创新为着力点，促进成果转化、落地，推动企业降本增效，实现了漯河市装配式建筑行业的高质量发展。近年来，漯河市装配式建筑行业科技研发投入达到1585.6万元，累计获得专利49项。其中，由河南远大天成住宅工业股份有限公司自主研发的GLC轻质隔墙板解决了无机发泡材料强度低，耐水性差，易返霜等缺点，具有无需蒸压、轻质高强、隔音性好、吸水率低、干缩值小、A1级防火，节能环保、安装便捷等优势。同时，市住建局以漯河日报、漯河广播电视台、漯河建设等新闻媒体为阵地，进行了广泛宣传，为我漯河装配式建筑发展营造了良好舆论氛围。', '在“三板”应用较为成熟的基础上，2021年8月，漯河市住建局联合发展改革委等八部门研究制定了《漯河市关于加快落实大力发展装配式建筑支持政策的意见》，进一步明确装配式建筑发展目标。要求全市装配式建筑（装配率不低于50%）占新建建筑比例达到30%以上，到2025年达到50%以上，同时规定除了按要求或按比例配建的装配式建筑项目以外的新建建筑全部采用“三板”，且比例不低于70%，实现了装配率的稳步提高，由此漯河市装配式建筑工作步入了全新发展阶段。', '漯河市在推进装配式建筑发展过程中，以“三板”应用为支点，跨越艰难险阻，经历风雨考验，推动了装配式建筑产业蹄疾步稳迈向更高质量高层次发展。目前漯河市装配式建筑工作呈良好态势，临颍县和漯河市先后被评为河南省装配式建筑示范城市（县），漯河市远大天成、天成鸿路两家公司先后被评为河南省装配式建筑产业基地。国家住建部、省委省政府和省住建厅领导多次到漯河调研指导装配式建筑工作，并给予好评。', '今后，漯河市将继续秉持创新、协调、绿色、开放、共享的发展理念，深入推进装配式建筑示范城市建设，把推进装配式建筑作为实现建筑业转型升级、城市建设绿色发展的重要抓手，努力实现装配式建筑的升级发展，为城乡建设领域实现双碳目标作出积极贡献。']</t>
         </is>
